--- a/examples/sbtab-sbml/ecoli_wortel_2018_data.xlsx
+++ b/examples/sbtab-sbml/ecoli_wortel_2018_data.xlsx
@@ -6422,7 +6422,7 @@
     <t>'!rxnconReactionList'!A1</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='TableOfContents' Description='Table of contents' Date='2019-09-23 11:04:45' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='TableOfContents' Description='Table of contents' Date='2019-09-23 12:47:23' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -6512,7 +6512,7 @@
     <t>rxnconReactionList</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Compartment' ModelName='Compartment' Date='2019-09-23 11:04:45' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Compartment' ModelName='Compartment' Date='2019-09-23 12:47:23' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6572,7 +6572,7 @@
     <t>!Identifiers:sbo.go</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Compound' ModelName='Compound' Date='2019-09-23 11:04:45' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Compound' ModelName='Compound' Date='2019-09-23 12:47:23' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6635,7 +6635,7 @@
     <t>!NameForPlots</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Definition' ModelName='Definition' Date='2019-09-23 11:04:45' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Definition' ModelName='Definition' Date='2019-09-23 12:47:23' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6650,7 +6650,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Enzyme' ModelName='Enzyme' Date='2019-09-23 11:04:45' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Enzyme' ModelName='Enzyme' Date='2019-09-23 12:47:23' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6671,7 +6671,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='FbcObjective' ModelName='FbcObjective' Date='2019-09-23 11:04:45' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='FbcObjective' ModelName='FbcObjective' Date='2019-09-23 12:47:23' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6686,7 +6686,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Gene' ModelName='Gene' Date='2019-09-23 11:04:45' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Gene' ModelName='Gene' Date='2019-09-23 12:47:23' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6716,7 +6716,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Layout' ModelName='Layout' Date='2019-09-23 11:04:45' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Layout' ModelName='Layout' Date='2019-09-23 12:47:23' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6752,7 +6752,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Measurement' ModelName='Measurement' Date='2019-09-23 11:04:45' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Measurement' ModelName='Measurement' Date='2019-09-23 12:47:23' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6764,7 +6764,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='PbConfig' ModelName='PbConfig' Date='2019-09-23 11:04:45' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='PbConfig' ModelName='PbConfig' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6773,16 +6773,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Position' ModelName='Position' Date='2019-09-23 11:04:45' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Position' ModelName='Position' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Protein' ModelName='Protein' Date='2019-09-23 11:04:45' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables TableType='Data' ModelId='Quantity' ModelName='Quantity' Date='2019-09-23 11:04:45' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Protein' ModelName='Protein' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables TableType='Data' ModelId='Quantity' ModelName='Quantity' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7202,7 +7202,7 @@
     <t>R11r</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='QuantityInfo' ModelName='QuantityInfo' Date='2019-09-23 11:04:45' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='QuantityInfo' ModelName='QuantityInfo' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7220,7 +7220,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='QuantityMatrix' ModelName='QuantityMatrix' Date='2019-09-23 11:04:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='QuantityMatrix' ModelName='QuantityMatrix' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7259,7 +7259,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Reaction' ModelName='Reaction' Date='2019-09-23 11:04:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Reaction' ModelName='Reaction' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7331,7 +7331,7 @@
     <t>!Regulator</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='ReactionStoichiometry' ModelName='ReactionStoichiometry' Date='2019-09-23 11:04:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='ReactionStoichiometry' ModelName='ReactionStoichiometry' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7343,7 +7343,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Regulator' ModelName='Regulator' Date='2019-09-23 11:04:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Regulator' ModelName='Regulator' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7355,7 +7355,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Relation' ModelName='Relation' Date='2019-09-23 11:04:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Relation' ModelName='Relation' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7370,13 +7370,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Relationship' ModelName='Relationship' Date='2019-09-23 11:04:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='Relationship' ModelName='Relationship' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='SparseMatrix' ModelName='SparseMatrix' Date='2019-09-23 11:04:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='SparseMatrix' ModelName='SparseMatrix' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7385,13 +7385,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='SparseMatrixColumn' ModelName='SparseMatrixColumn' Date='2019-09-23 11:04:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='SparseMatrixColumn' ModelName='SparseMatrixColumn' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='SparseMatrixOrdered' ModelName='SparseMatrixOrdered' Date='2019-09-23 11:04:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='SparseMatrixOrdered' ModelName='SparseMatrixOrdered' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7400,19 +7400,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='SparseMatrixRow' ModelName='SparseMatrixRow' Date='2019-09-23 11:04:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='SparseMatrixRow' ModelName='SparseMatrixRow' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='StoichiometricMatrix' ModelName='StoichiometricMatrix' Date='2019-09-23 11:04:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='StoichiometricMatrix' ModelName='StoichiometricMatrix' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='rxnconContingencyList' ModelName='rxnconContingencyList' Date='2019-09-23 11:04:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='rxnconContingencyList' ModelName='rxnconContingencyList' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7433,7 +7433,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='rxnconReactionList' ModelName='rxnconReactionList' Date='2019-09-23 11:04:46' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables TableType='Data' ModelId='rxnconReactionList' ModelName='rxnconReactionList' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
@@ -7868,7 +7868,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4">
-        <f>COUNTA('!Compartment'!A3:A1048576)</f>
+        <f t="array" ref="C3">SUM((COUNTBLANK(OFFSET('!Compartment'!A3, ROW(1:1048574)-1, 0, 1, 20))&lt;&gt;20)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7878,7 +7878,7 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4">
-        <f>COUNTA('!Compound'!A3:A1048576)</f>
+        <f t="array" ref="C4">SUM((COUNTBLANK(OFFSET('!Compound'!A3, ROW(1:1048574)-1, 0, 1, 35))&lt;&gt;35)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7888,7 +7888,7 @@
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4">
-        <f>COUNTA('!Definition'!A3:A1048576)</f>
+        <f t="array" ref="C5">SUM((COUNTBLANK(OFFSET('!Definition'!A3, ROW(1:1048574)-1, 0, 1, 5))&lt;&gt;5)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7898,7 +7898,7 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4">
-        <f>COUNTA('!Enzyme'!A3:A1048576)</f>
+        <f t="array" ref="C6">SUM((COUNTBLANK(OFFSET('!Enzyme'!A3, ROW(1:1048574)-1, 0, 1, 19))&lt;&gt;19)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4">
-        <f>COUNTA('!FbcObjective'!A3:A1048576)</f>
+        <f t="array" ref="C7">SUM((COUNTBLANK(OFFSET('!FbcObjective'!A3, ROW(1:1048574)-1, 0, 1, 6))&lt;&gt;6)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7918,7 +7918,7 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4">
-        <f>COUNTA('!Gene'!A3:A1048576)</f>
+        <f t="array" ref="C8">SUM((COUNTBLANK(OFFSET('!Gene'!A3, ROW(1:1048574)-1, 0, 1, 22))&lt;&gt;22)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7928,7 +7928,7 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4">
-        <f>COUNTA('!Layout'!A3:A1048576)</f>
+        <f t="array" ref="C9">SUM((COUNTBLANK(OFFSET('!Layout'!A3, ROW(1:1048574)-1, 0, 1, 13))&lt;&gt;13)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7938,7 +7938,7 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4">
-        <f>COUNTA('!Measurement'!A3:A1048576)</f>
+        <f t="array" ref="C10">SUM((COUNTBLANK(OFFSET('!Measurement'!A3, ROW(1:1048574)-1, 0, 1, 5))&lt;&gt;5)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7948,7 +7948,7 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4">
-        <f>COUNTA('!PbConfig'!A3:A1048576)</f>
+        <f t="array" ref="C11">SUM((COUNTBLANK(OFFSET('!PbConfig'!A3, ROW(1:1048574)-1, 0, 1, 2))&lt;&gt;2)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7958,7 +7958,7 @@
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4">
-        <f>COUNTA('!Position'!A3:A1048576)</f>
+        <f t="array" ref="C12">SUM((COUNTBLANK(OFFSET('!Position'!A3, ROW(1:1048574)-1, 0, 1, 3))&lt;&gt;3)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7968,7 +7968,7 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
-        <f>COUNTA('!Protein'!A3:A1048576)</f>
+        <f t="array" ref="C13">SUM((COUNTBLANK(OFFSET('!Protein'!A3, ROW(1:1048574)-1, 0, 1, 15))&lt;&gt;15)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7978,7 +7978,7 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4">
-        <f>COUNTA('!Quantity'!A3:A1048576)</f>
+        <f t="array" ref="C14">SUM((COUNTBLANK(OFFSET('!Quantity'!A3, ROW(1:1048574)-1, 0, 1, 75))&lt;&gt;75)*1)</f>
         <v>158</v>
       </c>
     </row>
@@ -7988,7 +7988,7 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
-        <f>COUNTA('!QuantityInfo'!A3:A1048576)</f>
+        <f t="array" ref="C15">SUM((COUNTBLANK(OFFSET('!QuantityInfo'!A3, ROW(1:1048574)-1, 0, 1, 19))&lt;&gt;19)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -7998,7 +7998,7 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4">
-        <f>COUNTA('!QuantityMatrix'!A3:A1048576)</f>
+        <f t="array" ref="C16">SUM((COUNTBLANK(OFFSET('!QuantityMatrix'!A3, ROW(1:1048574)-1, 0, 1, 49))&lt;&gt;49)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4">
-        <f>COUNTA('!Reaction'!A3:A1048576)</f>
+        <f t="array" ref="C17">SUM((COUNTBLANK(OFFSET('!Reaction'!A3, ROW(1:1048574)-1, 0, 1, 47))&lt;&gt;47)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8018,7 +8018,7 @@
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4">
-        <f>COUNTA('!ReactionStoichiometry'!A3:A1048576)</f>
+        <f t="array" ref="C18">SUM((COUNTBLANK(OFFSET('!ReactionStoichiometry'!A3, ROW(1:1048574)-1, 0, 1, 6))&lt;&gt;6)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8028,7 +8028,7 @@
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
-        <f>COUNTA('!Regulator'!A3:A1048576)</f>
+        <f t="array" ref="C19">SUM((COUNTBLANK(OFFSET('!Regulator'!A3, ROW(1:1048574)-1, 0, 1, 17))&lt;&gt;17)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8038,7 +8038,7 @@
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4">
-        <f>COUNTA('!Relation'!A3:A1048576)</f>
+        <f t="array" ref="C20">SUM((COUNTBLANK(OFFSET('!Relation'!A3, ROW(1:1048574)-1, 0, 1, 10))&lt;&gt;10)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8048,7 +8048,7 @@
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4">
-        <f>COUNTA('!Relationship'!A3:A1048576)</f>
+        <f t="array" ref="C21">SUM((COUNTBLANK(OFFSET('!Relationship'!A3, ROW(1:1048574)-1, 0, 1, 7))&lt;&gt;7)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8058,7 +8058,7 @@
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4">
-        <f>COUNTA('!SparseMatrix'!A3:A1048576)</f>
+        <f t="array" ref="C22">SUM((COUNTBLANK(OFFSET('!SparseMatrix'!A3, ROW(1:1048574)-1, 0, 1, 3))&lt;&gt;3)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8068,7 +8068,7 @@
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4">
-        <f>COUNTA('!SparseMatrixColumn'!A3:A1048576)</f>
+        <f t="array" ref="C23">SUM((COUNTBLANK(OFFSET('!SparseMatrixColumn'!A3, ROW(1:1048574)-1, 0, 1, 2))&lt;&gt;2)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8078,7 +8078,7 @@
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4">
-        <f>COUNTA('!SparseMatrixOrdered'!A3:A1048576)</f>
+        <f t="array" ref="C24">SUM((COUNTBLANK(OFFSET('!SparseMatrixOrdered'!A3, ROW(1:1048574)-1, 0, 1, 3))&lt;&gt;3)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8088,7 +8088,7 @@
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
-        <f>COUNTA('!SparseMatrixRow'!A3:A1048576)</f>
+        <f t="array" ref="C25">SUM((COUNTBLANK(OFFSET('!SparseMatrixRow'!A3, ROW(1:1048574)-1, 0, 1, 2))&lt;&gt;2)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8098,7 +8098,7 @@
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4">
-        <f>COUNTA('!StoichiometricMatrix'!A3:A1048576)</f>
+        <f t="array" ref="C26">SUM((COUNTBLANK(OFFSET('!StoichiometricMatrix'!A3, ROW(1:1048574)-1, 0, 1, 5))&lt;&gt;5)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8108,7 +8108,7 @@
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4">
-        <f>COUNTA('!rxnconContingencyList'!A3:A1048576)</f>
+        <f t="array" ref="C27">SUM((COUNTBLANK(OFFSET('!rxnconContingencyList'!A3, ROW(1:1048574)-1, 0, 1, 8))&lt;&gt;8)*1)</f>
         <v>0</v>
       </c>
     </row>
@@ -8118,7 +8118,7 @@
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
-        <f>COUNTA('!rxnconReactionList'!A3:A1048576)</f>
+        <f t="array" ref="C28">SUM((COUNTBLANK(OFFSET('!rxnconReactionList'!A3, ROW(1:1048574)-1, 0, 1, 12))&lt;&gt;12)*1)</f>
         <v>0</v>
       </c>
     </row>

--- a/examples/sbtab-sbml/ecoli_wortel_2018_data.xlsx
+++ b/examples/sbtab-sbml/ecoli_wortel_2018_data.xlsx
@@ -7,62 +7,60 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="!_Table of contents" sheetId="1" r:id="rId1"/>
-    <sheet name="!Compartment" sheetId="2" r:id="rId2"/>
-    <sheet name="!Compound" sheetId="3" r:id="rId3"/>
-    <sheet name="!Definition" sheetId="4" r:id="rId4"/>
-    <sheet name="!Enzyme" sheetId="5" r:id="rId5"/>
-    <sheet name="!FbcObjective" sheetId="6" r:id="rId6"/>
-    <sheet name="!Gene" sheetId="7" r:id="rId7"/>
-    <sheet name="!Layout" sheetId="8" r:id="rId8"/>
-    <sheet name="!Measurement" sheetId="9" r:id="rId9"/>
-    <sheet name="!PbConfig" sheetId="10" r:id="rId10"/>
-    <sheet name="!Position" sheetId="11" r:id="rId11"/>
-    <sheet name="!Protein" sheetId="12" r:id="rId12"/>
-    <sheet name="!Quantity" sheetId="13" r:id="rId13"/>
-    <sheet name="!QuantityInfo" sheetId="14" r:id="rId14"/>
-    <sheet name="!QuantityMatrix" sheetId="15" r:id="rId15"/>
-    <sheet name="!Reaction" sheetId="16" r:id="rId16"/>
-    <sheet name="!ReactionStoichiometry" sheetId="17" r:id="rId17"/>
-    <sheet name="!Regulator" sheetId="18" r:id="rId18"/>
-    <sheet name="!Relation" sheetId="19" r:id="rId19"/>
-    <sheet name="!Relationship" sheetId="20" r:id="rId20"/>
-    <sheet name="!SparseMatrix" sheetId="21" r:id="rId21"/>
-    <sheet name="!SparseMatrixColumn" sheetId="22" r:id="rId22"/>
-    <sheet name="!SparseMatrixOrdered" sheetId="23" r:id="rId23"/>
-    <sheet name="!SparseMatrixRow" sheetId="24" r:id="rId24"/>
-    <sheet name="!StoichiometricMatrix" sheetId="25" r:id="rId25"/>
-    <sheet name="!rxnconContingencyList" sheetId="26" r:id="rId26"/>
-    <sheet name="!rxnconReactionList" sheetId="27" r:id="rId27"/>
+    <sheet name="!Compartment" sheetId="1" r:id="rId1"/>
+    <sheet name="!Compound" sheetId="2" r:id="rId2"/>
+    <sheet name="!Definition" sheetId="3" r:id="rId3"/>
+    <sheet name="!Enzyme" sheetId="4" r:id="rId4"/>
+    <sheet name="!FbcObjective" sheetId="5" r:id="rId5"/>
+    <sheet name="!Gene" sheetId="6" r:id="rId6"/>
+    <sheet name="!Layout" sheetId="7" r:id="rId7"/>
+    <sheet name="!Measurement" sheetId="8" r:id="rId8"/>
+    <sheet name="!PbConfig" sheetId="9" r:id="rId9"/>
+    <sheet name="!Position" sheetId="10" r:id="rId10"/>
+    <sheet name="!Protein" sheetId="11" r:id="rId11"/>
+    <sheet name="!Quantity" sheetId="12" r:id="rId12"/>
+    <sheet name="!QuantityInfo" sheetId="13" r:id="rId13"/>
+    <sheet name="!QuantityMatrix" sheetId="14" r:id="rId14"/>
+    <sheet name="!Reaction" sheetId="15" r:id="rId15"/>
+    <sheet name="!ReactionStoichiometry" sheetId="16" r:id="rId16"/>
+    <sheet name="!Regulator" sheetId="17" r:id="rId17"/>
+    <sheet name="!Relation" sheetId="18" r:id="rId18"/>
+    <sheet name="!Relationship" sheetId="19" r:id="rId19"/>
+    <sheet name="!SparseMatrix" sheetId="20" r:id="rId20"/>
+    <sheet name="!SparseMatrixColumn" sheetId="21" r:id="rId21"/>
+    <sheet name="!SparseMatrixOrdered" sheetId="22" r:id="rId22"/>
+    <sheet name="!SparseMatrixRow" sheetId="23" r:id="rId23"/>
+    <sheet name="!StoichiometricMatrix" sheetId="24" r:id="rId24"/>
+    <sheet name="!rxnconContingencyList" sheetId="25" r:id="rId25"/>
+    <sheet name="!rxnconReactionList" sheetId="26" r:id="rId26"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!_Table of contents'!$A$2:$C$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!Compartment'!$A$2:$T$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!Compound'!$A$2:$AI$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!Definition'!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!Enzyme'!$A$2:$S$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!FbcObjective'!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!Gene'!$A$2:$V$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'!Layout'!$A$2:$M$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!Measurement'!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'!PbConfig'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'!Position'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!Protein'!$A$2:$O$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!Quantity'!$A$2:$BW$160</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'!QuantityInfo'!$A$2:$S$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'!QuantityMatrix'!$A$2:$AW$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'!Reaction'!$A$2:$AU$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!ReactionStoichiometry'!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!Regulator'!$A$2:$Q$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'!Relation'!$A$2:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'!Relationship'!$A$2:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">'!rxnconContingencyList'!$A$2:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="26" hidden="1">'!rxnconReactionList'!$A$2:$L$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'!SparseMatrix'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!SparseMatrixColumn'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'!SparseMatrixOrdered'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'!SparseMatrixRow'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'!StoichiometricMatrix'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!Compartment'!$A$2:$T$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!Compound'!$A$2:$AI$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!Definition'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!Enzyme'!$A$2:$S$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!FbcObjective'!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!Gene'!$A$2:$V$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!Layout'!$A$2:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'!Measurement'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!PbConfig'!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'!Position'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'!Protein'!$A$2:$O$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!Quantity'!$A$2:$BW$160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!QuantityInfo'!$A$2:$S$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'!QuantityMatrix'!$A$2:$AW$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'!Reaction'!$A$2:$AU$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'!ReactionStoichiometry'!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!Regulator'!$A$2:$Q$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!Relation'!$A$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'!Relationship'!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'!rxnconContingencyList'!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">'!rxnconReactionList'!$A$2:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'!SparseMatrix'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'!SparseMatrixColumn'!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!SparseMatrixOrdered'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'!SparseMatrixRow'!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'!StoichiometricMatrix'!$A$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -6342,191 +6340,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="372">
-  <si>
-    <t>'!Compartment'!A1</t>
-  </si>
-  <si>
-    <t>'!Compound'!A1</t>
-  </si>
-  <si>
-    <t>'!Definition'!A1</t>
-  </si>
-  <si>
-    <t>'!Enzyme'!A1</t>
-  </si>
-  <si>
-    <t>'!FbcObjective'!A1</t>
-  </si>
-  <si>
-    <t>'!Gene'!A1</t>
-  </si>
-  <si>
-    <t>'!Layout'!A1</t>
-  </si>
-  <si>
-    <t>'!Measurement'!A1</t>
-  </si>
-  <si>
-    <t>'!PbConfig'!A1</t>
-  </si>
-  <si>
-    <t>'!Position'!A1</t>
-  </si>
-  <si>
-    <t>'!Protein'!A1</t>
-  </si>
-  <si>
-    <t>'!Quantity'!A1</t>
-  </si>
-  <si>
-    <t>'!QuantityInfo'!A1</t>
-  </si>
-  <si>
-    <t>'!QuantityMatrix'!A1</t>
-  </si>
-  <si>
-    <t>'!Reaction'!A1</t>
-  </si>
-  <si>
-    <t>'!ReactionStoichiometry'!A1</t>
-  </si>
-  <si>
-    <t>'!Regulator'!A1</t>
-  </si>
-  <si>
-    <t>'!Relation'!A1</t>
-  </si>
-  <si>
-    <t>'!Relationship'!A1</t>
-  </si>
-  <si>
-    <t>'!SparseMatrix'!A1</t>
-  </si>
-  <si>
-    <t>'!SparseMatrixColumn'!A1</t>
-  </si>
-  <si>
-    <t>'!SparseMatrixOrdered'!A1</t>
-  </si>
-  <si>
-    <t>'!SparseMatrixRow'!A1</t>
-  </si>
-  <si>
-    <t>'!StoichiometricMatrix'!A1</t>
-  </si>
-  <si>
-    <t>'!rxnconContingencyList'!A1</t>
-  </si>
-  <si>
-    <t>'!rxnconReactionList'!A1</t>
-  </si>
-  <si>
-    <t>!!ObjTables TableType='TableOfContents' Description='Table of contents' Date='2019-09-23 12:47:23' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!Table</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="317">
+  <si>
+    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!Comment</t>
+  </si>
+  <si>
+    <t>!ReferenceName</t>
+  </si>
+  <si>
+    <t>!ReferencePubMed</t>
+  </si>
+  <si>
+    <t>!ReferenceDOI</t>
   </si>
   <si>
     <t>!Description</t>
   </si>
   <si>
-    <t>!Number of objects</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Compound</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Enzyme</t>
-  </si>
-  <si>
-    <t>FbcObjective</t>
-  </si>
-  <si>
-    <t>Gene</t>
-  </si>
-  <si>
-    <t>Layout</t>
-  </si>
-  <si>
-    <t>Measurement</t>
-  </si>
-  <si>
-    <t>PbConfig</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>QuantityInfo</t>
-  </si>
-  <si>
-    <t>QuantityMatrix</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>ReactionStoichiometry</t>
-  </si>
-  <si>
-    <t>Regulator</t>
-  </si>
-  <si>
-    <t>Relation</t>
-  </si>
-  <si>
-    <t>Relationship</t>
-  </si>
-  <si>
-    <t>SparseMatrix</t>
-  </si>
-  <si>
-    <t>SparseMatrixColumn</t>
-  </si>
-  <si>
-    <t>SparseMatrixOrdered</t>
-  </si>
-  <si>
-    <t>SparseMatrixRow</t>
-  </si>
-  <si>
-    <t>StoichiometricMatrix</t>
-  </si>
-  <si>
-    <t>rxnconContingencyList</t>
-  </si>
-  <si>
-    <t>rxnconReactionList</t>
-  </si>
-  <si>
-    <t>!!ObjTables TableType='Data' ModelId='Compartment' ModelName='Compartment' Date='2019-09-23 12:47:23' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!Comment</t>
-  </si>
-  <si>
-    <t>!ReferenceName</t>
-  </si>
-  <si>
-    <t>!ReferencePubMed</t>
-  </si>
-  <si>
-    <t>!ReferenceDOI</t>
-  </si>
-  <si>
     <t>!Name</t>
   </si>
   <si>
@@ -6572,7 +6405,7 @@
     <t>!Identifiers:sbo.go</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Compound' ModelName='Compound' Date='2019-09-23 12:47:23' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6635,7 +6468,7 @@
     <t>!NameForPlots</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Definition' ModelName='Definition' Date='2019-09-23 12:47:23' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6650,7 +6483,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Enzyme' ModelName='Enzyme' Date='2019-09-23 12:47:23' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6671,7 +6504,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='FbcObjective' ModelName='FbcObjective' Date='2019-09-23 12:47:23' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6686,7 +6519,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Gene' ModelName='Gene' Date='2019-09-23 12:47:23' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6716,7 +6549,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Layout' ModelName='Layout' Date='2019-09-23 12:47:23' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6752,7 +6585,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Measurement' ModelName='Measurement' Date='2019-09-23 12:47:23' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6764,7 +6597,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='PbConfig' ModelName='PbConfig' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6773,16 +6606,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Position' ModelName='Position' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Protein' ModelName='Protein' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables TableType='Data' ModelId='Quantity' ModelName='Quantity' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7202,7 +7035,7 @@
     <t>R11r</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='QuantityInfo' ModelName='QuantityInfo' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7220,7 +7053,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='QuantityMatrix' ModelName='QuantityMatrix' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7259,7 +7092,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Reaction' ModelName='Reaction' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7331,7 +7164,7 @@
     <t>!Regulator</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='ReactionStoichiometry' ModelName='ReactionStoichiometry' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7343,7 +7176,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Regulator' ModelName='Regulator' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7355,7 +7188,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Relation' ModelName='Relation' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7370,13 +7203,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='Relationship' ModelName='Relationship' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2019-10-10 02:12:51' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='SparseMatrix' ModelName='SparseMatrix' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2019-10-10 02:12:51' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7385,13 +7218,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='SparseMatrixColumn' ModelName='SparseMatrixColumn' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2019-10-10 02:12:51' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='SparseMatrixOrdered' ModelName='SparseMatrixOrdered' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2019-10-10 02:12:51' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7400,19 +7233,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='SparseMatrixRow' ModelName='SparseMatrixRow' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2019-10-10 02:12:51' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='StoichiometricMatrix' ModelName='StoichiometricMatrix' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2019-10-10 02:12:51' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='rxnconContingencyList' ModelName='rxnconContingencyList' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2019-10-10 02:12:51' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7433,7 +7266,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables TableType='Data' ModelId='rxnconReactionList' ModelName='rxnconReactionList' Date='2019-09-23 12:47:24' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2019-10-10 02:12:51' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
@@ -7831,7 +7664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -7840,360 +7673,161 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="20" width="15.7109375" customWidth="1"/>
+    <col min="21" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.01" customHeight="1">
+    <row r="1" spans="1:20" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="15.01" customHeight="1">
+    <row r="2" spans="1:20" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4">
-        <f t="array" ref="C3">SUM((COUNTBLANK(OFFSET('!Compartment'!A3, ROW(1:1048574)-1, 0, 1, 20))&lt;&gt;20)*1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4">
-        <f t="array" ref="C4">SUM((COUNTBLANK(OFFSET('!Compound'!A3, ROW(1:1048574)-1, 0, 1, 35))&lt;&gt;35)*1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4">
-        <f t="array" ref="C5">SUM((COUNTBLANK(OFFSET('!Definition'!A3, ROW(1:1048574)-1, 0, 1, 5))&lt;&gt;5)*1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
-        <f t="array" ref="C6">SUM((COUNTBLANK(OFFSET('!Enzyme'!A3, ROW(1:1048574)-1, 0, 1, 19))&lt;&gt;19)*1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4">
-        <f t="array" ref="C7">SUM((COUNTBLANK(OFFSET('!FbcObjective'!A3, ROW(1:1048574)-1, 0, 1, 6))&lt;&gt;6)*1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
-        <f t="array" ref="C8">SUM((COUNTBLANK(OFFSET('!Gene'!A3, ROW(1:1048574)-1, 0, 1, 22))&lt;&gt;22)*1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4">
-        <f t="array" ref="C9">SUM((COUNTBLANK(OFFSET('!Layout'!A3, ROW(1:1048574)-1, 0, 1, 13))&lt;&gt;13)*1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4">
-        <f t="array" ref="C10">SUM((COUNTBLANK(OFFSET('!Measurement'!A3, ROW(1:1048574)-1, 0, 1, 5))&lt;&gt;5)*1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4">
-        <f t="array" ref="C11">SUM((COUNTBLANK(OFFSET('!PbConfig'!A3, ROW(1:1048574)-1, 0, 1, 2))&lt;&gt;2)*1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4">
-        <f t="array" ref="C12">SUM((COUNTBLANK(OFFSET('!Position'!A3, ROW(1:1048574)-1, 0, 1, 3))&lt;&gt;3)*1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4">
-        <f t="array" ref="C13">SUM((COUNTBLANK(OFFSET('!Protein'!A3, ROW(1:1048574)-1, 0, 1, 15))&lt;&gt;15)*1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4">
-        <f t="array" ref="C14">SUM((COUNTBLANK(OFFSET('!Quantity'!A3, ROW(1:1048574)-1, 0, 1, 75))&lt;&gt;75)*1)</f>
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4">
-        <f t="array" ref="C15">SUM((COUNTBLANK(OFFSET('!QuantityInfo'!A3, ROW(1:1048574)-1, 0, 1, 19))&lt;&gt;19)*1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4">
-        <f t="array" ref="C16">SUM((COUNTBLANK(OFFSET('!QuantityMatrix'!A3, ROW(1:1048574)-1, 0, 1, 49))&lt;&gt;49)*1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4">
-        <f t="array" ref="C17">SUM((COUNTBLANK(OFFSET('!Reaction'!A3, ROW(1:1048574)-1, 0, 1, 47))&lt;&gt;47)*1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4">
-        <f t="array" ref="C18">SUM((COUNTBLANK(OFFSET('!ReactionStoichiometry'!A3, ROW(1:1048574)-1, 0, 1, 6))&lt;&gt;6)*1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4">
-        <f t="array" ref="C19">SUM((COUNTBLANK(OFFSET('!Regulator'!A3, ROW(1:1048574)-1, 0, 1, 17))&lt;&gt;17)*1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4">
-        <f t="array" ref="C20">SUM((COUNTBLANK(OFFSET('!Relation'!A3, ROW(1:1048574)-1, 0, 1, 10))&lt;&gt;10)*1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A21" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4">
-        <f t="array" ref="C21">SUM((COUNTBLANK(OFFSET('!Relationship'!A3, ROW(1:1048574)-1, 0, 1, 7))&lt;&gt;7)*1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A22" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4">
-        <f t="array" ref="C22">SUM((COUNTBLANK(OFFSET('!SparseMatrix'!A3, ROW(1:1048574)-1, 0, 1, 3))&lt;&gt;3)*1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4">
-        <f t="array" ref="C23">SUM((COUNTBLANK(OFFSET('!SparseMatrixColumn'!A3, ROW(1:1048574)-1, 0, 1, 2))&lt;&gt;2)*1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4">
-        <f t="array" ref="C24">SUM((COUNTBLANK(OFFSET('!SparseMatrixOrdered'!A3, ROW(1:1048574)-1, 0, 1, 3))&lt;&gt;3)*1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4">
-        <f t="array" ref="C25">SUM((COUNTBLANK(OFFSET('!SparseMatrixRow'!A3, ROW(1:1048574)-1, 0, 1, 2))&lt;&gt;2)*1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4">
-        <f t="array" ref="C26">SUM((COUNTBLANK(OFFSET('!StoichiometricMatrix'!A3, ROW(1:1048574)-1, 0, 1, 5))&lt;&gt;5)*1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A27" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4">
-        <f t="array" ref="C27">SUM((COUNTBLANK(OFFSET('!rxnconContingencyList'!A3, ROW(1:1048574)-1, 0, 1, 8))&lt;&gt;8)*1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4">
-        <f t="array" ref="C28">SUM((COUNTBLANK(OFFSET('!rxnconReactionList'!A3, ROW(1:1048574)-1, 0, 1, 12))&lt;&gt;12)*1)</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:C28"/>
-  <hyperlinks>
-    <hyperlink ref="A3" location="'!Compartment'!A1" tooltip="Click to view compartment" display="'!Compartment'!A1"/>
-    <hyperlink ref="A4" location="'!Compound'!A1" tooltip="Click to view compound" display="'!Compound'!A1"/>
-    <hyperlink ref="A5" location="'!Definition'!A1" tooltip="Click to view definition" display="'!Definition'!A1"/>
-    <hyperlink ref="A6" location="'!Enzyme'!A1" tooltip="Click to view enzyme" display="'!Enzyme'!A1"/>
-    <hyperlink ref="A7" location="'!FbcObjective'!A1" tooltip="Click to view fbcobjective" display="'!FbcObjective'!A1"/>
-    <hyperlink ref="A8" location="'!Gene'!A1" tooltip="Click to view gene" display="'!Gene'!A1"/>
-    <hyperlink ref="A9" location="'!Layout'!A1" tooltip="Click to view layout" display="'!Layout'!A1"/>
-    <hyperlink ref="A10" location="'!Measurement'!A1" tooltip="Click to view measurement" display="'!Measurement'!A1"/>
-    <hyperlink ref="A11" location="'!PbConfig'!A1" tooltip="Click to view pbconfig" display="'!PbConfig'!A1"/>
-    <hyperlink ref="A12" location="'!Position'!A1" tooltip="Click to view position" display="'!Position'!A1"/>
-    <hyperlink ref="A13" location="'!Protein'!A1" tooltip="Click to view protein" display="'!Protein'!A1"/>
-    <hyperlink ref="A14" location="'!Quantity'!A1" tooltip="Click to view quantity" display="'!Quantity'!A1"/>
-    <hyperlink ref="A15" location="'!QuantityInfo'!A1" tooltip="Click to view quantityinfo" display="'!QuantityInfo'!A1"/>
-    <hyperlink ref="A16" location="'!QuantityMatrix'!A1" tooltip="Click to view quantitymatrix" display="'!QuantityMatrix'!A1"/>
-    <hyperlink ref="A17" location="'!Reaction'!A1" tooltip="Click to view reaction" display="'!Reaction'!A1"/>
-    <hyperlink ref="A18" location="'!ReactionStoichiometry'!A1" tooltip="Click to view reactionstoichiometry" display="'!ReactionStoichiometry'!A1"/>
-    <hyperlink ref="A19" location="'!Regulator'!A1" tooltip="Click to view regulator" display="'!Regulator'!A1"/>
-    <hyperlink ref="A20" location="'!Relation'!A1" tooltip="Click to view relation" display="'!Relation'!A1"/>
-    <hyperlink ref="A21" location="'!Relationship'!A1" tooltip="Click to view relationship" display="'!Relationship'!A1"/>
-    <hyperlink ref="A22" location="'!SparseMatrix'!A1" tooltip="Click to view sparsematrix" display="'!SparseMatrix'!A1"/>
-    <hyperlink ref="A23" location="'!SparseMatrixColumn'!A1" tooltip="Click to view sparsematrixcolumn" display="'!SparseMatrixColumn'!A1"/>
-    <hyperlink ref="A24" location="'!SparseMatrixOrdered'!A1" tooltip="Click to view sparsematrixordered" display="'!SparseMatrixOrdered'!A1"/>
-    <hyperlink ref="A25" location="'!SparseMatrixRow'!A1" tooltip="Click to view sparsematrixrow" display="'!SparseMatrixRow'!A1"/>
-    <hyperlink ref="A26" location="'!StoichiometricMatrix'!A1" tooltip="Click to view stoichiometricmatrix" display="'!StoichiometricMatrix'!A1"/>
-    <hyperlink ref="A27" location="'!rxnconContingencyList'!A1" tooltip="Click to view rxnconcontingencylist" display="'!rxnconContingencyList'!A1"/>
-    <hyperlink ref="A28" location="'!rxnconReactionList'!A1" tooltip="Click to view rxnconreactionlist" display="'!rxnconReactionList'!A1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
-  <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:B2"/>
-  <dataValidations count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Option" error="Which option is addressed&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Option" prompt="Which option is addressed&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="What value is the option set to&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Value" prompt="What value is the option set to&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+  <autoFilter ref="A2:T2"/>
+  <dataValidations count="20">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceName" error="Reference title, authors, etc. (as free text)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceName" prompt="Reference title, authors, etc. (as free text)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferencePubMed" error="Reference PubMed ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferencePubMed" prompt="Reference PubMed ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C2:C3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceDOI" error="Reference DOI&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceDOI" prompt="Reference DOI&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D2:D3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Description" error="Description of the row element&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Description" prompt="Description of the row element&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E2:E3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Entity name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Entity name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F2:F3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MiriamAnnotations" error="Entity ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="MiriamAnnotations" prompt="Entity ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G2:G3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Biochemical type of entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Type" prompt="Biochemical type of entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H2:H3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Symbol" error="Short symbol (e.g. gene symbol)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Symbol" prompt="Short symbol (e.g. gene symbol)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="I2:I3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionX" error="x coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionX" prompt="x coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="J2:J3">
+      <formula1>-1e+100</formula1>
+      <formula2>1e+100</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionY" error="y coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionY" prompt="y coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="K2:K3">
+      <formula1>-1e+100</formula1>
+      <formula2>1e+100</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Compartment shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Compartment shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="L2:L3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBML:compartment:id" error="SBML compartment ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBML:compartment:id" prompt="SBML compartment ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="M2:M3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment" error="Surrounding compartment (short)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment" prompt="Surrounding compartment (short)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="N2:N3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment:SBML:compar ..." error="Surrounding compartment (name)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment:SBML:compar ..." prompt="Surrounding compartment (name)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="O2:O3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Size" error="Compartment size&#10;&#10;Value must be a float or blank." promptTitle="Size" prompt="Compartment size&#10;&#10;Enter a float or blank." sqref="P2:P3">
+      <formula1>-1e+100</formula1>
+      <formula2>1e+100</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unit" error="Physical unit&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Unit" prompt="Physical unit&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="Q2:Q3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBOTerm" error="SBO term of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBOTerm" prompt="SBO term of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="R2:R3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="S2:S3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers:sbo.go" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers:sbo.go" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="T2:T3">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
@@ -8202,7 +7836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -8219,20 +7853,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -8256,7 +7890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O2"/>
   <sheetViews>
@@ -8273,7 +7907,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8292,49 +7926,49 @@
     </row>
     <row r="2" spans="1:15" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -8396,7 +8030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BW160"/>
   <sheetViews>
@@ -8413,7 +8047,7 @@
   <sheetData>
     <row r="1" spans="1:75" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8492,229 +8126,229 @@
     </row>
     <row r="2" spans="1:75" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>147</v>
+        <v>92</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="Q2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="BA2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="BB2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE2" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="BH2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="BI2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="BJ2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="BK2" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BL2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="BM2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BP2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ2" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BS2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BU2" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="R2" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="BE2" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="BG2" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="BI2" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="BJ2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="BK2" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="BL2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="BM2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="BN2" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="BO2" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="BP2" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BQ2" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="BR2" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="BS2" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="BT2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="BU2" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="BV2" s="3" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="BW2" s="3" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:75" ht="15.01" customHeight="1">
@@ -8734,7 +8368,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4">
@@ -8748,12 +8382,12 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
@@ -8765,11 +8399,11 @@
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4" t="s">
-        <v>203</v>
+        <v>148</v>
       </c>
       <c r="AL3" s="4"/>
       <c r="AM3" s="4" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="AN3" s="4"/>
       <c r="AO3" s="4"/>
@@ -8827,7 +8461,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4">
@@ -8841,12 +8475,12 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
@@ -8858,11 +8492,11 @@
       <c r="AI4" s="4"/>
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="AL4" s="4"/>
       <c r="AM4" s="4" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="AN4" s="4"/>
       <c r="AO4" s="4"/>
@@ -8920,7 +8554,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4">
@@ -8934,12 +8568,12 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
@@ -8951,11 +8585,11 @@
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="AL5" s="4"/>
       <c r="AM5" s="4" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
@@ -9013,7 +8647,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4">
@@ -9027,12 +8661,12 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
@@ -9044,11 +8678,11 @@
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4" t="s">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="AL6" s="4"/>
       <c r="AM6" s="4" t="s">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
@@ -9106,7 +8740,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4">
@@ -9120,12 +8754,12 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
@@ -9137,11 +8771,11 @@
       <c r="AI7" s="4"/>
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4" t="s">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="AL7" s="4"/>
       <c r="AM7" s="4" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="AN7" s="4"/>
       <c r="AO7" s="4"/>
@@ -9199,7 +8833,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4">
@@ -9213,12 +8847,12 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
@@ -9230,11 +8864,11 @@
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="AL8" s="4"/>
       <c r="AM8" s="4" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="AN8" s="4"/>
       <c r="AO8" s="4"/>
@@ -9292,7 +8926,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4">
@@ -9306,12 +8940,12 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
@@ -9323,11 +8957,11 @@
       <c r="AI9" s="4"/>
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="AL9" s="4"/>
       <c r="AM9" s="4" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
@@ -9385,7 +9019,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4">
@@ -9399,12 +9033,12 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
@@ -9416,11 +9050,11 @@
       <c r="AI10" s="4"/>
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4" t="s">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="AN10" s="4"/>
       <c r="AO10" s="4"/>
@@ -9478,7 +9112,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4">
@@ -9492,12 +9126,12 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
@@ -9509,11 +9143,11 @@
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="AL11" s="4"/>
       <c r="AM11" s="4" t="s">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="AN11" s="4"/>
       <c r="AO11" s="4"/>
@@ -9571,7 +9205,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4">
@@ -9585,12 +9219,12 @@
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
@@ -9602,11 +9236,11 @@
       <c r="AI12" s="4"/>
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="AL12" s="4"/>
       <c r="AM12" s="4" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="AN12" s="4"/>
       <c r="AO12" s="4"/>
@@ -9664,7 +9298,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4">
@@ -9678,12 +9312,12 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
@@ -9695,11 +9329,11 @@
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
@@ -9757,7 +9391,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4">
@@ -9771,12 +9405,12 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
@@ -9788,11 +9422,11 @@
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4" t="s">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4" t="s">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="AN14" s="4"/>
       <c r="AO14" s="4"/>
@@ -9850,7 +9484,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4">
@@ -9864,12 +9498,12 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
@@ -9881,11 +9515,11 @@
       <c r="AI15" s="4"/>
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4" t="s">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="AN15" s="4"/>
       <c r="AO15" s="4"/>
@@ -9943,7 +9577,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4">
@@ -9957,12 +9591,12 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
@@ -9974,11 +9608,11 @@
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="AL16" s="4"/>
       <c r="AM16" s="4" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="AN16" s="4"/>
       <c r="AO16" s="4"/>
@@ -10036,7 +9670,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4">
@@ -10050,12 +9684,12 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
@@ -10067,11 +9701,11 @@
       <c r="AI17" s="4"/>
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="AL17" s="4"/>
       <c r="AM17" s="4" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="AN17" s="4"/>
       <c r="AO17" s="4"/>
@@ -10129,7 +9763,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4">
@@ -10143,12 +9777,12 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
@@ -10160,11 +9794,11 @@
       <c r="AI18" s="4"/>
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="AL18" s="4"/>
       <c r="AM18" s="4" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="AN18" s="4"/>
       <c r="AO18" s="4"/>
@@ -10222,7 +9856,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4">
@@ -10236,12 +9870,12 @@
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
@@ -10253,11 +9887,11 @@
       <c r="AI19" s="4"/>
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="AL19" s="4"/>
       <c r="AM19" s="4" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="AN19" s="4"/>
       <c r="AO19" s="4"/>
@@ -10315,7 +9949,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4">
@@ -10329,12 +9963,12 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
@@ -10346,11 +9980,11 @@
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="AL20" s="4"/>
       <c r="AM20" s="4" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="AN20" s="4"/>
       <c r="AO20" s="4"/>
@@ -10408,7 +10042,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4">
@@ -10422,12 +10056,12 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
@@ -10439,11 +10073,11 @@
       <c r="AI21" s="4"/>
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="AL21" s="4"/>
       <c r="AM21" s="4" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="AN21" s="4"/>
       <c r="AO21" s="4"/>
@@ -10501,7 +10135,7 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4">
@@ -10515,12 +10149,12 @@
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
@@ -10532,11 +10166,11 @@
       <c r="AI22" s="4"/>
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="AL22" s="4"/>
       <c r="AM22" s="4" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="AN22" s="4"/>
       <c r="AO22" s="4"/>
@@ -10594,7 +10228,7 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4">
@@ -10608,12 +10242,12 @@
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
@@ -10625,11 +10259,11 @@
       <c r="AI23" s="4"/>
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="AL23" s="4"/>
       <c r="AM23" s="4" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="AN23" s="4"/>
       <c r="AO23" s="4"/>
@@ -10687,7 +10321,7 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4">
@@ -10701,12 +10335,12 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
@@ -10718,11 +10352,11 @@
       <c r="AI24" s="4"/>
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="AL24" s="4"/>
       <c r="AM24" s="4" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="AN24" s="4"/>
       <c r="AO24" s="4"/>
@@ -10780,7 +10414,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4">
@@ -10794,12 +10428,12 @@
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
       <c r="AA25" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
@@ -10811,11 +10445,11 @@
       <c r="AI25" s="4"/>
       <c r="AJ25" s="4"/>
       <c r="AK25" s="4" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="AL25" s="4"/>
       <c r="AM25" s="4" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="AN25" s="4"/>
       <c r="AO25" s="4"/>
@@ -10873,7 +10507,7 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="4">
@@ -10887,12 +10521,12 @@
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
@@ -10904,11 +10538,11 @@
       <c r="AI26" s="4"/>
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="AL26" s="4"/>
       <c r="AM26" s="4" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="AN26" s="4"/>
       <c r="AO26" s="4"/>
@@ -10966,7 +10600,7 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q27" s="4"/>
       <c r="R27" s="4">
@@ -10980,12 +10614,12 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
@@ -10997,11 +10631,11 @@
       <c r="AI27" s="4"/>
       <c r="AJ27" s="4"/>
       <c r="AK27" s="4" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="AL27" s="4"/>
       <c r="AM27" s="4" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="AN27" s="4"/>
       <c r="AO27" s="4"/>
@@ -11059,7 +10693,7 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4">
@@ -11073,12 +10707,12 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
@@ -11090,11 +10724,11 @@
       <c r="AI28" s="4"/>
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="AL28" s="4"/>
       <c r="AM28" s="4" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="AN28" s="4"/>
       <c r="AO28" s="4"/>
@@ -11152,7 +10786,7 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q29" s="4"/>
       <c r="R29" s="4">
@@ -11166,12 +10800,12 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
@@ -11183,11 +10817,11 @@
       <c r="AI29" s="4"/>
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="AL29" s="4"/>
       <c r="AM29" s="4" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="AN29" s="4"/>
       <c r="AO29" s="4"/>
@@ -11245,7 +10879,7 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="4">
@@ -11259,12 +10893,12 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
@@ -11276,11 +10910,11 @@
       <c r="AI30" s="4"/>
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="AL30" s="4"/>
       <c r="AM30" s="4" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="AN30" s="4"/>
       <c r="AO30" s="4"/>
@@ -11338,7 +10972,7 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q31" s="4"/>
       <c r="R31" s="4">
@@ -11352,12 +10986,12 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
       <c r="AA31" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
@@ -11369,11 +11003,11 @@
       <c r="AI31" s="4"/>
       <c r="AJ31" s="4"/>
       <c r="AK31" s="4" t="s">
-        <v>241</v>
+        <v>186</v>
       </c>
       <c r="AL31" s="4"/>
       <c r="AM31" s="4" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="AN31" s="4"/>
       <c r="AO31" s="4"/>
@@ -11431,7 +11065,7 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="4">
@@ -11445,12 +11079,12 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
@@ -11462,11 +11096,11 @@
       <c r="AI32" s="4"/>
       <c r="AJ32" s="4"/>
       <c r="AK32" s="4" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="AL32" s="4"/>
       <c r="AM32" s="4" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="AN32" s="4"/>
       <c r="AO32" s="4"/>
@@ -11524,7 +11158,7 @@
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q33" s="4"/>
       <c r="R33" s="4">
@@ -11538,12 +11172,12 @@
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
@@ -11555,11 +11189,11 @@
       <c r="AI33" s="4"/>
       <c r="AJ33" s="4"/>
       <c r="AK33" s="4" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="AL33" s="4"/>
       <c r="AM33" s="4" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="AN33" s="4"/>
       <c r="AO33" s="4"/>
@@ -11617,7 +11251,7 @@
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q34" s="4"/>
       <c r="R34" s="4">
@@ -11631,12 +11265,12 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
@@ -11648,11 +11282,11 @@
       <c r="AI34" s="4"/>
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4" t="s">
-        <v>235</v>
+        <v>180</v>
       </c>
       <c r="AL34" s="4"/>
       <c r="AM34" s="4" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="AN34" s="4"/>
       <c r="AO34" s="4"/>
@@ -11710,7 +11344,7 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q35" s="4"/>
       <c r="R35" s="4">
@@ -11724,12 +11358,12 @@
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
       <c r="AA35" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
@@ -11741,11 +11375,11 @@
       <c r="AI35" s="4"/>
       <c r="AJ35" s="4"/>
       <c r="AK35" s="4" t="s">
-        <v>244</v>
+        <v>189</v>
       </c>
       <c r="AL35" s="4"/>
       <c r="AM35" s="4" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="AN35" s="4"/>
       <c r="AO35" s="4"/>
@@ -11803,7 +11437,7 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q36" s="4"/>
       <c r="R36" s="4">
@@ -11815,12 +11449,12 @@
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
       <c r="AA36" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
@@ -11832,11 +11466,11 @@
       <c r="AI36" s="4"/>
       <c r="AJ36" s="4"/>
       <c r="AK36" s="4" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="AL36" s="4"/>
       <c r="AM36" s="4" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="AN36" s="4"/>
       <c r="AO36" s="4"/>
@@ -11894,7 +11528,7 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q37" s="4"/>
       <c r="R37" s="4">
@@ -11906,12 +11540,12 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
       <c r="AA37" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
@@ -11923,11 +11557,11 @@
       <c r="AI37" s="4"/>
       <c r="AJ37" s="4"/>
       <c r="AK37" s="4" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="AL37" s="4"/>
       <c r="AM37" s="4" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="AN37" s="4"/>
       <c r="AO37" s="4"/>
@@ -11985,7 +11619,7 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q38" s="4"/>
       <c r="R38" s="4">
@@ -11997,12 +11631,12 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
@@ -12014,11 +11648,11 @@
       <c r="AI38" s="4"/>
       <c r="AJ38" s="4"/>
       <c r="AK38" s="4" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="AL38" s="4"/>
       <c r="AM38" s="4" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="AN38" s="4"/>
       <c r="AO38" s="4"/>
@@ -12076,7 +11710,7 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q39" s="4"/>
       <c r="R39" s="4">
@@ -12088,12 +11722,12 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
       <c r="X39" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
       <c r="AA39" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
@@ -12105,11 +11739,11 @@
       <c r="AI39" s="4"/>
       <c r="AJ39" s="4"/>
       <c r="AK39" s="4" t="s">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="AL39" s="4"/>
       <c r="AM39" s="4" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="AN39" s="4"/>
       <c r="AO39" s="4"/>
@@ -12167,7 +11801,7 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q40" s="4"/>
       <c r="R40" s="4">
@@ -12179,12 +11813,12 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
       <c r="AA40" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
@@ -12196,11 +11830,11 @@
       <c r="AI40" s="4"/>
       <c r="AJ40" s="4"/>
       <c r="AK40" s="4" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="AL40" s="4"/>
       <c r="AM40" s="4" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="AN40" s="4"/>
       <c r="AO40" s="4"/>
@@ -12258,7 +11892,7 @@
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q41" s="4"/>
       <c r="R41" s="4">
@@ -12270,12 +11904,12 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
       <c r="AA41" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
@@ -12287,11 +11921,11 @@
       <c r="AI41" s="4"/>
       <c r="AJ41" s="4"/>
       <c r="AK41" s="4" t="s">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="AL41" s="4"/>
       <c r="AM41" s="4" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="AN41" s="4"/>
       <c r="AO41" s="4"/>
@@ -12349,7 +11983,7 @@
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q42" s="4"/>
       <c r="R42" s="4">
@@ -12361,12 +11995,12 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
       <c r="AA42" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
@@ -12378,11 +12012,11 @@
       <c r="AI42" s="4"/>
       <c r="AJ42" s="4"/>
       <c r="AK42" s="4" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="AL42" s="4"/>
       <c r="AM42" s="4" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="AN42" s="4"/>
       <c r="AO42" s="4"/>
@@ -12440,7 +12074,7 @@
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q43" s="4"/>
       <c r="R43" s="4">
@@ -12452,12 +12086,12 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
       <c r="X43" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
       <c r="AA43" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
@@ -12469,11 +12103,11 @@
       <c r="AI43" s="4"/>
       <c r="AJ43" s="4"/>
       <c r="AK43" s="4" t="s">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="AL43" s="4"/>
       <c r="AM43" s="4" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="AN43" s="4"/>
       <c r="AO43" s="4"/>
@@ -12531,7 +12165,7 @@
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q44" s="4"/>
       <c r="R44" s="4">
@@ -12543,12 +12177,12 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
       <c r="X44" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
       <c r="AA44" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
@@ -12560,11 +12194,11 @@
       <c r="AI44" s="4"/>
       <c r="AJ44" s="4"/>
       <c r="AK44" s="4" t="s">
-        <v>212</v>
+        <v>157</v>
       </c>
       <c r="AL44" s="4"/>
       <c r="AM44" s="4" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="AN44" s="4"/>
       <c r="AO44" s="4"/>
@@ -12622,7 +12256,7 @@
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q45" s="4"/>
       <c r="R45" s="4">
@@ -12634,12 +12268,12 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
       <c r="X45" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
       <c r="AA45" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
@@ -12651,11 +12285,11 @@
       <c r="AI45" s="4"/>
       <c r="AJ45" s="4"/>
       <c r="AK45" s="4" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="AL45" s="4"/>
       <c r="AM45" s="4" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="AN45" s="4"/>
       <c r="AO45" s="4"/>
@@ -12713,7 +12347,7 @@
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q46" s="4"/>
       <c r="R46" s="4">
@@ -12725,12 +12359,12 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
       <c r="X46" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
       <c r="AA46" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
@@ -12742,11 +12376,11 @@
       <c r="AI46" s="4"/>
       <c r="AJ46" s="4"/>
       <c r="AK46" s="4" t="s">
-        <v>250</v>
+        <v>195</v>
       </c>
       <c r="AL46" s="4"/>
       <c r="AM46" s="4" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="AN46" s="4"/>
       <c r="AO46" s="4"/>
@@ -12804,7 +12438,7 @@
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q47" s="4"/>
       <c r="R47" s="4">
@@ -12816,12 +12450,12 @@
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
       <c r="X47" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
       <c r="AA47" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
@@ -12833,11 +12467,11 @@
       <c r="AI47" s="4"/>
       <c r="AJ47" s="4"/>
       <c r="AK47" s="4" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="AL47" s="4"/>
       <c r="AM47" s="4" t="s">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="AN47" s="4"/>
       <c r="AO47" s="4"/>
@@ -12895,7 +12529,7 @@
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q48" s="4"/>
       <c r="R48" s="4">
@@ -12907,12 +12541,12 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
       <c r="X48" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
       <c r="AA48" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
@@ -12924,11 +12558,11 @@
       <c r="AI48" s="4"/>
       <c r="AJ48" s="4"/>
       <c r="AK48" s="4" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="AL48" s="4"/>
       <c r="AM48" s="4" t="s">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="AN48" s="4"/>
       <c r="AO48" s="4"/>
@@ -12986,7 +12620,7 @@
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q49" s="4"/>
       <c r="R49" s="4">
@@ -12998,12 +12632,12 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
       <c r="X49" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
       <c r="AA49" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
@@ -13015,11 +12649,11 @@
       <c r="AI49" s="4"/>
       <c r="AJ49" s="4"/>
       <c r="AK49" s="4" t="s">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="AL49" s="4"/>
       <c r="AM49" s="4" t="s">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="AN49" s="4"/>
       <c r="AO49" s="4"/>
@@ -13077,7 +12711,7 @@
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q50" s="4"/>
       <c r="R50" s="4">
@@ -13089,12 +12723,12 @@
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
       <c r="X50" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
       <c r="AA50" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
@@ -13106,11 +12740,11 @@
       <c r="AI50" s="4"/>
       <c r="AJ50" s="4"/>
       <c r="AK50" s="4" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="AL50" s="4"/>
       <c r="AM50" s="4" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="AN50" s="4"/>
       <c r="AO50" s="4"/>
@@ -13168,7 +12802,7 @@
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q51" s="4"/>
       <c r="R51" s="4">
@@ -13180,12 +12814,12 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
       <c r="X51" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
       <c r="AA51" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
@@ -13197,11 +12831,11 @@
       <c r="AI51" s="4"/>
       <c r="AJ51" s="4"/>
       <c r="AK51" s="4" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="AL51" s="4"/>
       <c r="AM51" s="4" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="AN51" s="4"/>
       <c r="AO51" s="4"/>
@@ -13259,7 +12893,7 @@
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q52" s="4"/>
       <c r="R52" s="4">
@@ -13271,12 +12905,12 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
       <c r="X52" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
       <c r="AA52" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
@@ -13288,11 +12922,11 @@
       <c r="AI52" s="4"/>
       <c r="AJ52" s="4"/>
       <c r="AK52" s="4" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="AL52" s="4"/>
       <c r="AM52" s="4" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="AN52" s="4"/>
       <c r="AO52" s="4"/>
@@ -13350,7 +12984,7 @@
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q53" s="4"/>
       <c r="R53" s="4">
@@ -13362,12 +12996,12 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
       <c r="X53" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
       <c r="AA53" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
@@ -13379,11 +13013,11 @@
       <c r="AI53" s="4"/>
       <c r="AJ53" s="4"/>
       <c r="AK53" s="4" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="AL53" s="4"/>
       <c r="AM53" s="4" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="AN53" s="4"/>
       <c r="AO53" s="4"/>
@@ -13441,7 +13075,7 @@
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q54" s="4"/>
       <c r="R54" s="4">
@@ -13453,12 +13087,12 @@
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
       <c r="X54" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
       <c r="AA54" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
@@ -13470,11 +13104,11 @@
       <c r="AI54" s="4"/>
       <c r="AJ54" s="4"/>
       <c r="AK54" s="4" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="AL54" s="4"/>
       <c r="AM54" s="4" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="AN54" s="4"/>
       <c r="AO54" s="4"/>
@@ -13532,7 +13166,7 @@
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q55" s="4"/>
       <c r="R55" s="4">
@@ -13544,12 +13178,12 @@
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
       <c r="X55" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
       <c r="AA55" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
@@ -13561,11 +13195,11 @@
       <c r="AI55" s="4"/>
       <c r="AJ55" s="4"/>
       <c r="AK55" s="4" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="AL55" s="4"/>
       <c r="AM55" s="4" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="AN55" s="4"/>
       <c r="AO55" s="4"/>
@@ -13623,7 +13257,7 @@
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
       <c r="P56" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q56" s="4"/>
       <c r="R56" s="4">
@@ -13635,12 +13269,12 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
       <c r="X56" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
       <c r="AA56" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
@@ -13652,11 +13286,11 @@
       <c r="AI56" s="4"/>
       <c r="AJ56" s="4"/>
       <c r="AK56" s="4" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="AL56" s="4"/>
       <c r="AM56" s="4" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="AN56" s="4"/>
       <c r="AO56" s="4"/>
@@ -13714,7 +13348,7 @@
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q57" s="4"/>
       <c r="R57" s="4">
@@ -13726,12 +13360,12 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
       <c r="X57" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
       <c r="AA57" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
@@ -13743,11 +13377,11 @@
       <c r="AI57" s="4"/>
       <c r="AJ57" s="4"/>
       <c r="AK57" s="4" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="AL57" s="4"/>
       <c r="AM57" s="4" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="AN57" s="4"/>
       <c r="AO57" s="4"/>
@@ -13805,7 +13439,7 @@
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q58" s="4"/>
       <c r="R58" s="4">
@@ -13817,12 +13451,12 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
       <c r="X58" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
       <c r="AA58" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
@@ -13834,11 +13468,11 @@
       <c r="AI58" s="4"/>
       <c r="AJ58" s="4"/>
       <c r="AK58" s="4" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="AL58" s="4"/>
       <c r="AM58" s="4" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="AN58" s="4"/>
       <c r="AO58" s="4"/>
@@ -13896,7 +13530,7 @@
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q59" s="4"/>
       <c r="R59" s="4">
@@ -13908,12 +13542,12 @@
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
       <c r="X59" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
       <c r="AA59" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
@@ -13925,11 +13559,11 @@
       <c r="AI59" s="4"/>
       <c r="AJ59" s="4"/>
       <c r="AK59" s="4" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="AL59" s="4"/>
       <c r="AM59" s="4" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="AN59" s="4"/>
       <c r="AO59" s="4"/>
@@ -13987,7 +13621,7 @@
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
       <c r="P60" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q60" s="4"/>
       <c r="R60" s="4">
@@ -13999,12 +13633,12 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
       <c r="X60" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
       <c r="AA60" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
@@ -14016,11 +13650,11 @@
       <c r="AI60" s="4"/>
       <c r="AJ60" s="4"/>
       <c r="AK60" s="4" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="AL60" s="4"/>
       <c r="AM60" s="4" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="AN60" s="4"/>
       <c r="AO60" s="4"/>
@@ -14078,7 +13712,7 @@
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
       <c r="P61" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q61" s="4"/>
       <c r="R61" s="4">
@@ -14090,12 +13724,12 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
       <c r="X61" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
       <c r="AA61" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
@@ -14107,11 +13741,11 @@
       <c r="AI61" s="4"/>
       <c r="AJ61" s="4"/>
       <c r="AK61" s="4" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="AL61" s="4"/>
       <c r="AM61" s="4" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="AN61" s="4"/>
       <c r="AO61" s="4"/>
@@ -14169,7 +13803,7 @@
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
       <c r="P62" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q62" s="4"/>
       <c r="R62" s="4">
@@ -14181,12 +13815,12 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
       <c r="AA62" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
@@ -14198,11 +13832,11 @@
       <c r="AI62" s="4"/>
       <c r="AJ62" s="4"/>
       <c r="AK62" s="4" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="AL62" s="4"/>
       <c r="AM62" s="4" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="AN62" s="4"/>
       <c r="AO62" s="4"/>
@@ -14260,7 +13894,7 @@
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
       <c r="P63" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q63" s="4"/>
       <c r="R63" s="4">
@@ -14272,12 +13906,12 @@
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
       <c r="X63" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
       <c r="AA63" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
@@ -14289,11 +13923,11 @@
       <c r="AI63" s="4"/>
       <c r="AJ63" s="4"/>
       <c r="AK63" s="4" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="AL63" s="4"/>
       <c r="AM63" s="4" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="AN63" s="4"/>
       <c r="AO63" s="4"/>
@@ -14351,7 +13985,7 @@
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
       <c r="P64" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q64" s="4"/>
       <c r="R64" s="4">
@@ -14363,12 +13997,12 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
       <c r="X64" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
       <c r="AA64" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
@@ -14380,11 +14014,11 @@
       <c r="AI64" s="4"/>
       <c r="AJ64" s="4"/>
       <c r="AK64" s="4" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
       <c r="AL64" s="4"/>
       <c r="AM64" s="4" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="AN64" s="4"/>
       <c r="AO64" s="4"/>
@@ -14442,7 +14076,7 @@
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
       <c r="P65" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q65" s="4"/>
       <c r="R65" s="4">
@@ -14454,12 +14088,12 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
       <c r="X65" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
       <c r="AA65" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
@@ -14471,11 +14105,11 @@
       <c r="AI65" s="4"/>
       <c r="AJ65" s="4"/>
       <c r="AK65" s="4" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="AL65" s="4"/>
       <c r="AM65" s="4" t="s">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="AN65" s="4"/>
       <c r="AO65" s="4"/>
@@ -14533,7 +14167,7 @@
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q66" s="4"/>
       <c r="R66" s="4">
@@ -14545,12 +14179,12 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
       <c r="X66" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
       <c r="AA66" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
@@ -14562,11 +14196,11 @@
       <c r="AI66" s="4"/>
       <c r="AJ66" s="4"/>
       <c r="AK66" s="4" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="AL66" s="4"/>
       <c r="AM66" s="4" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="AN66" s="4"/>
       <c r="AO66" s="4"/>
@@ -14624,7 +14258,7 @@
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q67" s="4"/>
       <c r="R67" s="4">
@@ -14636,12 +14270,12 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
       <c r="X67" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
       <c r="AA67" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
@@ -14653,11 +14287,11 @@
       <c r="AI67" s="4"/>
       <c r="AJ67" s="4"/>
       <c r="AK67" s="4" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="AL67" s="4"/>
       <c r="AM67" s="4" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="AN67" s="4"/>
       <c r="AO67" s="4"/>
@@ -14715,7 +14349,7 @@
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="P68" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q68" s="4"/>
       <c r="R68" s="4">
@@ -14727,12 +14361,12 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
       <c r="AA68" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
@@ -14744,11 +14378,11 @@
       <c r="AI68" s="4"/>
       <c r="AJ68" s="4"/>
       <c r="AK68" s="4" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="AL68" s="4"/>
       <c r="AM68" s="4" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="AN68" s="4"/>
       <c r="AO68" s="4"/>
@@ -14806,7 +14440,7 @@
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
       <c r="P69" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q69" s="4"/>
       <c r="R69" s="4">
@@ -14818,12 +14452,12 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
       <c r="X69" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
       <c r="AA69" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
@@ -14835,11 +14469,11 @@
       <c r="AI69" s="4"/>
       <c r="AJ69" s="4"/>
       <c r="AK69" s="4" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="AL69" s="4"/>
       <c r="AM69" s="4" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="AN69" s="4"/>
       <c r="AO69" s="4"/>
@@ -14897,7 +14531,7 @@
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
       <c r="P70" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q70" s="4"/>
       <c r="R70" s="4">
@@ -14909,12 +14543,12 @@
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
       <c r="X70" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
       <c r="AA70" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
@@ -14926,11 +14560,11 @@
       <c r="AI70" s="4"/>
       <c r="AJ70" s="4"/>
       <c r="AK70" s="4" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="AL70" s="4"/>
       <c r="AM70" s="4" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="AN70" s="4"/>
       <c r="AO70" s="4"/>
@@ -14988,7 +14622,7 @@
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
       <c r="P71" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q71" s="4"/>
       <c r="R71" s="4">
@@ -15000,12 +14634,12 @@
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
       <c r="X71" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
       <c r="AA71" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
@@ -15017,11 +14651,11 @@
       <c r="AI71" s="4"/>
       <c r="AJ71" s="4"/>
       <c r="AK71" s="4" t="s">
-        <v>260</v>
+        <v>205</v>
       </c>
       <c r="AL71" s="4"/>
       <c r="AM71" s="4" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="AN71" s="4"/>
       <c r="AO71" s="4"/>
@@ -15079,7 +14713,7 @@
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
       <c r="P72" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q72" s="4"/>
       <c r="R72" s="4">
@@ -15091,12 +14725,12 @@
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
       <c r="X72" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
       <c r="AA72" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
@@ -15108,11 +14742,11 @@
       <c r="AI72" s="4"/>
       <c r="AJ72" s="4"/>
       <c r="AK72" s="4" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="AL72" s="4"/>
       <c r="AM72" s="4" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="AN72" s="4"/>
       <c r="AO72" s="4"/>
@@ -15170,7 +14804,7 @@
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
       <c r="P73" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q73" s="4"/>
       <c r="R73" s="4">
@@ -15182,12 +14816,12 @@
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
       <c r="X73" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
       <c r="AA73" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
@@ -15199,11 +14833,11 @@
       <c r="AI73" s="4"/>
       <c r="AJ73" s="4"/>
       <c r="AK73" s="4" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="AL73" s="4"/>
       <c r="AM73" s="4" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="AN73" s="4"/>
       <c r="AO73" s="4"/>
@@ -15261,7 +14895,7 @@
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
       <c r="P74" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q74" s="4"/>
       <c r="R74" s="4">
@@ -15273,12 +14907,12 @@
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
       <c r="X74" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y74" s="4"/>
       <c r="Z74" s="4"/>
       <c r="AA74" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
@@ -15290,11 +14924,11 @@
       <c r="AI74" s="4"/>
       <c r="AJ74" s="4"/>
       <c r="AK74" s="4" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="AL74" s="4"/>
       <c r="AM74" s="4" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="AN74" s="4"/>
       <c r="AO74" s="4"/>
@@ -15352,7 +14986,7 @@
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="P75" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q75" s="4"/>
       <c r="R75" s="4">
@@ -15364,12 +14998,12 @@
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
       <c r="X75" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
       <c r="AA75" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
@@ -15381,11 +15015,11 @@
       <c r="AI75" s="4"/>
       <c r="AJ75" s="4"/>
       <c r="AK75" s="4" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="AL75" s="4"/>
       <c r="AM75" s="4" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="AN75" s="4"/>
       <c r="AO75" s="4"/>
@@ -15443,7 +15077,7 @@
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
       <c r="P76" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q76" s="4"/>
       <c r="R76" s="4">
@@ -15455,12 +15089,12 @@
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
       <c r="X76" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
       <c r="AA76" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
@@ -15472,11 +15106,11 @@
       <c r="AI76" s="4"/>
       <c r="AJ76" s="4"/>
       <c r="AK76" s="4" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="AL76" s="4"/>
       <c r="AM76" s="4" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="AN76" s="4"/>
       <c r="AO76" s="4"/>
@@ -15534,7 +15168,7 @@
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
       <c r="P77" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q77" s="4"/>
       <c r="R77" s="4">
@@ -15546,12 +15180,12 @@
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
       <c r="X77" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
       <c r="AA77" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
@@ -15563,11 +15197,11 @@
       <c r="AI77" s="4"/>
       <c r="AJ77" s="4"/>
       <c r="AK77" s="4" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="AL77" s="4"/>
       <c r="AM77" s="4" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="AN77" s="4"/>
       <c r="AO77" s="4"/>
@@ -15625,7 +15259,7 @@
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
       <c r="P78" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q78" s="4"/>
       <c r="R78" s="4">
@@ -15637,12 +15271,12 @@
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
       <c r="X78" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y78" s="4"/>
       <c r="Z78" s="4"/>
       <c r="AA78" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
@@ -15654,11 +15288,11 @@
       <c r="AI78" s="4"/>
       <c r="AJ78" s="4"/>
       <c r="AK78" s="4" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="AL78" s="4"/>
       <c r="AM78" s="4" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="AN78" s="4"/>
       <c r="AO78" s="4"/>
@@ -15716,7 +15350,7 @@
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
       <c r="P79" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q79" s="4"/>
       <c r="R79" s="4">
@@ -15728,12 +15362,12 @@
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
       <c r="X79" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
       <c r="AA79" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
@@ -15745,11 +15379,11 @@
       <c r="AI79" s="4"/>
       <c r="AJ79" s="4"/>
       <c r="AK79" s="4" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="AL79" s="4"/>
       <c r="AM79" s="4" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="AN79" s="4"/>
       <c r="AO79" s="4"/>
@@ -15807,7 +15441,7 @@
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
       <c r="P80" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q80" s="4"/>
       <c r="R80" s="4">
@@ -15819,12 +15453,12 @@
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
       <c r="X80" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
       <c r="AA80" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
@@ -15836,11 +15470,11 @@
       <c r="AI80" s="4"/>
       <c r="AJ80" s="4"/>
       <c r="AK80" s="4" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="AL80" s="4"/>
       <c r="AM80" s="4" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="AN80" s="4"/>
       <c r="AO80" s="4"/>
@@ -15898,7 +15532,7 @@
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q81" s="4"/>
       <c r="R81" s="4">
@@ -15910,12 +15544,12 @@
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
       <c r="X81" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
       <c r="AA81" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
@@ -15927,11 +15561,11 @@
       <c r="AI81" s="4"/>
       <c r="AJ81" s="4"/>
       <c r="AK81" s="4" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="AL81" s="4"/>
       <c r="AM81" s="4" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="AN81" s="4"/>
       <c r="AO81" s="4"/>
@@ -15989,7 +15623,7 @@
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
       <c r="P82" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q82" s="4"/>
       <c r="R82" s="4">
@@ -16001,12 +15635,12 @@
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
       <c r="X82" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y82" s="4"/>
       <c r="Z82" s="4"/>
       <c r="AA82" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
@@ -16018,11 +15652,11 @@
       <c r="AI82" s="4"/>
       <c r="AJ82" s="4"/>
       <c r="AK82" s="4" t="s">
-        <v>217</v>
+        <v>162</v>
       </c>
       <c r="AL82" s="4"/>
       <c r="AM82" s="4" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="AN82" s="4"/>
       <c r="AO82" s="4"/>
@@ -16080,7 +15714,7 @@
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
       <c r="P83" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q83" s="4"/>
       <c r="R83" s="4">
@@ -16092,12 +15726,12 @@
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
       <c r="X83" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y83" s="4"/>
       <c r="Z83" s="4"/>
       <c r="AA83" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB83" s="4"/>
       <c r="AC83" s="4"/>
@@ -16109,11 +15743,11 @@
       <c r="AI83" s="4"/>
       <c r="AJ83" s="4"/>
       <c r="AK83" s="4" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="AL83" s="4"/>
       <c r="AM83" s="4" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="AN83" s="4"/>
       <c r="AO83" s="4"/>
@@ -16171,7 +15805,7 @@
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
       <c r="P84" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q84" s="4"/>
       <c r="R84" s="4">
@@ -16183,12 +15817,12 @@
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
       <c r="X84" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y84" s="4"/>
       <c r="Z84" s="4"/>
       <c r="AA84" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB84" s="4"/>
       <c r="AC84" s="4"/>
@@ -16200,11 +15834,11 @@
       <c r="AI84" s="4"/>
       <c r="AJ84" s="4"/>
       <c r="AK84" s="4" t="s">
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="AL84" s="4"/>
       <c r="AM84" s="4" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="AN84" s="4"/>
       <c r="AO84" s="4"/>
@@ -16262,7 +15896,7 @@
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
       <c r="P85" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q85" s="4"/>
       <c r="R85" s="4">
@@ -16274,12 +15908,12 @@
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
       <c r="X85" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y85" s="4"/>
       <c r="Z85" s="4"/>
       <c r="AA85" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB85" s="4"/>
       <c r="AC85" s="4"/>
@@ -16291,11 +15925,11 @@
       <c r="AI85" s="4"/>
       <c r="AJ85" s="4"/>
       <c r="AK85" s="4" t="s">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="AL85" s="4"/>
       <c r="AM85" s="4" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="AN85" s="4"/>
       <c r="AO85" s="4"/>
@@ -16353,7 +15987,7 @@
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
       <c r="P86" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q86" s="4"/>
       <c r="R86" s="4">
@@ -16365,12 +15999,12 @@
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
       <c r="X86" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
       <c r="AA86" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB86" s="4"/>
       <c r="AC86" s="4"/>
@@ -16382,11 +16016,11 @@
       <c r="AI86" s="4"/>
       <c r="AJ86" s="4"/>
       <c r="AK86" s="4" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="AL86" s="4"/>
       <c r="AM86" s="4" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="AN86" s="4"/>
       <c r="AO86" s="4"/>
@@ -16444,7 +16078,7 @@
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="P87" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q87" s="4"/>
       <c r="R87" s="4">
@@ -16456,12 +16090,12 @@
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
       <c r="X87" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y87" s="4"/>
       <c r="Z87" s="4"/>
       <c r="AA87" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB87" s="4"/>
       <c r="AC87" s="4"/>
@@ -16473,11 +16107,11 @@
       <c r="AI87" s="4"/>
       <c r="AJ87" s="4"/>
       <c r="AK87" s="4" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="AL87" s="4"/>
       <c r="AM87" s="4" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="AN87" s="4"/>
       <c r="AO87" s="4"/>
@@ -16535,7 +16169,7 @@
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
       <c r="P88" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q88" s="4"/>
       <c r="R88" s="4">
@@ -16547,12 +16181,12 @@
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
       <c r="X88" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y88" s="4"/>
       <c r="Z88" s="4"/>
       <c r="AA88" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB88" s="4"/>
       <c r="AC88" s="4"/>
@@ -16564,11 +16198,11 @@
       <c r="AI88" s="4"/>
       <c r="AJ88" s="4"/>
       <c r="AK88" s="4" t="s">
-        <v>242</v>
+        <v>187</v>
       </c>
       <c r="AL88" s="4"/>
       <c r="AM88" s="4" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="AN88" s="4"/>
       <c r="AO88" s="4"/>
@@ -16626,7 +16260,7 @@
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
       <c r="P89" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q89" s="4"/>
       <c r="R89" s="4">
@@ -16638,12 +16272,12 @@
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
       <c r="X89" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y89" s="4"/>
       <c r="Z89" s="4"/>
       <c r="AA89" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB89" s="4"/>
       <c r="AC89" s="4"/>
@@ -16655,11 +16289,11 @@
       <c r="AI89" s="4"/>
       <c r="AJ89" s="4"/>
       <c r="AK89" s="4" t="s">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="AL89" s="4"/>
       <c r="AM89" s="4" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="AN89" s="4"/>
       <c r="AO89" s="4"/>
@@ -16717,7 +16351,7 @@
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
       <c r="P90" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q90" s="4"/>
       <c r="R90" s="4">
@@ -16729,12 +16363,12 @@
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
       <c r="X90" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y90" s="4"/>
       <c r="Z90" s="4"/>
       <c r="AA90" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB90" s="4"/>
       <c r="AC90" s="4"/>
@@ -16746,11 +16380,11 @@
       <c r="AI90" s="4"/>
       <c r="AJ90" s="4"/>
       <c r="AK90" s="4" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="AL90" s="4"/>
       <c r="AM90" s="4" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="AN90" s="4"/>
       <c r="AO90" s="4"/>
@@ -16808,7 +16442,7 @@
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
       <c r="P91" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q91" s="4"/>
       <c r="R91" s="4">
@@ -16820,12 +16454,12 @@
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
       <c r="X91" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y91" s="4"/>
       <c r="Z91" s="4"/>
       <c r="AA91" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB91" s="4"/>
       <c r="AC91" s="4"/>
@@ -16837,11 +16471,11 @@
       <c r="AI91" s="4"/>
       <c r="AJ91" s="4"/>
       <c r="AK91" s="4" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="AL91" s="4"/>
       <c r="AM91" s="4" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="AN91" s="4"/>
       <c r="AO91" s="4"/>
@@ -16899,7 +16533,7 @@
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
       <c r="P92" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q92" s="4"/>
       <c r="R92" s="4">
@@ -16911,12 +16545,12 @@
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
       <c r="X92" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y92" s="4"/>
       <c r="Z92" s="4"/>
       <c r="AA92" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB92" s="4"/>
       <c r="AC92" s="4"/>
@@ -16928,11 +16562,11 @@
       <c r="AI92" s="4"/>
       <c r="AJ92" s="4"/>
       <c r="AK92" s="4" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="AL92" s="4"/>
       <c r="AM92" s="4" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="AN92" s="4"/>
       <c r="AO92" s="4"/>
@@ -16990,7 +16624,7 @@
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
       <c r="P93" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q93" s="4"/>
       <c r="R93" s="4">
@@ -17002,12 +16636,12 @@
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
       <c r="X93" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y93" s="4"/>
       <c r="Z93" s="4"/>
       <c r="AA93" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB93" s="4"/>
       <c r="AC93" s="4"/>
@@ -17019,11 +16653,11 @@
       <c r="AI93" s="4"/>
       <c r="AJ93" s="4"/>
       <c r="AK93" s="4" t="s">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="AL93" s="4"/>
       <c r="AM93" s="4" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="AN93" s="4"/>
       <c r="AO93" s="4"/>
@@ -17081,7 +16715,7 @@
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
       <c r="P94" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q94" s="4"/>
       <c r="R94" s="4">
@@ -17093,12 +16727,12 @@
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
       <c r="X94" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y94" s="4"/>
       <c r="Z94" s="4"/>
       <c r="AA94" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB94" s="4"/>
       <c r="AC94" s="4"/>
@@ -17110,11 +16744,11 @@
       <c r="AI94" s="4"/>
       <c r="AJ94" s="4"/>
       <c r="AK94" s="4" t="s">
-        <v>213</v>
+        <v>158</v>
       </c>
       <c r="AL94" s="4"/>
       <c r="AM94" s="4" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="AN94" s="4"/>
       <c r="AO94" s="4"/>
@@ -17172,7 +16806,7 @@
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
       <c r="P95" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q95" s="4"/>
       <c r="R95" s="4">
@@ -17184,12 +16818,12 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
       <c r="X95" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y95" s="4"/>
       <c r="Z95" s="4"/>
       <c r="AA95" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB95" s="4"/>
       <c r="AC95" s="4"/>
@@ -17201,11 +16835,11 @@
       <c r="AI95" s="4"/>
       <c r="AJ95" s="4"/>
       <c r="AK95" s="4" t="s">
-        <v>207</v>
+        <v>152</v>
       </c>
       <c r="AL95" s="4"/>
       <c r="AM95" s="4" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="AN95" s="4"/>
       <c r="AO95" s="4"/>
@@ -17263,7 +16897,7 @@
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
       <c r="P96" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q96" s="4"/>
       <c r="R96" s="4">
@@ -17275,12 +16909,12 @@
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
       <c r="X96" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y96" s="4"/>
       <c r="Z96" s="4"/>
       <c r="AA96" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB96" s="4"/>
       <c r="AC96" s="4"/>
@@ -17292,11 +16926,11 @@
       <c r="AI96" s="4"/>
       <c r="AJ96" s="4"/>
       <c r="AK96" s="4" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="AL96" s="4"/>
       <c r="AM96" s="4" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="AN96" s="4"/>
       <c r="AO96" s="4"/>
@@ -17354,7 +16988,7 @@
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
       <c r="P97" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q97" s="4"/>
       <c r="R97" s="4">
@@ -17366,12 +17000,12 @@
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
       <c r="X97" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y97" s="4"/>
       <c r="Z97" s="4"/>
       <c r="AA97" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB97" s="4"/>
       <c r="AC97" s="4"/>
@@ -17383,11 +17017,11 @@
       <c r="AI97" s="4"/>
       <c r="AJ97" s="4"/>
       <c r="AK97" s="4" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="AL97" s="4"/>
       <c r="AM97" s="4" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="AN97" s="4"/>
       <c r="AO97" s="4"/>
@@ -17445,7 +17079,7 @@
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
       <c r="P98" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q98" s="4"/>
       <c r="R98" s="4">
@@ -17457,12 +17091,12 @@
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
       <c r="X98" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y98" s="4"/>
       <c r="Z98" s="4"/>
       <c r="AA98" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB98" s="4"/>
       <c r="AC98" s="4"/>
@@ -17474,11 +17108,11 @@
       <c r="AI98" s="4"/>
       <c r="AJ98" s="4"/>
       <c r="AK98" s="4" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="AL98" s="4"/>
       <c r="AM98" s="4" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="AN98" s="4"/>
       <c r="AO98" s="4"/>
@@ -17536,7 +17170,7 @@
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
       <c r="P99" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q99" s="4"/>
       <c r="R99" s="4">
@@ -17548,12 +17182,12 @@
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
       <c r="X99" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y99" s="4"/>
       <c r="Z99" s="4"/>
       <c r="AA99" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB99" s="4"/>
       <c r="AC99" s="4"/>
@@ -17565,11 +17199,11 @@
       <c r="AI99" s="4"/>
       <c r="AJ99" s="4"/>
       <c r="AK99" s="4" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="AL99" s="4"/>
       <c r="AM99" s="4" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="AN99" s="4"/>
       <c r="AO99" s="4"/>
@@ -17627,7 +17261,7 @@
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
       <c r="P100" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q100" s="4"/>
       <c r="R100" s="4">
@@ -17639,12 +17273,12 @@
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
       <c r="X100" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y100" s="4"/>
       <c r="Z100" s="4"/>
       <c r="AA100" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB100" s="4"/>
       <c r="AC100" s="4"/>
@@ -17656,11 +17290,11 @@
       <c r="AI100" s="4"/>
       <c r="AJ100" s="4"/>
       <c r="AK100" s="4" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="AL100" s="4"/>
       <c r="AM100" s="4" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="AN100" s="4"/>
       <c r="AO100" s="4"/>
@@ -17718,7 +17352,7 @@
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
       <c r="P101" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q101" s="4"/>
       <c r="R101" s="4">
@@ -17730,12 +17364,12 @@
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
       <c r="X101" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y101" s="4"/>
       <c r="Z101" s="4"/>
       <c r="AA101" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB101" s="4"/>
       <c r="AC101" s="4"/>
@@ -17747,11 +17381,11 @@
       <c r="AI101" s="4"/>
       <c r="AJ101" s="4"/>
       <c r="AK101" s="4" t="s">
-        <v>214</v>
+        <v>159</v>
       </c>
       <c r="AL101" s="4"/>
       <c r="AM101" s="4" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="AN101" s="4"/>
       <c r="AO101" s="4"/>
@@ -17809,7 +17443,7 @@
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
       <c r="P102" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q102" s="4"/>
       <c r="R102" s="4">
@@ -17821,12 +17455,12 @@
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
       <c r="X102" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y102" s="4"/>
       <c r="Z102" s="4"/>
       <c r="AA102" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB102" s="4"/>
       <c r="AC102" s="4"/>
@@ -17838,11 +17472,11 @@
       <c r="AI102" s="4"/>
       <c r="AJ102" s="4"/>
       <c r="AK102" s="4" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="AL102" s="4"/>
       <c r="AM102" s="4" t="s">
-        <v>273</v>
+        <v>218</v>
       </c>
       <c r="AN102" s="4"/>
       <c r="AO102" s="4"/>
@@ -17900,7 +17534,7 @@
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
       <c r="P103" s="4" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="Q103" s="4"/>
       <c r="R103" s="4">
@@ -17912,12 +17546,12 @@
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
       <c r="X103" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y103" s="4"/>
       <c r="Z103" s="4"/>
       <c r="AA103" s="4" t="s">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c r="AB103" s="4"/>
       <c r="AC103" s="4"/>
@@ -17929,11 +17563,11 @@
       <c r="AI103" s="4"/>
       <c r="AJ103" s="4"/>
       <c r="AK103" s="4" t="s">
-        <v>274</v>
+        <v>219</v>
       </c>
       <c r="AL103" s="4"/>
       <c r="AM103" s="4" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="AN103" s="4"/>
       <c r="AO103" s="4"/>
@@ -17991,7 +17625,7 @@
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
       <c r="P104" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q104" s="4"/>
       <c r="R104" s="4">
@@ -18005,12 +17639,12 @@
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
       <c r="X104" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y104" s="4"/>
       <c r="Z104" s="4"/>
       <c r="AA104" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB104" s="4"/>
       <c r="AC104" s="4"/>
@@ -18024,7 +17658,7 @@
       <c r="AK104" s="4"/>
       <c r="AL104" s="4"/>
       <c r="AM104" s="4" t="s">
-        <v>206</v>
+        <v>151</v>
       </c>
       <c r="AN104" s="4"/>
       <c r="AO104" s="4"/>
@@ -18082,7 +17716,7 @@
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
       <c r="P105" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q105" s="4"/>
       <c r="R105" s="4">
@@ -18096,12 +17730,12 @@
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
       <c r="X105" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y105" s="4"/>
       <c r="Z105" s="4"/>
       <c r="AA105" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB105" s="4"/>
       <c r="AC105" s="4"/>
@@ -18115,7 +17749,7 @@
       <c r="AK105" s="4"/>
       <c r="AL105" s="4"/>
       <c r="AM105" s="4" t="s">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="AN105" s="4"/>
       <c r="AO105" s="4"/>
@@ -18173,7 +17807,7 @@
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
       <c r="P106" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q106" s="4"/>
       <c r="R106" s="4">
@@ -18187,12 +17821,12 @@
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
       <c r="X106" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y106" s="4"/>
       <c r="Z106" s="4"/>
       <c r="AA106" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB106" s="4"/>
       <c r="AC106" s="4"/>
@@ -18206,7 +17840,7 @@
       <c r="AK106" s="4"/>
       <c r="AL106" s="4"/>
       <c r="AM106" s="4" t="s">
-        <v>216</v>
+        <v>161</v>
       </c>
       <c r="AN106" s="4"/>
       <c r="AO106" s="4"/>
@@ -18264,7 +17898,7 @@
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
       <c r="P107" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q107" s="4"/>
       <c r="R107" s="4">
@@ -18278,12 +17912,12 @@
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
       <c r="X107" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y107" s="4"/>
       <c r="Z107" s="4"/>
       <c r="AA107" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB107" s="4"/>
       <c r="AC107" s="4"/>
@@ -18297,7 +17931,7 @@
       <c r="AK107" s="4"/>
       <c r="AL107" s="4"/>
       <c r="AM107" s="4" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="AN107" s="4"/>
       <c r="AO107" s="4"/>
@@ -18355,7 +17989,7 @@
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
       <c r="P108" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q108" s="4"/>
       <c r="R108" s="4">
@@ -18369,12 +18003,12 @@
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
       <c r="X108" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y108" s="4"/>
       <c r="Z108" s="4"/>
       <c r="AA108" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB108" s="4"/>
       <c r="AC108" s="4"/>
@@ -18388,7 +18022,7 @@
       <c r="AK108" s="4"/>
       <c r="AL108" s="4"/>
       <c r="AM108" s="4" t="s">
-        <v>223</v>
+        <v>168</v>
       </c>
       <c r="AN108" s="4"/>
       <c r="AO108" s="4"/>
@@ -18446,7 +18080,7 @@
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
       <c r="P109" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q109" s="4"/>
       <c r="R109" s="4">
@@ -18460,12 +18094,12 @@
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
       <c r="X109" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y109" s="4"/>
       <c r="Z109" s="4"/>
       <c r="AA109" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB109" s="4"/>
       <c r="AC109" s="4"/>
@@ -18479,7 +18113,7 @@
       <c r="AK109" s="4"/>
       <c r="AL109" s="4"/>
       <c r="AM109" s="4" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="AN109" s="4"/>
       <c r="AO109" s="4"/>
@@ -18537,7 +18171,7 @@
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
       <c r="P110" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q110" s="4"/>
       <c r="R110" s="4">
@@ -18551,12 +18185,12 @@
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
       <c r="X110" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y110" s="4"/>
       <c r="Z110" s="4"/>
       <c r="AA110" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB110" s="4"/>
       <c r="AC110" s="4"/>
@@ -18570,7 +18204,7 @@
       <c r="AK110" s="4"/>
       <c r="AL110" s="4"/>
       <c r="AM110" s="4" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="AN110" s="4"/>
       <c r="AO110" s="4"/>
@@ -18628,7 +18262,7 @@
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
       <c r="P111" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q111" s="4"/>
       <c r="R111" s="4">
@@ -18642,12 +18276,12 @@
       <c r="V111" s="4"/>
       <c r="W111" s="4"/>
       <c r="X111" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y111" s="4"/>
       <c r="Z111" s="4"/>
       <c r="AA111" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB111" s="4"/>
       <c r="AC111" s="4"/>
@@ -18661,7 +18295,7 @@
       <c r="AK111" s="4"/>
       <c r="AL111" s="4"/>
       <c r="AM111" s="4" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="AN111" s="4"/>
       <c r="AO111" s="4"/>
@@ -18719,7 +18353,7 @@
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
       <c r="P112" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q112" s="4"/>
       <c r="R112" s="4">
@@ -18733,12 +18367,12 @@
       <c r="V112" s="4"/>
       <c r="W112" s="4"/>
       <c r="X112" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y112" s="4"/>
       <c r="Z112" s="4"/>
       <c r="AA112" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB112" s="4"/>
       <c r="AC112" s="4"/>
@@ -18752,7 +18386,7 @@
       <c r="AK112" s="4"/>
       <c r="AL112" s="4"/>
       <c r="AM112" s="4" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="AN112" s="4"/>
       <c r="AO112" s="4"/>
@@ -18810,7 +18444,7 @@
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
       <c r="P113" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q113" s="4"/>
       <c r="R113" s="4">
@@ -18824,12 +18458,12 @@
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
       <c r="X113" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y113" s="4"/>
       <c r="Z113" s="4"/>
       <c r="AA113" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB113" s="4"/>
       <c r="AC113" s="4"/>
@@ -18843,7 +18477,7 @@
       <c r="AK113" s="4"/>
       <c r="AL113" s="4"/>
       <c r="AM113" s="4" t="s">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="AN113" s="4"/>
       <c r="AO113" s="4"/>
@@ -18901,7 +18535,7 @@
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
       <c r="P114" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q114" s="4"/>
       <c r="R114" s="4">
@@ -18915,12 +18549,12 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
       <c r="X114" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y114" s="4"/>
       <c r="Z114" s="4"/>
       <c r="AA114" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB114" s="4"/>
       <c r="AC114" s="4"/>
@@ -18934,7 +18568,7 @@
       <c r="AK114" s="4"/>
       <c r="AL114" s="4"/>
       <c r="AM114" s="4" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="AN114" s="4"/>
       <c r="AO114" s="4"/>
@@ -18992,7 +18626,7 @@
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
       <c r="P115" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q115" s="4"/>
       <c r="R115" s="4">
@@ -19006,12 +18640,12 @@
       <c r="V115" s="4"/>
       <c r="W115" s="4"/>
       <c r="X115" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y115" s="4"/>
       <c r="Z115" s="4"/>
       <c r="AA115" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB115" s="4"/>
       <c r="AC115" s="4"/>
@@ -19025,7 +18659,7 @@
       <c r="AK115" s="4"/>
       <c r="AL115" s="4"/>
       <c r="AM115" s="4" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="AN115" s="4"/>
       <c r="AO115" s="4"/>
@@ -19083,7 +18717,7 @@
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
       <c r="P116" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q116" s="4"/>
       <c r="R116" s="4">
@@ -19097,12 +18731,12 @@
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
       <c r="X116" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y116" s="4"/>
       <c r="Z116" s="4"/>
       <c r="AA116" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB116" s="4"/>
       <c r="AC116" s="4"/>
@@ -19116,7 +18750,7 @@
       <c r="AK116" s="4"/>
       <c r="AL116" s="4"/>
       <c r="AM116" s="4" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="AN116" s="4"/>
       <c r="AO116" s="4"/>
@@ -19174,7 +18808,7 @@
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
       <c r="P117" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q117" s="4"/>
       <c r="R117" s="4">
@@ -19188,12 +18822,12 @@
       <c r="V117" s="4"/>
       <c r="W117" s="4"/>
       <c r="X117" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y117" s="4"/>
       <c r="Z117" s="4"/>
       <c r="AA117" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB117" s="4"/>
       <c r="AC117" s="4"/>
@@ -19207,7 +18841,7 @@
       <c r="AK117" s="4"/>
       <c r="AL117" s="4"/>
       <c r="AM117" s="4" t="s">
-        <v>271</v>
+        <v>216</v>
       </c>
       <c r="AN117" s="4"/>
       <c r="AO117" s="4"/>
@@ -19265,7 +18899,7 @@
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
       <c r="P118" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q118" s="4"/>
       <c r="R118" s="4">
@@ -19277,12 +18911,12 @@
       <c r="V118" s="4"/>
       <c r="W118" s="4"/>
       <c r="X118" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y118" s="4"/>
       <c r="Z118" s="4"/>
       <c r="AA118" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB118" s="4"/>
       <c r="AC118" s="4"/>
@@ -19296,7 +18930,7 @@
       <c r="AK118" s="4"/>
       <c r="AL118" s="4"/>
       <c r="AM118" s="4" t="s">
-        <v>278</v>
+        <v>223</v>
       </c>
       <c r="AN118" s="4"/>
       <c r="AO118" s="4"/>
@@ -19354,7 +18988,7 @@
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
       <c r="P119" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q119" s="4"/>
       <c r="R119" s="4">
@@ -19366,12 +19000,12 @@
       <c r="V119" s="4"/>
       <c r="W119" s="4"/>
       <c r="X119" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y119" s="4"/>
       <c r="Z119" s="4"/>
       <c r="AA119" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB119" s="4"/>
       <c r="AC119" s="4"/>
@@ -19385,7 +19019,7 @@
       <c r="AK119" s="4"/>
       <c r="AL119" s="4"/>
       <c r="AM119" s="4" t="s">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="AN119" s="4"/>
       <c r="AO119" s="4"/>
@@ -19443,7 +19077,7 @@
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
       <c r="P120" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q120" s="4"/>
       <c r="R120" s="4">
@@ -19455,12 +19089,12 @@
       <c r="V120" s="4"/>
       <c r="W120" s="4"/>
       <c r="X120" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y120" s="4"/>
       <c r="Z120" s="4"/>
       <c r="AA120" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB120" s="4"/>
       <c r="AC120" s="4"/>
@@ -19474,7 +19108,7 @@
       <c r="AK120" s="4"/>
       <c r="AL120" s="4"/>
       <c r="AM120" s="4" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="AN120" s="4"/>
       <c r="AO120" s="4"/>
@@ -19532,7 +19166,7 @@
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
       <c r="P121" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q121" s="4"/>
       <c r="R121" s="4">
@@ -19544,12 +19178,12 @@
       <c r="V121" s="4"/>
       <c r="W121" s="4"/>
       <c r="X121" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
       <c r="AA121" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB121" s="4"/>
       <c r="AC121" s="4"/>
@@ -19563,7 +19197,7 @@
       <c r="AK121" s="4"/>
       <c r="AL121" s="4"/>
       <c r="AM121" s="4" t="s">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="AN121" s="4"/>
       <c r="AO121" s="4"/>
@@ -19621,7 +19255,7 @@
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
       <c r="P122" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q122" s="4"/>
       <c r="R122" s="4">
@@ -19633,12 +19267,12 @@
       <c r="V122" s="4"/>
       <c r="W122" s="4"/>
       <c r="X122" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y122" s="4"/>
       <c r="Z122" s="4"/>
       <c r="AA122" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB122" s="4"/>
       <c r="AC122" s="4"/>
@@ -19652,7 +19286,7 @@
       <c r="AK122" s="4"/>
       <c r="AL122" s="4"/>
       <c r="AM122" s="4" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="AN122" s="4"/>
       <c r="AO122" s="4"/>
@@ -19710,7 +19344,7 @@
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
       <c r="P123" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q123" s="4"/>
       <c r="R123" s="4">
@@ -19722,12 +19356,12 @@
       <c r="V123" s="4"/>
       <c r="W123" s="4"/>
       <c r="X123" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y123" s="4"/>
       <c r="Z123" s="4"/>
       <c r="AA123" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB123" s="4"/>
       <c r="AC123" s="4"/>
@@ -19741,7 +19375,7 @@
       <c r="AK123" s="4"/>
       <c r="AL123" s="4"/>
       <c r="AM123" s="4" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="AN123" s="4"/>
       <c r="AO123" s="4"/>
@@ -19799,7 +19433,7 @@
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
       <c r="P124" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q124" s="4"/>
       <c r="R124" s="4">
@@ -19811,12 +19445,12 @@
       <c r="V124" s="4"/>
       <c r="W124" s="4"/>
       <c r="X124" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y124" s="4"/>
       <c r="Z124" s="4"/>
       <c r="AA124" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB124" s="4"/>
       <c r="AC124" s="4"/>
@@ -19830,7 +19464,7 @@
       <c r="AK124" s="4"/>
       <c r="AL124" s="4"/>
       <c r="AM124" s="4" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="AN124" s="4"/>
       <c r="AO124" s="4"/>
@@ -19888,7 +19522,7 @@
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
       <c r="P125" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q125" s="4"/>
       <c r="R125" s="4">
@@ -19900,12 +19534,12 @@
       <c r="V125" s="4"/>
       <c r="W125" s="4"/>
       <c r="X125" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y125" s="4"/>
       <c r="Z125" s="4"/>
       <c r="AA125" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB125" s="4"/>
       <c r="AC125" s="4"/>
@@ -19919,7 +19553,7 @@
       <c r="AK125" s="4"/>
       <c r="AL125" s="4"/>
       <c r="AM125" s="4" t="s">
-        <v>238</v>
+        <v>183</v>
       </c>
       <c r="AN125" s="4"/>
       <c r="AO125" s="4"/>
@@ -19977,7 +19611,7 @@
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
       <c r="P126" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q126" s="4"/>
       <c r="R126" s="4">
@@ -19989,12 +19623,12 @@
       <c r="V126" s="4"/>
       <c r="W126" s="4"/>
       <c r="X126" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y126" s="4"/>
       <c r="Z126" s="4"/>
       <c r="AA126" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB126" s="4"/>
       <c r="AC126" s="4"/>
@@ -20008,7 +19642,7 @@
       <c r="AK126" s="4"/>
       <c r="AL126" s="4"/>
       <c r="AM126" s="4" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="AN126" s="4"/>
       <c r="AO126" s="4"/>
@@ -20066,7 +19700,7 @@
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
       <c r="P127" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q127" s="4"/>
       <c r="R127" s="4">
@@ -20078,12 +19712,12 @@
       <c r="V127" s="4"/>
       <c r="W127" s="4"/>
       <c r="X127" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y127" s="4"/>
       <c r="Z127" s="4"/>
       <c r="AA127" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB127" s="4"/>
       <c r="AC127" s="4"/>
@@ -20097,7 +19731,7 @@
       <c r="AK127" s="4"/>
       <c r="AL127" s="4"/>
       <c r="AM127" s="4" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="AN127" s="4"/>
       <c r="AO127" s="4"/>
@@ -20155,7 +19789,7 @@
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
       <c r="P128" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q128" s="4"/>
       <c r="R128" s="4">
@@ -20167,12 +19801,12 @@
       <c r="V128" s="4"/>
       <c r="W128" s="4"/>
       <c r="X128" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y128" s="4"/>
       <c r="Z128" s="4"/>
       <c r="AA128" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB128" s="4"/>
       <c r="AC128" s="4"/>
@@ -20186,7 +19820,7 @@
       <c r="AK128" s="4"/>
       <c r="AL128" s="4"/>
       <c r="AM128" s="4" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="AN128" s="4"/>
       <c r="AO128" s="4"/>
@@ -20244,7 +19878,7 @@
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
       <c r="P129" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q129" s="4"/>
       <c r="R129" s="4">
@@ -20256,12 +19890,12 @@
       <c r="V129" s="4"/>
       <c r="W129" s="4"/>
       <c r="X129" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y129" s="4"/>
       <c r="Z129" s="4"/>
       <c r="AA129" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB129" s="4"/>
       <c r="AC129" s="4"/>
@@ -20275,7 +19909,7 @@
       <c r="AK129" s="4"/>
       <c r="AL129" s="4"/>
       <c r="AM129" s="4" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="AN129" s="4"/>
       <c r="AO129" s="4"/>
@@ -20333,7 +19967,7 @@
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
       <c r="P130" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q130" s="4"/>
       <c r="R130" s="4">
@@ -20345,12 +19979,12 @@
       <c r="V130" s="4"/>
       <c r="W130" s="4"/>
       <c r="X130" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y130" s="4"/>
       <c r="Z130" s="4"/>
       <c r="AA130" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB130" s="4"/>
       <c r="AC130" s="4"/>
@@ -20364,7 +19998,7 @@
       <c r="AK130" s="4"/>
       <c r="AL130" s="4"/>
       <c r="AM130" s="4" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="AN130" s="4"/>
       <c r="AO130" s="4"/>
@@ -20422,7 +20056,7 @@
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
       <c r="P131" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q131" s="4"/>
       <c r="R131" s="4">
@@ -20434,12 +20068,12 @@
       <c r="V131" s="4"/>
       <c r="W131" s="4"/>
       <c r="X131" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y131" s="4"/>
       <c r="Z131" s="4"/>
       <c r="AA131" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB131" s="4"/>
       <c r="AC131" s="4"/>
@@ -20453,7 +20087,7 @@
       <c r="AK131" s="4"/>
       <c r="AL131" s="4"/>
       <c r="AM131" s="4" t="s">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="AN131" s="4"/>
       <c r="AO131" s="4"/>
@@ -20511,7 +20145,7 @@
       <c r="N132" s="4"/>
       <c r="O132" s="4"/>
       <c r="P132" s="4" t="s">
-        <v>276</v>
+        <v>221</v>
       </c>
       <c r="Q132" s="4"/>
       <c r="R132" s="4">
@@ -20523,12 +20157,12 @@
       <c r="V132" s="4"/>
       <c r="W132" s="4"/>
       <c r="X132" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y132" s="4"/>
       <c r="Z132" s="4"/>
       <c r="AA132" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB132" s="4"/>
       <c r="AC132" s="4"/>
@@ -20542,7 +20176,7 @@
       <c r="AK132" s="4"/>
       <c r="AL132" s="4"/>
       <c r="AM132" s="4" t="s">
-        <v>272</v>
+        <v>217</v>
       </c>
       <c r="AN132" s="4"/>
       <c r="AO132" s="4"/>
@@ -20600,7 +20234,7 @@
       <c r="N133" s="4"/>
       <c r="O133" s="4"/>
       <c r="P133" s="4" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="Q133" s="4"/>
       <c r="R133" s="4">
@@ -20614,12 +20248,12 @@
       <c r="V133" s="4"/>
       <c r="W133" s="4"/>
       <c r="X133" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y133" s="4"/>
       <c r="Z133" s="4"/>
       <c r="AA133" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB133" s="4"/>
       <c r="AC133" s="4"/>
@@ -20633,7 +20267,7 @@
       <c r="AK133" s="4"/>
       <c r="AL133" s="4"/>
       <c r="AM133" s="4" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="AN133" s="4"/>
       <c r="AO133" s="4"/>
@@ -20691,7 +20325,7 @@
       <c r="N134" s="4"/>
       <c r="O134" s="4"/>
       <c r="P134" s="4" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="Q134" s="4"/>
       <c r="R134" s="4">
@@ -20705,12 +20339,12 @@
       <c r="V134" s="4"/>
       <c r="W134" s="4"/>
       <c r="X134" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y134" s="4"/>
       <c r="Z134" s="4"/>
       <c r="AA134" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB134" s="4"/>
       <c r="AC134" s="4"/>
@@ -20724,7 +20358,7 @@
       <c r="AK134" s="4"/>
       <c r="AL134" s="4"/>
       <c r="AM134" s="4" t="s">
-        <v>262</v>
+        <v>207</v>
       </c>
       <c r="AN134" s="4"/>
       <c r="AO134" s="4"/>
@@ -20782,7 +20416,7 @@
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
       <c r="P135" s="4" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="Q135" s="4"/>
       <c r="R135" s="4">
@@ -20794,12 +20428,12 @@
       <c r="V135" s="4"/>
       <c r="W135" s="4"/>
       <c r="X135" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y135" s="4"/>
       <c r="Z135" s="4"/>
       <c r="AA135" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB135" s="4"/>
       <c r="AC135" s="4"/>
@@ -20813,7 +20447,7 @@
       <c r="AK135" s="4"/>
       <c r="AL135" s="4"/>
       <c r="AM135" s="4" t="s">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="AN135" s="4"/>
       <c r="AO135" s="4"/>
@@ -20871,7 +20505,7 @@
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
       <c r="P136" s="4" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="Q136" s="4"/>
       <c r="R136" s="4">
@@ -20883,12 +20517,12 @@
       <c r="V136" s="4"/>
       <c r="W136" s="4"/>
       <c r="X136" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y136" s="4"/>
       <c r="Z136" s="4"/>
       <c r="AA136" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB136" s="4"/>
       <c r="AC136" s="4"/>
@@ -20902,7 +20536,7 @@
       <c r="AK136" s="4"/>
       <c r="AL136" s="4"/>
       <c r="AM136" s="4" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="AN136" s="4"/>
       <c r="AO136" s="4"/>
@@ -20960,7 +20594,7 @@
       <c r="N137" s="4"/>
       <c r="O137" s="4"/>
       <c r="P137" s="4" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="Q137" s="4"/>
       <c r="R137" s="4">
@@ -20972,12 +20606,12 @@
       <c r="V137" s="4"/>
       <c r="W137" s="4"/>
       <c r="X137" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y137" s="4"/>
       <c r="Z137" s="4"/>
       <c r="AA137" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB137" s="4"/>
       <c r="AC137" s="4"/>
@@ -20991,7 +20625,7 @@
       <c r="AK137" s="4"/>
       <c r="AL137" s="4"/>
       <c r="AM137" s="4" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
       <c r="AN137" s="4"/>
       <c r="AO137" s="4"/>
@@ -21049,7 +20683,7 @@
       <c r="N138" s="4"/>
       <c r="O138" s="4"/>
       <c r="P138" s="4" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="Q138" s="4"/>
       <c r="R138" s="4">
@@ -21061,12 +20695,12 @@
       <c r="V138" s="4"/>
       <c r="W138" s="4"/>
       <c r="X138" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y138" s="4"/>
       <c r="Z138" s="4"/>
       <c r="AA138" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB138" s="4"/>
       <c r="AC138" s="4"/>
@@ -21080,7 +20714,7 @@
       <c r="AK138" s="4"/>
       <c r="AL138" s="4"/>
       <c r="AM138" s="4" t="s">
-        <v>259</v>
+        <v>204</v>
       </c>
       <c r="AN138" s="4"/>
       <c r="AO138" s="4"/>
@@ -21138,7 +20772,7 @@
       <c r="N139" s="4"/>
       <c r="O139" s="4"/>
       <c r="P139" s="4" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="Q139" s="4"/>
       <c r="R139" s="4">
@@ -21150,12 +20784,12 @@
       <c r="V139" s="4"/>
       <c r="W139" s="4"/>
       <c r="X139" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y139" s="4"/>
       <c r="Z139" s="4"/>
       <c r="AA139" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB139" s="4"/>
       <c r="AC139" s="4"/>
@@ -21169,7 +20803,7 @@
       <c r="AK139" s="4"/>
       <c r="AL139" s="4"/>
       <c r="AM139" s="4" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="AN139" s="4"/>
       <c r="AO139" s="4"/>
@@ -21227,7 +20861,7 @@
       <c r="N140" s="4"/>
       <c r="O140" s="4"/>
       <c r="P140" s="4" t="s">
-        <v>281</v>
+        <v>226</v>
       </c>
       <c r="Q140" s="4"/>
       <c r="R140" s="4">
@@ -21239,12 +20873,12 @@
       <c r="V140" s="4"/>
       <c r="W140" s="4"/>
       <c r="X140" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y140" s="4"/>
       <c r="Z140" s="4"/>
       <c r="AA140" s="4" t="s">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="AB140" s="4"/>
       <c r="AC140" s="4"/>
@@ -21258,7 +20892,7 @@
       <c r="AK140" s="4"/>
       <c r="AL140" s="4"/>
       <c r="AM140" s="4" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="AN140" s="4"/>
       <c r="AO140" s="4"/>
@@ -21316,7 +20950,7 @@
       <c r="N141" s="4"/>
       <c r="O141" s="4"/>
       <c r="P141" s="4" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="Q141" s="4"/>
       <c r="R141" s="4">
@@ -21328,12 +20962,12 @@
       <c r="V141" s="4"/>
       <c r="W141" s="4"/>
       <c r="X141" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y141" s="4"/>
       <c r="Z141" s="4"/>
       <c r="AA141" s="4" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="AB141" s="4"/>
       <c r="AC141" s="4"/>
@@ -21347,7 +20981,7 @@
       <c r="AK141" s="4"/>
       <c r="AL141" s="4"/>
       <c r="AM141" s="4" t="s">
-        <v>232</v>
+        <v>177</v>
       </c>
       <c r="AN141" s="4"/>
       <c r="AO141" s="4"/>
@@ -21405,7 +21039,7 @@
       <c r="N142" s="4"/>
       <c r="O142" s="4"/>
       <c r="P142" s="4" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="Q142" s="4"/>
       <c r="R142" s="4">
@@ -21417,12 +21051,12 @@
       <c r="V142" s="4"/>
       <c r="W142" s="4"/>
       <c r="X142" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y142" s="4"/>
       <c r="Z142" s="4"/>
       <c r="AA142" s="4" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="AB142" s="4"/>
       <c r="AC142" s="4"/>
@@ -21436,7 +21070,7 @@
       <c r="AK142" s="4"/>
       <c r="AL142" s="4"/>
       <c r="AM142" s="4" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="AN142" s="4"/>
       <c r="AO142" s="4"/>
@@ -21494,7 +21128,7 @@
       <c r="N143" s="4"/>
       <c r="O143" s="4"/>
       <c r="P143" s="4" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="Q143" s="4"/>
       <c r="R143" s="4">
@@ -21506,12 +21140,12 @@
       <c r="V143" s="4"/>
       <c r="W143" s="4"/>
       <c r="X143" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y143" s="4"/>
       <c r="Z143" s="4"/>
       <c r="AA143" s="4" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="AB143" s="4"/>
       <c r="AC143" s="4"/>
@@ -21525,7 +21159,7 @@
       <c r="AK143" s="4"/>
       <c r="AL143" s="4"/>
       <c r="AM143" s="4" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="AN143" s="4"/>
       <c r="AO143" s="4"/>
@@ -21583,7 +21217,7 @@
       <c r="N144" s="4"/>
       <c r="O144" s="4"/>
       <c r="P144" s="4" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="Q144" s="4"/>
       <c r="R144" s="4">
@@ -21595,12 +21229,12 @@
       <c r="V144" s="4"/>
       <c r="W144" s="4"/>
       <c r="X144" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y144" s="4"/>
       <c r="Z144" s="4"/>
       <c r="AA144" s="4" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="AB144" s="4"/>
       <c r="AC144" s="4"/>
@@ -21614,7 +21248,7 @@
       <c r="AK144" s="4"/>
       <c r="AL144" s="4"/>
       <c r="AM144" s="4" t="s">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c r="AN144" s="4"/>
       <c r="AO144" s="4"/>
@@ -21672,7 +21306,7 @@
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
       <c r="P145" s="4" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="Q145" s="4"/>
       <c r="R145" s="4">
@@ -21684,12 +21318,12 @@
       <c r="V145" s="4"/>
       <c r="W145" s="4"/>
       <c r="X145" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y145" s="4"/>
       <c r="Z145" s="4"/>
       <c r="AA145" s="4" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="AB145" s="4"/>
       <c r="AC145" s="4"/>
@@ -21703,7 +21337,7 @@
       <c r="AK145" s="4"/>
       <c r="AL145" s="4"/>
       <c r="AM145" s="4" t="s">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="AN145" s="4"/>
       <c r="AO145" s="4"/>
@@ -21761,7 +21395,7 @@
       <c r="N146" s="4"/>
       <c r="O146" s="4"/>
       <c r="P146" s="4" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="Q146" s="4"/>
       <c r="R146" s="4">
@@ -21773,12 +21407,12 @@
       <c r="V146" s="4"/>
       <c r="W146" s="4"/>
       <c r="X146" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y146" s="4"/>
       <c r="Z146" s="4"/>
       <c r="AA146" s="4" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="AB146" s="4"/>
       <c r="AC146" s="4"/>
@@ -21792,7 +21426,7 @@
       <c r="AK146" s="4"/>
       <c r="AL146" s="4"/>
       <c r="AM146" s="4" t="s">
-        <v>284</v>
+        <v>229</v>
       </c>
       <c r="AN146" s="4"/>
       <c r="AO146" s="4"/>
@@ -21850,7 +21484,7 @@
       <c r="N147" s="4"/>
       <c r="O147" s="4"/>
       <c r="P147" s="4" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="Q147" s="4"/>
       <c r="R147" s="4">
@@ -21862,12 +21496,12 @@
       <c r="V147" s="4"/>
       <c r="W147" s="4"/>
       <c r="X147" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y147" s="4"/>
       <c r="Z147" s="4"/>
       <c r="AA147" s="4" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="AB147" s="4"/>
       <c r="AC147" s="4"/>
@@ -21881,7 +21515,7 @@
       <c r="AK147" s="4"/>
       <c r="AL147" s="4"/>
       <c r="AM147" s="4" t="s">
-        <v>245</v>
+        <v>190</v>
       </c>
       <c r="AN147" s="4"/>
       <c r="AO147" s="4"/>
@@ -21939,7 +21573,7 @@
       <c r="N148" s="4"/>
       <c r="O148" s="4"/>
       <c r="P148" s="4" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="Q148" s="4"/>
       <c r="R148" s="4">
@@ -21951,12 +21585,12 @@
       <c r="V148" s="4"/>
       <c r="W148" s="4"/>
       <c r="X148" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y148" s="4"/>
       <c r="Z148" s="4"/>
       <c r="AA148" s="4" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="AB148" s="4"/>
       <c r="AC148" s="4"/>
@@ -21970,7 +21604,7 @@
       <c r="AK148" s="4"/>
       <c r="AL148" s="4"/>
       <c r="AM148" s="4" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="AN148" s="4"/>
       <c r="AO148" s="4"/>
@@ -22028,7 +21662,7 @@
       <c r="N149" s="4"/>
       <c r="O149" s="4"/>
       <c r="P149" s="4" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="Q149" s="4"/>
       <c r="R149" s="4">
@@ -22040,12 +21674,12 @@
       <c r="V149" s="4"/>
       <c r="W149" s="4"/>
       <c r="X149" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y149" s="4"/>
       <c r="Z149" s="4"/>
       <c r="AA149" s="4" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="AB149" s="4"/>
       <c r="AC149" s="4"/>
@@ -22059,7 +21693,7 @@
       <c r="AK149" s="4"/>
       <c r="AL149" s="4"/>
       <c r="AM149" s="4" t="s">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="AN149" s="4"/>
       <c r="AO149" s="4"/>
@@ -22117,7 +21751,7 @@
       <c r="N150" s="4"/>
       <c r="O150" s="4"/>
       <c r="P150" s="4" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="Q150" s="4"/>
       <c r="R150" s="4">
@@ -22129,12 +21763,12 @@
       <c r="V150" s="4"/>
       <c r="W150" s="4"/>
       <c r="X150" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y150" s="4"/>
       <c r="Z150" s="4"/>
       <c r="AA150" s="4" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="AB150" s="4"/>
       <c r="AC150" s="4"/>
@@ -22148,7 +21782,7 @@
       <c r="AK150" s="4"/>
       <c r="AL150" s="4"/>
       <c r="AM150" s="4" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="AN150" s="4"/>
       <c r="AO150" s="4"/>
@@ -22206,7 +21840,7 @@
       <c r="N151" s="4"/>
       <c r="O151" s="4"/>
       <c r="P151" s="4" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="Q151" s="4"/>
       <c r="R151" s="4">
@@ -22218,12 +21852,12 @@
       <c r="V151" s="4"/>
       <c r="W151" s="4"/>
       <c r="X151" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y151" s="4"/>
       <c r="Z151" s="4"/>
       <c r="AA151" s="4" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="AB151" s="4"/>
       <c r="AC151" s="4"/>
@@ -22237,7 +21871,7 @@
       <c r="AK151" s="4"/>
       <c r="AL151" s="4"/>
       <c r="AM151" s="4" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="AN151" s="4"/>
       <c r="AO151" s="4"/>
@@ -22295,7 +21929,7 @@
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
       <c r="P152" s="4" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="Q152" s="4"/>
       <c r="R152" s="4">
@@ -22307,12 +21941,12 @@
       <c r="V152" s="4"/>
       <c r="W152" s="4"/>
       <c r="X152" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y152" s="4"/>
       <c r="Z152" s="4"/>
       <c r="AA152" s="4" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="AB152" s="4"/>
       <c r="AC152" s="4"/>
@@ -22326,7 +21960,7 @@
       <c r="AK152" s="4"/>
       <c r="AL152" s="4"/>
       <c r="AM152" s="4" t="s">
-        <v>251</v>
+        <v>196</v>
       </c>
       <c r="AN152" s="4"/>
       <c r="AO152" s="4"/>
@@ -22384,7 +22018,7 @@
       <c r="N153" s="4"/>
       <c r="O153" s="4"/>
       <c r="P153" s="4" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="Q153" s="4"/>
       <c r="R153" s="4">
@@ -22396,12 +22030,12 @@
       <c r="V153" s="4"/>
       <c r="W153" s="4"/>
       <c r="X153" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y153" s="4"/>
       <c r="Z153" s="4"/>
       <c r="AA153" s="4" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="AB153" s="4"/>
       <c r="AC153" s="4"/>
@@ -22415,7 +22049,7 @@
       <c r="AK153" s="4"/>
       <c r="AL153" s="4"/>
       <c r="AM153" s="4" t="s">
-        <v>221</v>
+        <v>166</v>
       </c>
       <c r="AN153" s="4"/>
       <c r="AO153" s="4"/>
@@ -22473,7 +22107,7 @@
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
       <c r="P154" s="4" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="Q154" s="4"/>
       <c r="R154" s="4">
@@ -22485,12 +22119,12 @@
       <c r="V154" s="4"/>
       <c r="W154" s="4"/>
       <c r="X154" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y154" s="4"/>
       <c r="Z154" s="4"/>
       <c r="AA154" s="4" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="AB154" s="4"/>
       <c r="AC154" s="4"/>
@@ -22504,7 +22138,7 @@
       <c r="AK154" s="4"/>
       <c r="AL154" s="4"/>
       <c r="AM154" s="4" t="s">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="AN154" s="4"/>
       <c r="AO154" s="4"/>
@@ -22562,7 +22196,7 @@
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
       <c r="P155" s="4" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="Q155" s="4"/>
       <c r="R155" s="4">
@@ -22574,12 +22208,12 @@
       <c r="V155" s="4"/>
       <c r="W155" s="4"/>
       <c r="X155" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y155" s="4"/>
       <c r="Z155" s="4"/>
       <c r="AA155" s="4" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="AB155" s="4"/>
       <c r="AC155" s="4"/>
@@ -22593,7 +22227,7 @@
       <c r="AK155" s="4"/>
       <c r="AL155" s="4"/>
       <c r="AM155" s="4" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="AN155" s="4"/>
       <c r="AO155" s="4"/>
@@ -22651,7 +22285,7 @@
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
       <c r="P156" s="4" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="Q156" s="4"/>
       <c r="R156" s="4">
@@ -22663,12 +22297,12 @@
       <c r="V156" s="4"/>
       <c r="W156" s="4"/>
       <c r="X156" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y156" s="4"/>
       <c r="Z156" s="4"/>
       <c r="AA156" s="4" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="AB156" s="4"/>
       <c r="AC156" s="4"/>
@@ -22682,7 +22316,7 @@
       <c r="AK156" s="4"/>
       <c r="AL156" s="4"/>
       <c r="AM156" s="4" t="s">
-        <v>256</v>
+        <v>201</v>
       </c>
       <c r="AN156" s="4"/>
       <c r="AO156" s="4"/>
@@ -22740,7 +22374,7 @@
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
       <c r="P157" s="4" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="Q157" s="4"/>
       <c r="R157" s="4">
@@ -22752,12 +22386,12 @@
       <c r="V157" s="4"/>
       <c r="W157" s="4"/>
       <c r="X157" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y157" s="4"/>
       <c r="Z157" s="4"/>
       <c r="AA157" s="4" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="AB157" s="4"/>
       <c r="AC157" s="4"/>
@@ -22771,7 +22405,7 @@
       <c r="AK157" s="4"/>
       <c r="AL157" s="4"/>
       <c r="AM157" s="4" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="AN157" s="4"/>
       <c r="AO157" s="4"/>
@@ -22829,7 +22463,7 @@
       <c r="N158" s="4"/>
       <c r="O158" s="4"/>
       <c r="P158" s="4" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="Q158" s="4"/>
       <c r="R158" s="4">
@@ -22841,12 +22475,12 @@
       <c r="V158" s="4"/>
       <c r="W158" s="4"/>
       <c r="X158" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y158" s="4"/>
       <c r="Z158" s="4"/>
       <c r="AA158" s="4" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="AB158" s="4"/>
       <c r="AC158" s="4"/>
@@ -22860,7 +22494,7 @@
       <c r="AK158" s="4"/>
       <c r="AL158" s="4"/>
       <c r="AM158" s="4" t="s">
-        <v>239</v>
+        <v>184</v>
       </c>
       <c r="AN158" s="4"/>
       <c r="AO158" s="4"/>
@@ -22918,7 +22552,7 @@
       <c r="N159" s="4"/>
       <c r="O159" s="4"/>
       <c r="P159" s="4" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="Q159" s="4"/>
       <c r="R159" s="4">
@@ -22930,12 +22564,12 @@
       <c r="V159" s="4"/>
       <c r="W159" s="4"/>
       <c r="X159" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y159" s="4"/>
       <c r="Z159" s="4"/>
       <c r="AA159" s="4" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="AB159" s="4"/>
       <c r="AC159" s="4"/>
@@ -22949,7 +22583,7 @@
       <c r="AK159" s="4"/>
       <c r="AL159" s="4"/>
       <c r="AM159" s="4" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="AN159" s="4"/>
       <c r="AO159" s="4"/>
@@ -23007,7 +22641,7 @@
       <c r="N160" s="4"/>
       <c r="O160" s="4"/>
       <c r="P160" s="4" t="s">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="Q160" s="4"/>
       <c r="R160" s="4">
@@ -23019,12 +22653,12 @@
       <c r="V160" s="4"/>
       <c r="W160" s="4"/>
       <c r="X160" s="4" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
       <c r="Y160" s="4"/>
       <c r="Z160" s="4"/>
       <c r="AA160" s="4" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="AB160" s="4"/>
       <c r="AC160" s="4"/>
@@ -23038,7 +22672,7 @@
       <c r="AK160" s="4"/>
       <c r="AL160" s="4"/>
       <c r="AM160" s="4" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="AN160" s="4"/>
       <c r="AO160" s="4"/>
@@ -23338,7 +22972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -23355,7 +22989,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>286</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -23378,61 +23012,61 @@
     </row>
     <row r="2" spans="1:19" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>288</v>
+        <v>233</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>289</v>
+        <v>234</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>290</v>
+        <v>235</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>291</v>
+        <v>236</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -23508,7 +23142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AW2"/>
   <sheetViews>
@@ -23525,7 +23159,7 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -23578,151 +23212,151 @@
     </row>
     <row r="2" spans="1:49" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>161</v>
+        <v>106</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>293</v>
+        <v>238</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>294</v>
+        <v>239</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>150</v>
+        <v>95</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>295</v>
+        <v>240</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>299</v>
+        <v>244</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>301</v>
+        <v>246</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -23900,7 +23534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU2"/>
   <sheetViews>
@@ -23917,7 +23551,7 @@
   <sheetData>
     <row r="1" spans="1:47" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -23968,145 +23602,145 @@
     </row>
     <row r="2" spans="1:47" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AF2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="AG2" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="AR2" s="3" t="s">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -24263,7 +23897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -24280,7 +23914,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>329</v>
+        <v>274</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -24290,22 +23924,22 @@
     </row>
     <row r="2" spans="1:6" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -24336,7 +23970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -24353,7 +23987,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -24374,55 +24008,55 @@
     </row>
     <row r="2" spans="1:17" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -24488,7 +24122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -24505,7 +24139,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -24519,34 +24153,34 @@
     </row>
     <row r="2" spans="1:10" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -24590,181 +24224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
-  <cols>
-    <col min="1" max="20" width="15.7109375" customWidth="1"/>
-    <col min="21" max="16384" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-    </row>
-    <row r="2" spans="1:20" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:T2"/>
-  <dataValidations count="20">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceName" error="Reference title, authors, etc. (as free text)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceName" prompt="Reference title, authors, etc. (as free text)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferencePubMed" error="Reference PubMed ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferencePubMed" prompt="Reference PubMed ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C2:C3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceDOI" error="Reference DOI&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceDOI" prompt="Reference DOI&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D2:D3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Description" error="Description of the row element&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Description" prompt="Description of the row element&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E2:E3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Entity name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Entity name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F2:F3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MiriamAnnotations" error="Entity ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="MiriamAnnotations" prompt="Entity ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G2:G3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Biochemical type of entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Type" prompt="Biochemical type of entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H2:H3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Symbol" error="Short symbol (e.g. gene symbol)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Symbol" prompt="Short symbol (e.g. gene symbol)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="I2:I3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionX" error="x coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionX" prompt="x coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="J2:J3">
-      <formula1>-1e+100</formula1>
-      <formula2>1e+100</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionY" error="y coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionY" prompt="y coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="K2:K3">
-      <formula1>-1e+100</formula1>
-      <formula2>1e+100</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Compartment shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Compartment shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="L2:L3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBML:compartment:id" error="SBML compartment ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBML:compartment:id" prompt="SBML compartment ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="M2:M3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment" error="Surrounding compartment (short)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment" prompt="Surrounding compartment (short)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="N2:N3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment:SBML:compar ..." error="Surrounding compartment (name)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment:SBML:compar ..." prompt="Surrounding compartment (name)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="O2:O3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Size" error="Compartment size&#10;&#10;Value must be a float or blank." promptTitle="Size" prompt="Compartment size&#10;&#10;Enter a float or blank." sqref="P2:P3">
-      <formula1>-1e+100</formula1>
-      <formula2>1e+100</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unit" error="Physical unit&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Unit" prompt="Physical unit&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="Q2:Q3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBOTerm" error="SBO term of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBOTerm" prompt="SBO term of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="R2:R3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="S2:S3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers:sbo.go" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers:sbo.go" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="T2:T3">
-      <formula1>255</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -24781,7 +24241,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>342</v>
+        <v>287</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -24792,25 +24252,25 @@
     </row>
     <row r="2" spans="1:7" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>343</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -24845,475 +24305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
-  <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="16384" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:C2"/>
-  <dataValidations count="3">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ColumnID" error="Column identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ColumnID" prompt="Column identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value&#10;&#10;Value must be a float or blank." promptTitle="Value" prompt="Value&#10;&#10;Enter a float or blank." sqref="C2:C3">
-      <formula1>-1e+100</formula1>
-      <formula2>1e+100</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
-  <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:B2"/>
-  <dataValidations count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ColumnID" error="Column identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ColumnID" prompt="Column identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ColumnString" error="JSON string describing all elements in the column&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ColumnString" prompt="JSON string describing all elements in the column&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
-      <formula1>255</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
-  <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="16384" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:C2"/>
-  <dataValidations count="3">
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowNumber" error="Number of row&#10;&#10;Value must be an integer." promptTitle="RowNumber" prompt="Number of row&#10;&#10;Enter an integer." sqref="A2:A3">
-      <formula1>-32768</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ColumnNumber" error="Number of column&#10;&#10;Value must be an integer." promptTitle="ColumnNumber" prompt="Number of column&#10;&#10;Enter an integer." sqref="B2:B3">
-      <formula1>-32768</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value&#10;&#10;Value must be a float or blank." promptTitle="Value" prompt="Value&#10;&#10;Enter a float or blank." sqref="C2:C3">
-      <formula1>-1e+100</formula1>
-      <formula2>1e+100</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
-  <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:B2"/>
-  <dataValidations count="2">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowString" error="JSON string describing all elements in the row&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowString" prompt="JSON string describing all elements in the row&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
-      <formula1>255</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
-  <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="16384" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:E2"/>
-  <dataValidations count="5">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReactionID" error="Reaction shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReactionID" prompt="Reaction shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Stoichiometry" error="Stoichiometric coefficient of the reactant&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Stoichiometry" prompt="Stoichiometric coefficient of the reactant&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Substrate" error="Substrate of the reaction&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Substrate" prompt="Substrate of the reaction&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C2:C3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Product" error="Product of the reaction&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Product" prompt="Product of the reaction&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D2:D3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Location" error="Compartment for localised reaction&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Location" prompt="Compartment for localised reaction&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E2:E3">
-      <formula1>255</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
-  <cols>
-    <col min="1" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="16384" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:H2"/>
-  <dataValidations count="8">
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UID:Contingency" error="ID for contingency&#10;&#10;Value must be an integer." promptTitle="UID:Contingency" prompt="ID for contingency&#10;&#10;Enter an integer." sqref="A2:A3">
-      <formula1>-32768</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Target" error="Contingency target&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Target" prompt="Contingency target&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Contingency" error="Contingency type&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Contingency" prompt="Contingency type&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C2:C3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Modifier" error="Target modifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Modifier" prompt="Target modifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D2:D3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reference:Identifiers:pubmed" error="Pubmed ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Reference:Identifiers:pubmed" prompt="Pubmed ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E2:E3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Quality" error="Contingency quality&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Quality" prompt="Contingency quality&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F2:F3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G2:G3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="InternalComplexID" error="Internal ID for processing&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="InternalComplexID" prompt="Internal ID for processing&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H2:H3">
-      <formula1>255</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
-  <cols>
-    <col min="1" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="16384" width="0" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:L2"/>
-  <dataValidations count="12">
-    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="ID for reaction&#10;&#10;Value must be an integer." promptTitle="ID" prompt="ID for reaction&#10;&#10;Enter an integer." sqref="A2:A3">
-      <formula1>-32768</formula1>
-      <formula2>32767</formula2>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UID:Reaction" error="Reaction string&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="UID:Reaction" prompt="Reaction string&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentA:Name" error="Name for Component A&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentA:Name" prompt="Name for Component A&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C2:C3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentA:Domain" error="Domain of Component A&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentA:Domain" prompt="Domain of Component A&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D2:D3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentA:Residue" error="Residue of Component A&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentA:Residue" prompt="Residue of Component A&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E2:E3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reaction" error="Reaction type&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Reaction" prompt="Reaction type&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F2:F3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentB:Name" error="Name for Component B&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentB:Name" prompt="Name for Component B&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G2:G3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentB:Domain" error="Domain of Component B&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentB:Domain" prompt="Domain of Component B&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H2:H3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentB:Residue" error="Residue of Component B&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentB:Residue" prompt="Residue of Component B&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="I2:I3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Quality" error="Quality of reaction&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Quality" prompt="Quality of reaction&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="J2:J3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Literature:Identifiers:pubmed" error="Pubmed ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Literature:Identifiers:pubmed" prompt="Pubmed ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="K2:K3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="L2:L3">
-      <formula1>255</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI2"/>
   <sheetViews>
@@ -25330,7 +24322,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -25369,109 +24361,109 @@
     </row>
     <row r="2" spans="1:35" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="U2" s="3" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -25596,7 +24588,205 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="16384" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <autoFilter ref="A2:C2"/>
+  <dataValidations count="3">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ColumnID" error="Column identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ColumnID" prompt="Column identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value&#10;&#10;Value must be a float or blank." promptTitle="Value" prompt="Value&#10;&#10;Enter a float or blank." sqref="C2:C3">
+      <formula1>-1e+100</formula1>
+      <formula2>1e+100</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.01" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.01" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <autoFilter ref="A2:B2"/>
+  <dataValidations count="2">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ColumnID" error="Column identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ColumnID" prompt="Column identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ColumnString" error="JSON string describing all elements in the column&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ColumnString" prompt="JSON string describing all elements in the column&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+      <formula1>255</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="16384" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <autoFilter ref="A2:C2"/>
+  <dataValidations count="3">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowNumber" error="Number of row&#10;&#10;Value must be an integer." promptTitle="RowNumber" prompt="Number of row&#10;&#10;Enter an integer." sqref="A2:A3">
+      <formula1>-32768</formula1>
+      <formula2>32767</formula2>
+    </dataValidation>
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ColumnNumber" error="Number of column&#10;&#10;Value must be an integer." promptTitle="ColumnNumber" prompt="Number of column&#10;&#10;Enter an integer." sqref="B2:B3">
+      <formula1>-32768</formula1>
+      <formula2>32767</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value&#10;&#10;Value must be a float or blank." promptTitle="Value" prompt="Value&#10;&#10;Enter a float or blank." sqref="C2:C3">
+      <formula1>-1e+100</formula1>
+      <formula2>1e+100</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.01" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.01" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <autoFilter ref="A2:B2"/>
+  <dataValidations count="2">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowString" error="JSON string describing all elements in the row&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowString" prompt="JSON string describing all elements in the row&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+      <formula1>255</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -25613,7 +24803,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>97</v>
+        <v>299</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -25622,19 +24812,289 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>98</v>
+        <v>300</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>99</v>
+        <v>275</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>100</v>
+        <v>276</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <autoFilter ref="A2:E2"/>
+  <dataValidations count="5">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReactionID" error="Reaction shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReactionID" prompt="Reaction shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Stoichiometry" error="Stoichiometric coefficient of the reactant&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Stoichiometry" prompt="Stoichiometric coefficient of the reactant&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Substrate" error="Substrate of the reaction&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Substrate" prompt="Substrate of the reaction&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C2:C3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Product" error="Product of the reaction&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Product" prompt="Product of the reaction&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D2:D3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Location" error="Compartment for localised reaction&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Location" prompt="Compartment for localised reaction&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E2:E3">
+      <formula1>255</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="16384" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.01" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.01" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <autoFilter ref="A2:H2"/>
+  <dataValidations count="8">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UID:Contingency" error="ID for contingency&#10;&#10;Value must be an integer." promptTitle="UID:Contingency" prompt="ID for contingency&#10;&#10;Enter an integer." sqref="A2:A3">
+      <formula1>-32768</formula1>
+      <formula2>32767</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Target" error="Contingency target&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Target" prompt="Contingency target&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Contingency" error="Contingency type&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Contingency" prompt="Contingency type&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C2:C3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Modifier" error="Target modifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Modifier" prompt="Target modifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D2:D3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reference:Identifiers:pubmed" error="Pubmed ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Reference:Identifiers:pubmed" prompt="Pubmed ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E2:E3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Quality" error="Contingency quality&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Quality" prompt="Contingency quality&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F2:F3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G2:G3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="InternalComplexID" error="Internal ID for processing&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="InternalComplexID" prompt="Internal ID for processing&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H2:H3">
+      <formula1>255</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="12" width="15.7109375" customWidth="1"/>
+    <col min="13" max="16384" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.01" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <autoFilter ref="A2:L2"/>
+  <dataValidations count="12">
+    <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="ID for reaction&#10;&#10;Value must be an integer." promptTitle="ID" prompt="ID for reaction&#10;&#10;Enter an integer." sqref="A2:A3">
+      <formula1>-32768</formula1>
+      <formula2>32767</formula2>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UID:Reaction" error="Reaction string&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="UID:Reaction" prompt="Reaction string&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentA:Name" error="Name for Component A&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentA:Name" prompt="Name for Component A&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C2:C3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentA:Domain" error="Domain of Component A&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentA:Domain" prompt="Domain of Component A&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D2:D3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentA:Residue" error="Residue of Component A&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentA:Residue" prompt="Residue of Component A&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E2:E3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Reaction" error="Reaction type&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Reaction" prompt="Reaction type&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F2:F3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentB:Name" error="Name for Component B&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentB:Name" prompt="Name for Component B&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G2:G3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentB:Domain" error="Domain of Component B&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentB:Domain" prompt="Domain of Component B&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H2:H3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentB:Residue" error="Residue of Component B&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentB:Residue" prompt="Residue of Component B&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="I2:I3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Quality" error="Quality of reaction&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Quality" prompt="Quality of reaction&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="J2:J3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Literature:Identifiers:pubmed" error="Pubmed ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Literature:Identifiers:pubmed" prompt="Pubmed ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="K2:K3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="L2:L3">
+      <formula1>255</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="16384" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.01" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.01" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -25662,7 +25122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S2"/>
   <sheetViews>
@@ -25679,7 +25139,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -25702,61 +25162,61 @@
     </row>
     <row r="2" spans="1:19" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>64</v>
+        <v>9</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -25828,7 +25288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -25845,7 +25305,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -25855,22 +25315,22 @@
     </row>
     <row r="2" spans="1:6" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -25901,7 +25361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V2"/>
   <sheetViews>
@@ -25918,7 +25378,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -25944,70 +25404,70 @@
     </row>
     <row r="2" spans="1:22" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="T2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="V2" s="3" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -26088,7 +25548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M2"/>
   <sheetViews>
@@ -26105,7 +25565,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -26122,43 +25582,43 @@
     </row>
     <row r="2" spans="1:13" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>129</v>
+        <v>74</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>135</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -26214,7 +25674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -26231,7 +25691,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -26240,19 +25700,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>139</v>
+        <v>84</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -26278,4 +25738,49 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.01" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.01" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <autoFilter ref="A2:B2"/>
+  <dataValidations count="2">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Option" error="Which option is addressed&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Option" prompt="Which option is addressed&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="What value is the option set to&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Value" prompt="What value is the option set to&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+      <formula1>255</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/examples/sbtab-sbml/ecoli_wortel_2018_data.xlsx
+++ b/examples/sbtab-sbml/ecoli_wortel_2018_data.xlsx
@@ -7,60 +7,60 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="!Compartment" sheetId="1" r:id="rId1"/>
-    <sheet name="!Compound" sheetId="2" r:id="rId2"/>
-    <sheet name="!Definition" sheetId="3" r:id="rId3"/>
-    <sheet name="!Enzyme" sheetId="4" r:id="rId4"/>
-    <sheet name="!FbcObjective" sheetId="5" r:id="rId5"/>
-    <sheet name="!Gene" sheetId="6" r:id="rId6"/>
-    <sheet name="!Layout" sheetId="7" r:id="rId7"/>
-    <sheet name="!Measurement" sheetId="8" r:id="rId8"/>
-    <sheet name="!PbConfig" sheetId="9" r:id="rId9"/>
-    <sheet name="!Position" sheetId="10" r:id="rId10"/>
-    <sheet name="!Protein" sheetId="11" r:id="rId11"/>
-    <sheet name="!Quantity" sheetId="12" r:id="rId12"/>
-    <sheet name="!QuantityInfo" sheetId="13" r:id="rId13"/>
-    <sheet name="!QuantityMatrix" sheetId="14" r:id="rId14"/>
-    <sheet name="!Reaction" sheetId="15" r:id="rId15"/>
-    <sheet name="!ReactionStoichiometry" sheetId="16" r:id="rId16"/>
-    <sheet name="!Regulator" sheetId="17" r:id="rId17"/>
-    <sheet name="!Relation" sheetId="18" r:id="rId18"/>
-    <sheet name="!Relationship" sheetId="19" r:id="rId19"/>
-    <sheet name="!SparseMatrix" sheetId="20" r:id="rId20"/>
-    <sheet name="!SparseMatrixColumn" sheetId="21" r:id="rId21"/>
-    <sheet name="!SparseMatrixOrdered" sheetId="22" r:id="rId22"/>
-    <sheet name="!SparseMatrixRow" sheetId="23" r:id="rId23"/>
-    <sheet name="!StoichiometricMatrix" sheetId="24" r:id="rId24"/>
-    <sheet name="!rxnconContingencyList" sheetId="25" r:id="rId25"/>
-    <sheet name="!rxnconReactionList" sheetId="26" r:id="rId26"/>
+    <sheet name="!!Compartment" sheetId="1" r:id="rId1"/>
+    <sheet name="!!Compound" sheetId="2" r:id="rId2"/>
+    <sheet name="!!Definition" sheetId="3" r:id="rId3"/>
+    <sheet name="!!Enzyme" sheetId="4" r:id="rId4"/>
+    <sheet name="!!FbcObjective" sheetId="5" r:id="rId5"/>
+    <sheet name="!!Gene" sheetId="6" r:id="rId6"/>
+    <sheet name="!!Layout" sheetId="7" r:id="rId7"/>
+    <sheet name="!!Measurement" sheetId="8" r:id="rId8"/>
+    <sheet name="!!PbConfig" sheetId="9" r:id="rId9"/>
+    <sheet name="!!Position" sheetId="10" r:id="rId10"/>
+    <sheet name="!!Protein" sheetId="11" r:id="rId11"/>
+    <sheet name="!!Quantity" sheetId="12" r:id="rId12"/>
+    <sheet name="!!QuantityInfo" sheetId="13" r:id="rId13"/>
+    <sheet name="!!QuantityMatrix" sheetId="14" r:id="rId14"/>
+    <sheet name="!!Reaction" sheetId="15" r:id="rId15"/>
+    <sheet name="!!ReactionStoichiometry" sheetId="16" r:id="rId16"/>
+    <sheet name="!!Regulator" sheetId="17" r:id="rId17"/>
+    <sheet name="!!Relation" sheetId="18" r:id="rId18"/>
+    <sheet name="!!Relationship" sheetId="19" r:id="rId19"/>
+    <sheet name="!!SparseMatrix" sheetId="20" r:id="rId20"/>
+    <sheet name="!!SparseMatrixColumn" sheetId="21" r:id="rId21"/>
+    <sheet name="!!SparseMatrixOrdered" sheetId="22" r:id="rId22"/>
+    <sheet name="!!SparseMatrixRow" sheetId="23" r:id="rId23"/>
+    <sheet name="!!StoichiometricMatrix" sheetId="24" r:id="rId24"/>
+    <sheet name="!!rxnconContingencyList" sheetId="25" r:id="rId25"/>
+    <sheet name="!!rxnconReactionList" sheetId="26" r:id="rId26"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!Compartment'!$A$2:$T$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!Compound'!$A$2:$AI$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!Definition'!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!Enzyme'!$A$2:$S$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!FbcObjective'!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!Gene'!$A$2:$V$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!Layout'!$A$2:$M$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'!Measurement'!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!PbConfig'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'!Position'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'!Protein'!$A$2:$O$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!Quantity'!$A$2:$BW$160</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!QuantityInfo'!$A$2:$S$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'!QuantityMatrix'!$A$2:$AW$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'!Reaction'!$A$2:$AU$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'!ReactionStoichiometry'!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!Regulator'!$A$2:$Q$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!Relation'!$A$2:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'!Relationship'!$A$2:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'!rxnconContingencyList'!$A$2:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">'!rxnconReactionList'!$A$2:$L$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'!SparseMatrix'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'!SparseMatrixColumn'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!SparseMatrixOrdered'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'!SparseMatrixRow'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'!StoichiometricMatrix'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!Compartment'!$A$3:$T$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!Compound'!$A$2:$AI$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!!Definition'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!!Enzyme'!$A$2:$S$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!FbcObjective'!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!!Gene'!$A$2:$V$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!!Layout'!$A$2:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'!!Measurement'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!!PbConfig'!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'!!Position'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'!!Protein'!$A$2:$O$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!!Quantity'!$A$2:$BW$160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!!QuantityInfo'!$A$2:$S$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'!!QuantityMatrix'!$A$2:$AW$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'!!Reaction'!$A$2:$AU$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'!!ReactionStoichiometry'!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!!Regulator'!$A$2:$Q$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!!Relation'!$A$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'!!Relationship'!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'!!rxnconContingencyList'!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">'!!rxnconReactionList'!$A$2:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'!!SparseMatrix'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'!!SparseMatrixColumn'!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!!SparseMatrixOrdered'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'!!SparseMatrixRow'!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'!!StoichiometricMatrix'!$A$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -72,7 +72,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -265,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -324,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0">
+    <comment ref="R3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -339,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0">
+    <comment ref="S3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -354,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0">
+    <comment ref="T3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6340,9 +6340,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="317">
-  <si>
-    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="318">
+  <si>
+    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2019-10-10 23:11:25'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2019-10-10 23:11:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6405,7 +6408,7 @@
     <t>!Identifiers:sbo.go</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2019-10-10 23:11:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6468,7 +6471,7 @@
     <t>!NameForPlots</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2019-10-10 23:11:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6483,7 +6486,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2019-10-10 23:11:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6504,7 +6507,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2019-10-10 23:11:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6519,7 +6522,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2019-10-10 23:11:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6549,7 +6552,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2019-10-10 23:11:25' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6585,7 +6588,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2019-10-10 23:11:26' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6597,7 +6600,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2019-10-10 23:11:26' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6606,16 +6609,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2019-10-10 23:11:26' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2019-10-10 23:11:26' ObjTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2019-10-10 23:11:26' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7035,7 +7038,7 @@
     <t>R11r</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2019-10-10 23:11:26' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7053,7 +7056,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2019-10-10 23:11:26' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7092,7 +7095,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2019-10-10 23:11:27' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7164,7 +7167,7 @@
     <t>!Regulator</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2019-10-10 23:11:27' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7176,7 +7179,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2019-10-10 23:11:27' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7188,7 +7191,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2019-10-10 02:12:50' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2019-10-10 23:11:27' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7203,13 +7206,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2019-10-10 02:12:51' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2019-10-10 23:11:27' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2019-10-10 02:12:51' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2019-10-10 23:11:27' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7218,13 +7221,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2019-10-10 02:12:51' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2019-10-10 23:11:27' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2019-10-10 02:12:51' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2019-10-10 23:11:27' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7233,19 +7236,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2019-10-10 02:12:51' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2019-10-10 23:11:27' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2019-10-10 02:12:51' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2019-10-10 23:11:27' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2019-10-10 02:12:51' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2019-10-10 23:11:28' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7266,7 +7269,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2019-10-10 02:12:51' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2019-10-10 23:11:28' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
@@ -7664,10 +7667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -7702,132 +7705,156 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:20" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.01" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:T2"/>
+  <autoFilter ref="A3:T3"/>
   <dataValidations count="20">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceName" error="Reference title, authors, etc. (as free text)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceName" prompt="Reference title, authors, etc. (as free text)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferencePubMed" error="Reference PubMed ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferencePubMed" prompt="Reference PubMed ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C2:C3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceDOI" error="Reference DOI&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceDOI" prompt="Reference DOI&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D2:D3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Description" error="Description of the row element&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Description" prompt="Description of the row element&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E2:E3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Entity name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Entity name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F2:F3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MiriamAnnotations" error="Entity ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="MiriamAnnotations" prompt="Entity ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G2:G3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Biochemical type of entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Type" prompt="Biochemical type of entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H2:H3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Symbol" error="Short symbol (e.g. gene symbol)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Symbol" prompt="Short symbol (e.g. gene symbol)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="I2:I3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionX" error="x coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionX" prompt="x coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="J2:J3">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceName" error="Reference title, authors, etc. (as free text)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceName" prompt="Reference title, authors, etc. (as free text)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferencePubMed" error="Reference PubMed ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferencePubMed" prompt="Reference PubMed ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C3:C4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceDOI" error="Reference DOI&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceDOI" prompt="Reference DOI&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D3:D4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Description" error="Description of the row element&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Description" prompt="Description of the row element&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E3:E4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Entity name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Entity name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F3:F4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MiriamAnnotations" error="Entity ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="MiriamAnnotations" prompt="Entity ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G3:G4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Biochemical type of entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Type" prompt="Biochemical type of entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H3:H4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Symbol" error="Short symbol (e.g. gene symbol)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Symbol" prompt="Short symbol (e.g. gene symbol)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="I3:I4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionX" error="x coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionX" prompt="x coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="J3:J4">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionY" error="y coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionY" prompt="y coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="K2:K3">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionY" error="y coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionY" prompt="y coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="K3:K4">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Compartment shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Compartment shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="L2:L3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBML:compartment:id" error="SBML compartment ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBML:compartment:id" prompt="SBML compartment ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="M2:M3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment" error="Surrounding compartment (short)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment" prompt="Surrounding compartment (short)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="N2:N3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment:SBML:compar ..." error="Surrounding compartment (name)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment:SBML:compar ..." prompt="Surrounding compartment (name)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="O2:O3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Size" error="Compartment size&#10;&#10;Value must be a float or blank." promptTitle="Size" prompt="Compartment size&#10;&#10;Enter a float or blank." sqref="P2:P3">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Compartment shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Compartment shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="L3:L4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBML:compartment:id" error="SBML compartment ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBML:compartment:id" prompt="SBML compartment ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="M3:M4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment" error="Surrounding compartment (short)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment" prompt="Surrounding compartment (short)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="N3:N4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment:SBML:compar ..." error="Surrounding compartment (name)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment:SBML:compar ..." prompt="Surrounding compartment (name)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="O3:O4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Size" error="Compartment size&#10;&#10;Value must be a float or blank." promptTitle="Size" prompt="Compartment size&#10;&#10;Enter a float or blank." sqref="P3:P4">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unit" error="Physical unit&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Unit" prompt="Physical unit&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="Q2:Q3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBOTerm" error="SBO term of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBOTerm" prompt="SBO term of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="R2:R3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="S2:S3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers:sbo.go" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers:sbo.go" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="T2:T3">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unit" error="Physical unit&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Unit" prompt="Physical unit&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="Q3:Q4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBOTerm" error="SBO term of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBOTerm" prompt="SBO term of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="R3:R4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="S3:S4">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers:sbo.go" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers:sbo.go" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="T3:T4">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
@@ -7853,20 +7880,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -7907,7 +7934,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7926,49 +7953,49 @@
     </row>
     <row r="2" spans="1:15" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -8047,7 +8074,7 @@
   <sheetData>
     <row r="1" spans="1:75" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8126,229 +8153,229 @@
     </row>
     <row r="2" spans="1:75" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AX2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BA2" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BD2" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BE2" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BF2" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BG2" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BH2" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BI2" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="BJ2" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="BK2" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="BL2" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="BM2" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="BN2" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="BO2" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BP2" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="BQ2" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="BR2" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BS2" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="BT2" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BU2" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="BV2" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BW2" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:75" ht="15.01" customHeight="1">
@@ -8368,7 +8395,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4">
@@ -8382,12 +8409,12 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
@@ -8399,11 +8426,11 @@
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL3" s="4"/>
       <c r="AM3" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AN3" s="4"/>
       <c r="AO3" s="4"/>
@@ -8461,7 +8488,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4">
@@ -8475,12 +8502,12 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
@@ -8492,11 +8519,11 @@
       <c r="AI4" s="4"/>
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL4" s="4"/>
       <c r="AM4" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AN4" s="4"/>
       <c r="AO4" s="4"/>
@@ -8554,7 +8581,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4">
@@ -8568,12 +8595,12 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
@@ -8585,11 +8612,11 @@
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL5" s="4"/>
       <c r="AM5" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
@@ -8647,7 +8674,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4">
@@ -8661,12 +8688,12 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
@@ -8678,11 +8705,11 @@
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL6" s="4"/>
       <c r="AM6" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
@@ -8740,7 +8767,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4">
@@ -8754,12 +8781,12 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
@@ -8771,11 +8798,11 @@
       <c r="AI7" s="4"/>
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL7" s="4"/>
       <c r="AM7" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AN7" s="4"/>
       <c r="AO7" s="4"/>
@@ -8833,7 +8860,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4">
@@ -8847,12 +8874,12 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
@@ -8864,11 +8891,11 @@
       <c r="AI8" s="4"/>
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL8" s="4"/>
       <c r="AM8" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AN8" s="4"/>
       <c r="AO8" s="4"/>
@@ -8926,7 +8953,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4">
@@ -8940,12 +8967,12 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
@@ -8957,11 +8984,11 @@
       <c r="AI9" s="4"/>
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL9" s="4"/>
       <c r="AM9" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
@@ -9019,7 +9046,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4">
@@ -9033,12 +9060,12 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
@@ -9050,11 +9077,11 @@
       <c r="AI10" s="4"/>
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL10" s="4"/>
       <c r="AM10" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN10" s="4"/>
       <c r="AO10" s="4"/>
@@ -9112,7 +9139,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4">
@@ -9126,12 +9153,12 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
@@ -9143,11 +9170,11 @@
       <c r="AI11" s="4"/>
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL11" s="4"/>
       <c r="AM11" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AN11" s="4"/>
       <c r="AO11" s="4"/>
@@ -9205,7 +9232,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4">
@@ -9219,12 +9246,12 @@
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
@@ -9236,11 +9263,11 @@
       <c r="AI12" s="4"/>
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL12" s="4"/>
       <c r="AM12" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN12" s="4"/>
       <c r="AO12" s="4"/>
@@ -9298,7 +9325,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4">
@@ -9312,12 +9339,12 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
@@ -9329,11 +9356,11 @@
       <c r="AI13" s="4"/>
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL13" s="4"/>
       <c r="AM13" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
@@ -9391,7 +9418,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4">
@@ -9405,12 +9432,12 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
@@ -9422,11 +9449,11 @@
       <c r="AI14" s="4"/>
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN14" s="4"/>
       <c r="AO14" s="4"/>
@@ -9484,7 +9511,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4">
@@ -9498,12 +9525,12 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
@@ -9515,11 +9542,11 @@
       <c r="AI15" s="4"/>
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL15" s="4"/>
       <c r="AM15" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN15" s="4"/>
       <c r="AO15" s="4"/>
@@ -9577,7 +9604,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4">
@@ -9591,12 +9618,12 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
@@ -9608,11 +9635,11 @@
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AL16" s="4"/>
       <c r="AM16" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN16" s="4"/>
       <c r="AO16" s="4"/>
@@ -9670,7 +9697,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4">
@@ -9684,12 +9711,12 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
@@ -9701,11 +9728,11 @@
       <c r="AI17" s="4"/>
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL17" s="4"/>
       <c r="AM17" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN17" s="4"/>
       <c r="AO17" s="4"/>
@@ -9763,7 +9790,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4">
@@ -9777,12 +9804,12 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
@@ -9794,11 +9821,11 @@
       <c r="AI18" s="4"/>
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL18" s="4"/>
       <c r="AM18" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN18" s="4"/>
       <c r="AO18" s="4"/>
@@ -9856,7 +9883,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4">
@@ -9870,12 +9897,12 @@
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
@@ -9887,11 +9914,11 @@
       <c r="AI19" s="4"/>
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL19" s="4"/>
       <c r="AM19" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AN19" s="4"/>
       <c r="AO19" s="4"/>
@@ -9949,7 +9976,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4">
@@ -9963,12 +9990,12 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
@@ -9980,11 +10007,11 @@
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL20" s="4"/>
       <c r="AM20" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN20" s="4"/>
       <c r="AO20" s="4"/>
@@ -10042,7 +10069,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4">
@@ -10056,12 +10083,12 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
@@ -10073,11 +10100,11 @@
       <c r="AI21" s="4"/>
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL21" s="4"/>
       <c r="AM21" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN21" s="4"/>
       <c r="AO21" s="4"/>
@@ -10135,7 +10162,7 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4">
@@ -10149,12 +10176,12 @@
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
@@ -10166,11 +10193,11 @@
       <c r="AI22" s="4"/>
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL22" s="4"/>
       <c r="AM22" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN22" s="4"/>
       <c r="AO22" s="4"/>
@@ -10228,7 +10255,7 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4">
@@ -10242,12 +10269,12 @@
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
@@ -10259,11 +10286,11 @@
       <c r="AI23" s="4"/>
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL23" s="4"/>
       <c r="AM23" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN23" s="4"/>
       <c r="AO23" s="4"/>
@@ -10321,7 +10348,7 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4">
@@ -10335,12 +10362,12 @@
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
@@ -10352,11 +10379,11 @@
       <c r="AI24" s="4"/>
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL24" s="4"/>
       <c r="AM24" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN24" s="4"/>
       <c r="AO24" s="4"/>
@@ -10414,7 +10441,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4">
@@ -10428,12 +10455,12 @@
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
       <c r="AA25" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
@@ -10445,11 +10472,11 @@
       <c r="AI25" s="4"/>
       <c r="AJ25" s="4"/>
       <c r="AK25" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL25" s="4"/>
       <c r="AM25" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AN25" s="4"/>
       <c r="AO25" s="4"/>
@@ -10507,7 +10534,7 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="4">
@@ -10521,12 +10548,12 @@
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
@@ -10538,11 +10565,11 @@
       <c r="AI26" s="4"/>
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL26" s="4"/>
       <c r="AM26" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AN26" s="4"/>
       <c r="AO26" s="4"/>
@@ -10600,7 +10627,7 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q27" s="4"/>
       <c r="R27" s="4">
@@ -10614,12 +10641,12 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
@@ -10631,11 +10658,11 @@
       <c r="AI27" s="4"/>
       <c r="AJ27" s="4"/>
       <c r="AK27" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL27" s="4"/>
       <c r="AM27" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN27" s="4"/>
       <c r="AO27" s="4"/>
@@ -10693,7 +10720,7 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4">
@@ -10707,12 +10734,12 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
@@ -10724,11 +10751,11 @@
       <c r="AI28" s="4"/>
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL28" s="4"/>
       <c r="AM28" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN28" s="4"/>
       <c r="AO28" s="4"/>
@@ -10786,7 +10813,7 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q29" s="4"/>
       <c r="R29" s="4">
@@ -10800,12 +10827,12 @@
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
@@ -10817,11 +10844,11 @@
       <c r="AI29" s="4"/>
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL29" s="4"/>
       <c r="AM29" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN29" s="4"/>
       <c r="AO29" s="4"/>
@@ -10879,7 +10906,7 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="4">
@@ -10893,12 +10920,12 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
@@ -10910,11 +10937,11 @@
       <c r="AI30" s="4"/>
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL30" s="4"/>
       <c r="AM30" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN30" s="4"/>
       <c r="AO30" s="4"/>
@@ -10972,7 +10999,7 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q31" s="4"/>
       <c r="R31" s="4">
@@ -10986,12 +11013,12 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
       <c r="AA31" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
@@ -11003,11 +11030,11 @@
       <c r="AI31" s="4"/>
       <c r="AJ31" s="4"/>
       <c r="AK31" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL31" s="4"/>
       <c r="AM31" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN31" s="4"/>
       <c r="AO31" s="4"/>
@@ -11065,7 +11092,7 @@
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="4">
@@ -11079,12 +11106,12 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
@@ -11096,11 +11123,11 @@
       <c r="AI32" s="4"/>
       <c r="AJ32" s="4"/>
       <c r="AK32" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL32" s="4"/>
       <c r="AM32" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN32" s="4"/>
       <c r="AO32" s="4"/>
@@ -11158,7 +11185,7 @@
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q33" s="4"/>
       <c r="R33" s="4">
@@ -11172,12 +11199,12 @@
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
@@ -11189,11 +11216,11 @@
       <c r="AI33" s="4"/>
       <c r="AJ33" s="4"/>
       <c r="AK33" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL33" s="4"/>
       <c r="AM33" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN33" s="4"/>
       <c r="AO33" s="4"/>
@@ -11251,7 +11278,7 @@
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q34" s="4"/>
       <c r="R34" s="4">
@@ -11265,12 +11292,12 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
       <c r="AA34" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
@@ -11282,11 +11309,11 @@
       <c r="AI34" s="4"/>
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AL34" s="4"/>
       <c r="AM34" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN34" s="4"/>
       <c r="AO34" s="4"/>
@@ -11344,7 +11371,7 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
       <c r="P35" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q35" s="4"/>
       <c r="R35" s="4">
@@ -11358,12 +11385,12 @@
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
       <c r="AA35" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
@@ -11375,11 +11402,11 @@
       <c r="AI35" s="4"/>
       <c r="AJ35" s="4"/>
       <c r="AK35" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AL35" s="4"/>
       <c r="AM35" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN35" s="4"/>
       <c r="AO35" s="4"/>
@@ -11437,7 +11464,7 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q36" s="4"/>
       <c r="R36" s="4">
@@ -11449,12 +11476,12 @@
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
       <c r="X36" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
       <c r="AA36" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
@@ -11466,11 +11493,11 @@
       <c r="AI36" s="4"/>
       <c r="AJ36" s="4"/>
       <c r="AK36" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL36" s="4"/>
       <c r="AM36" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN36" s="4"/>
       <c r="AO36" s="4"/>
@@ -11528,7 +11555,7 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q37" s="4"/>
       <c r="R37" s="4">
@@ -11540,12 +11567,12 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
       <c r="X37" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
       <c r="AA37" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
@@ -11557,11 +11584,11 @@
       <c r="AI37" s="4"/>
       <c r="AJ37" s="4"/>
       <c r="AK37" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL37" s="4"/>
       <c r="AM37" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN37" s="4"/>
       <c r="AO37" s="4"/>
@@ -11619,7 +11646,7 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q38" s="4"/>
       <c r="R38" s="4">
@@ -11631,12 +11658,12 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
       <c r="X38" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
@@ -11648,11 +11675,11 @@
       <c r="AI38" s="4"/>
       <c r="AJ38" s="4"/>
       <c r="AK38" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL38" s="4"/>
       <c r="AM38" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN38" s="4"/>
       <c r="AO38" s="4"/>
@@ -11710,7 +11737,7 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q39" s="4"/>
       <c r="R39" s="4">
@@ -11722,12 +11749,12 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
       <c r="X39" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
       <c r="AA39" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
@@ -11739,11 +11766,11 @@
       <c r="AI39" s="4"/>
       <c r="AJ39" s="4"/>
       <c r="AK39" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL39" s="4"/>
       <c r="AM39" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN39" s="4"/>
       <c r="AO39" s="4"/>
@@ -11801,7 +11828,7 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q40" s="4"/>
       <c r="R40" s="4">
@@ -11813,12 +11840,12 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
       <c r="AA40" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
@@ -11830,11 +11857,11 @@
       <c r="AI40" s="4"/>
       <c r="AJ40" s="4"/>
       <c r="AK40" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL40" s="4"/>
       <c r="AM40" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN40" s="4"/>
       <c r="AO40" s="4"/>
@@ -11892,7 +11919,7 @@
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q41" s="4"/>
       <c r="R41" s="4">
@@ -11904,12 +11931,12 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
       <c r="AA41" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
@@ -11921,11 +11948,11 @@
       <c r="AI41" s="4"/>
       <c r="AJ41" s="4"/>
       <c r="AK41" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL41" s="4"/>
       <c r="AM41" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN41" s="4"/>
       <c r="AO41" s="4"/>
@@ -11983,7 +12010,7 @@
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q42" s="4"/>
       <c r="R42" s="4">
@@ -11995,12 +12022,12 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
       <c r="X42" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
       <c r="AA42" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
@@ -12012,11 +12039,11 @@
       <c r="AI42" s="4"/>
       <c r="AJ42" s="4"/>
       <c r="AK42" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL42" s="4"/>
       <c r="AM42" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AN42" s="4"/>
       <c r="AO42" s="4"/>
@@ -12074,7 +12101,7 @@
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q43" s="4"/>
       <c r="R43" s="4">
@@ -12086,12 +12113,12 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
       <c r="X43" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
       <c r="AA43" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
@@ -12103,11 +12130,11 @@
       <c r="AI43" s="4"/>
       <c r="AJ43" s="4"/>
       <c r="AK43" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL43" s="4"/>
       <c r="AM43" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN43" s="4"/>
       <c r="AO43" s="4"/>
@@ -12165,7 +12192,7 @@
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q44" s="4"/>
       <c r="R44" s="4">
@@ -12177,12 +12204,12 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
       <c r="X44" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
       <c r="AA44" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
@@ -12194,11 +12221,11 @@
       <c r="AI44" s="4"/>
       <c r="AJ44" s="4"/>
       <c r="AK44" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AL44" s="4"/>
       <c r="AM44" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN44" s="4"/>
       <c r="AO44" s="4"/>
@@ -12256,7 +12283,7 @@
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q45" s="4"/>
       <c r="R45" s="4">
@@ -12268,12 +12295,12 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
       <c r="X45" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
       <c r="AA45" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
@@ -12285,11 +12312,11 @@
       <c r="AI45" s="4"/>
       <c r="AJ45" s="4"/>
       <c r="AK45" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL45" s="4"/>
       <c r="AM45" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN45" s="4"/>
       <c r="AO45" s="4"/>
@@ -12347,7 +12374,7 @@
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q46" s="4"/>
       <c r="R46" s="4">
@@ -12359,12 +12386,12 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
       <c r="X46" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
       <c r="AA46" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
@@ -12376,11 +12403,11 @@
       <c r="AI46" s="4"/>
       <c r="AJ46" s="4"/>
       <c r="AK46" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL46" s="4"/>
       <c r="AM46" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN46" s="4"/>
       <c r="AO46" s="4"/>
@@ -12438,7 +12465,7 @@
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q47" s="4"/>
       <c r="R47" s="4">
@@ -12450,12 +12477,12 @@
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
       <c r="X47" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
       <c r="AA47" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
@@ -12467,11 +12494,11 @@
       <c r="AI47" s="4"/>
       <c r="AJ47" s="4"/>
       <c r="AK47" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL47" s="4"/>
       <c r="AM47" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN47" s="4"/>
       <c r="AO47" s="4"/>
@@ -12529,7 +12556,7 @@
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q48" s="4"/>
       <c r="R48" s="4">
@@ -12541,12 +12568,12 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
       <c r="X48" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
       <c r="AA48" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
@@ -12558,11 +12585,11 @@
       <c r="AI48" s="4"/>
       <c r="AJ48" s="4"/>
       <c r="AK48" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL48" s="4"/>
       <c r="AM48" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN48" s="4"/>
       <c r="AO48" s="4"/>
@@ -12620,7 +12647,7 @@
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
       <c r="P49" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q49" s="4"/>
       <c r="R49" s="4">
@@ -12632,12 +12659,12 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
       <c r="X49" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
       <c r="AA49" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
@@ -12649,11 +12676,11 @@
       <c r="AI49" s="4"/>
       <c r="AJ49" s="4"/>
       <c r="AK49" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AL49" s="4"/>
       <c r="AM49" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN49" s="4"/>
       <c r="AO49" s="4"/>
@@ -12711,7 +12738,7 @@
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
       <c r="P50" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q50" s="4"/>
       <c r="R50" s="4">
@@ -12723,12 +12750,12 @@
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
       <c r="X50" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
       <c r="AA50" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
@@ -12740,11 +12767,11 @@
       <c r="AI50" s="4"/>
       <c r="AJ50" s="4"/>
       <c r="AK50" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL50" s="4"/>
       <c r="AM50" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN50" s="4"/>
       <c r="AO50" s="4"/>
@@ -12802,7 +12829,7 @@
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q51" s="4"/>
       <c r="R51" s="4">
@@ -12814,12 +12841,12 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
       <c r="X51" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
       <c r="AA51" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
@@ -12831,11 +12858,11 @@
       <c r="AI51" s="4"/>
       <c r="AJ51" s="4"/>
       <c r="AK51" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL51" s="4"/>
       <c r="AM51" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN51" s="4"/>
       <c r="AO51" s="4"/>
@@ -12893,7 +12920,7 @@
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q52" s="4"/>
       <c r="R52" s="4">
@@ -12905,12 +12932,12 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
       <c r="X52" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
       <c r="AA52" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
@@ -12922,11 +12949,11 @@
       <c r="AI52" s="4"/>
       <c r="AJ52" s="4"/>
       <c r="AK52" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL52" s="4"/>
       <c r="AM52" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN52" s="4"/>
       <c r="AO52" s="4"/>
@@ -12984,7 +13011,7 @@
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q53" s="4"/>
       <c r="R53" s="4">
@@ -12996,12 +13023,12 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
       <c r="X53" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y53" s="4"/>
       <c r="Z53" s="4"/>
       <c r="AA53" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
@@ -13013,11 +13040,11 @@
       <c r="AI53" s="4"/>
       <c r="AJ53" s="4"/>
       <c r="AK53" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL53" s="4"/>
       <c r="AM53" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN53" s="4"/>
       <c r="AO53" s="4"/>
@@ -13075,7 +13102,7 @@
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q54" s="4"/>
       <c r="R54" s="4">
@@ -13087,12 +13114,12 @@
       <c r="V54" s="4"/>
       <c r="W54" s="4"/>
       <c r="X54" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y54" s="4"/>
       <c r="Z54" s="4"/>
       <c r="AA54" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
@@ -13104,11 +13131,11 @@
       <c r="AI54" s="4"/>
       <c r="AJ54" s="4"/>
       <c r="AK54" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL54" s="4"/>
       <c r="AM54" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN54" s="4"/>
       <c r="AO54" s="4"/>
@@ -13166,7 +13193,7 @@
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q55" s="4"/>
       <c r="R55" s="4">
@@ -13178,12 +13205,12 @@
       <c r="V55" s="4"/>
       <c r="W55" s="4"/>
       <c r="X55" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y55" s="4"/>
       <c r="Z55" s="4"/>
       <c r="AA55" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
@@ -13195,11 +13222,11 @@
       <c r="AI55" s="4"/>
       <c r="AJ55" s="4"/>
       <c r="AK55" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AL55" s="4"/>
       <c r="AM55" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN55" s="4"/>
       <c r="AO55" s="4"/>
@@ -13257,7 +13284,7 @@
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
       <c r="P56" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q56" s="4"/>
       <c r="R56" s="4">
@@ -13269,12 +13296,12 @@
       <c r="V56" s="4"/>
       <c r="W56" s="4"/>
       <c r="X56" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y56" s="4"/>
       <c r="Z56" s="4"/>
       <c r="AA56" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
@@ -13286,11 +13313,11 @@
       <c r="AI56" s="4"/>
       <c r="AJ56" s="4"/>
       <c r="AK56" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AL56" s="4"/>
       <c r="AM56" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN56" s="4"/>
       <c r="AO56" s="4"/>
@@ -13348,7 +13375,7 @@
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q57" s="4"/>
       <c r="R57" s="4">
@@ -13360,12 +13387,12 @@
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
       <c r="X57" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y57" s="4"/>
       <c r="Z57" s="4"/>
       <c r="AA57" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
@@ -13377,11 +13404,11 @@
       <c r="AI57" s="4"/>
       <c r="AJ57" s="4"/>
       <c r="AK57" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL57" s="4"/>
       <c r="AM57" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AN57" s="4"/>
       <c r="AO57" s="4"/>
@@ -13439,7 +13466,7 @@
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q58" s="4"/>
       <c r="R58" s="4">
@@ -13451,12 +13478,12 @@
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
       <c r="X58" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y58" s="4"/>
       <c r="Z58" s="4"/>
       <c r="AA58" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
@@ -13468,11 +13495,11 @@
       <c r="AI58" s="4"/>
       <c r="AJ58" s="4"/>
       <c r="AK58" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL58" s="4"/>
       <c r="AM58" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN58" s="4"/>
       <c r="AO58" s="4"/>
@@ -13530,7 +13557,7 @@
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q59" s="4"/>
       <c r="R59" s="4">
@@ -13542,12 +13569,12 @@
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
       <c r="X59" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y59" s="4"/>
       <c r="Z59" s="4"/>
       <c r="AA59" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
@@ -13559,11 +13586,11 @@
       <c r="AI59" s="4"/>
       <c r="AJ59" s="4"/>
       <c r="AK59" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL59" s="4"/>
       <c r="AM59" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN59" s="4"/>
       <c r="AO59" s="4"/>
@@ -13621,7 +13648,7 @@
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
       <c r="P60" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q60" s="4"/>
       <c r="R60" s="4">
@@ -13633,12 +13660,12 @@
       <c r="V60" s="4"/>
       <c r="W60" s="4"/>
       <c r="X60" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y60" s="4"/>
       <c r="Z60" s="4"/>
       <c r="AA60" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
@@ -13650,11 +13677,11 @@
       <c r="AI60" s="4"/>
       <c r="AJ60" s="4"/>
       <c r="AK60" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL60" s="4"/>
       <c r="AM60" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN60" s="4"/>
       <c r="AO60" s="4"/>
@@ -13712,7 +13739,7 @@
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
       <c r="P61" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q61" s="4"/>
       <c r="R61" s="4">
@@ -13724,12 +13751,12 @@
       <c r="V61" s="4"/>
       <c r="W61" s="4"/>
       <c r="X61" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y61" s="4"/>
       <c r="Z61" s="4"/>
       <c r="AA61" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
@@ -13741,11 +13768,11 @@
       <c r="AI61" s="4"/>
       <c r="AJ61" s="4"/>
       <c r="AK61" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL61" s="4"/>
       <c r="AM61" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN61" s="4"/>
       <c r="AO61" s="4"/>
@@ -13803,7 +13830,7 @@
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
       <c r="P62" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q62" s="4"/>
       <c r="R62" s="4">
@@ -13815,12 +13842,12 @@
       <c r="V62" s="4"/>
       <c r="W62" s="4"/>
       <c r="X62" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y62" s="4"/>
       <c r="Z62" s="4"/>
       <c r="AA62" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
@@ -13832,11 +13859,11 @@
       <c r="AI62" s="4"/>
       <c r="AJ62" s="4"/>
       <c r="AK62" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL62" s="4"/>
       <c r="AM62" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN62" s="4"/>
       <c r="AO62" s="4"/>
@@ -13894,7 +13921,7 @@
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
       <c r="P63" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q63" s="4"/>
       <c r="R63" s="4">
@@ -13906,12 +13933,12 @@
       <c r="V63" s="4"/>
       <c r="W63" s="4"/>
       <c r="X63" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y63" s="4"/>
       <c r="Z63" s="4"/>
       <c r="AA63" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
@@ -13923,11 +13950,11 @@
       <c r="AI63" s="4"/>
       <c r="AJ63" s="4"/>
       <c r="AK63" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL63" s="4"/>
       <c r="AM63" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN63" s="4"/>
       <c r="AO63" s="4"/>
@@ -13985,7 +14012,7 @@
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
       <c r="P64" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q64" s="4"/>
       <c r="R64" s="4">
@@ -13997,12 +14024,12 @@
       <c r="V64" s="4"/>
       <c r="W64" s="4"/>
       <c r="X64" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y64" s="4"/>
       <c r="Z64" s="4"/>
       <c r="AA64" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
@@ -14014,11 +14041,11 @@
       <c r="AI64" s="4"/>
       <c r="AJ64" s="4"/>
       <c r="AK64" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AL64" s="4"/>
       <c r="AM64" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN64" s="4"/>
       <c r="AO64" s="4"/>
@@ -14076,7 +14103,7 @@
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
       <c r="P65" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q65" s="4"/>
       <c r="R65" s="4">
@@ -14088,12 +14115,12 @@
       <c r="V65" s="4"/>
       <c r="W65" s="4"/>
       <c r="X65" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
       <c r="AA65" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
@@ -14105,11 +14132,11 @@
       <c r="AI65" s="4"/>
       <c r="AJ65" s="4"/>
       <c r="AK65" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL65" s="4"/>
       <c r="AM65" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AN65" s="4"/>
       <c r="AO65" s="4"/>
@@ -14167,7 +14194,7 @@
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q66" s="4"/>
       <c r="R66" s="4">
@@ -14179,12 +14206,12 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
       <c r="X66" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
       <c r="AA66" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
@@ -14196,11 +14223,11 @@
       <c r="AI66" s="4"/>
       <c r="AJ66" s="4"/>
       <c r="AK66" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL66" s="4"/>
       <c r="AM66" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN66" s="4"/>
       <c r="AO66" s="4"/>
@@ -14258,7 +14285,7 @@
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q67" s="4"/>
       <c r="R67" s="4">
@@ -14270,12 +14297,12 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
       <c r="X67" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y67" s="4"/>
       <c r="Z67" s="4"/>
       <c r="AA67" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
@@ -14287,11 +14314,11 @@
       <c r="AI67" s="4"/>
       <c r="AJ67" s="4"/>
       <c r="AK67" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL67" s="4"/>
       <c r="AM67" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN67" s="4"/>
       <c r="AO67" s="4"/>
@@ -14349,7 +14376,7 @@
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="P68" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q68" s="4"/>
       <c r="R68" s="4">
@@ -14361,12 +14388,12 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y68" s="4"/>
       <c r="Z68" s="4"/>
       <c r="AA68" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
@@ -14378,11 +14405,11 @@
       <c r="AI68" s="4"/>
       <c r="AJ68" s="4"/>
       <c r="AK68" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL68" s="4"/>
       <c r="AM68" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN68" s="4"/>
       <c r="AO68" s="4"/>
@@ -14440,7 +14467,7 @@
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
       <c r="P69" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q69" s="4"/>
       <c r="R69" s="4">
@@ -14452,12 +14479,12 @@
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
       <c r="X69" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
       <c r="AA69" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
@@ -14469,11 +14496,11 @@
       <c r="AI69" s="4"/>
       <c r="AJ69" s="4"/>
       <c r="AK69" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL69" s="4"/>
       <c r="AM69" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN69" s="4"/>
       <c r="AO69" s="4"/>
@@ -14531,7 +14558,7 @@
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
       <c r="P70" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q70" s="4"/>
       <c r="R70" s="4">
@@ -14543,12 +14570,12 @@
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
       <c r="X70" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
       <c r="AA70" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
@@ -14560,11 +14587,11 @@
       <c r="AI70" s="4"/>
       <c r="AJ70" s="4"/>
       <c r="AK70" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL70" s="4"/>
       <c r="AM70" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN70" s="4"/>
       <c r="AO70" s="4"/>
@@ -14622,7 +14649,7 @@
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
       <c r="P71" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q71" s="4"/>
       <c r="R71" s="4">
@@ -14634,12 +14661,12 @@
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
       <c r="X71" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
       <c r="AA71" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
@@ -14651,11 +14678,11 @@
       <c r="AI71" s="4"/>
       <c r="AJ71" s="4"/>
       <c r="AK71" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL71" s="4"/>
       <c r="AM71" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN71" s="4"/>
       <c r="AO71" s="4"/>
@@ -14713,7 +14740,7 @@
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
       <c r="P72" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q72" s="4"/>
       <c r="R72" s="4">
@@ -14725,12 +14752,12 @@
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
       <c r="X72" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
       <c r="AA72" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB72" s="4"/>
       <c r="AC72" s="4"/>
@@ -14742,11 +14769,11 @@
       <c r="AI72" s="4"/>
       <c r="AJ72" s="4"/>
       <c r="AK72" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL72" s="4"/>
       <c r="AM72" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN72" s="4"/>
       <c r="AO72" s="4"/>
@@ -14804,7 +14831,7 @@
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
       <c r="P73" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q73" s="4"/>
       <c r="R73" s="4">
@@ -14816,12 +14843,12 @@
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
       <c r="X73" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
       <c r="AA73" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
@@ -14833,11 +14860,11 @@
       <c r="AI73" s="4"/>
       <c r="AJ73" s="4"/>
       <c r="AK73" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL73" s="4"/>
       <c r="AM73" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN73" s="4"/>
       <c r="AO73" s="4"/>
@@ -14895,7 +14922,7 @@
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
       <c r="P74" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q74" s="4"/>
       <c r="R74" s="4">
@@ -14907,12 +14934,12 @@
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
       <c r="X74" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y74" s="4"/>
       <c r="Z74" s="4"/>
       <c r="AA74" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
@@ -14924,11 +14951,11 @@
       <c r="AI74" s="4"/>
       <c r="AJ74" s="4"/>
       <c r="AK74" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL74" s="4"/>
       <c r="AM74" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN74" s="4"/>
       <c r="AO74" s="4"/>
@@ -14986,7 +15013,7 @@
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
       <c r="P75" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q75" s="4"/>
       <c r="R75" s="4">
@@ -14998,12 +15025,12 @@
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
       <c r="X75" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
       <c r="AA75" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB75" s="4"/>
       <c r="AC75" s="4"/>
@@ -15015,11 +15042,11 @@
       <c r="AI75" s="4"/>
       <c r="AJ75" s="4"/>
       <c r="AK75" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AL75" s="4"/>
       <c r="AM75" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN75" s="4"/>
       <c r="AO75" s="4"/>
@@ -15077,7 +15104,7 @@
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
       <c r="P76" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q76" s="4"/>
       <c r="R76" s="4">
@@ -15089,12 +15116,12 @@
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
       <c r="X76" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
       <c r="AA76" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB76" s="4"/>
       <c r="AC76" s="4"/>
@@ -15106,11 +15133,11 @@
       <c r="AI76" s="4"/>
       <c r="AJ76" s="4"/>
       <c r="AK76" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL76" s="4"/>
       <c r="AM76" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN76" s="4"/>
       <c r="AO76" s="4"/>
@@ -15168,7 +15195,7 @@
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
       <c r="P77" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q77" s="4"/>
       <c r="R77" s="4">
@@ -15180,12 +15207,12 @@
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
       <c r="X77" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
       <c r="AA77" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB77" s="4"/>
       <c r="AC77" s="4"/>
@@ -15197,11 +15224,11 @@
       <c r="AI77" s="4"/>
       <c r="AJ77" s="4"/>
       <c r="AK77" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL77" s="4"/>
       <c r="AM77" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN77" s="4"/>
       <c r="AO77" s="4"/>
@@ -15259,7 +15286,7 @@
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
       <c r="P78" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q78" s="4"/>
       <c r="R78" s="4">
@@ -15271,12 +15298,12 @@
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
       <c r="X78" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y78" s="4"/>
       <c r="Z78" s="4"/>
       <c r="AA78" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB78" s="4"/>
       <c r="AC78" s="4"/>
@@ -15288,11 +15315,11 @@
       <c r="AI78" s="4"/>
       <c r="AJ78" s="4"/>
       <c r="AK78" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL78" s="4"/>
       <c r="AM78" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN78" s="4"/>
       <c r="AO78" s="4"/>
@@ -15350,7 +15377,7 @@
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
       <c r="P79" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q79" s="4"/>
       <c r="R79" s="4">
@@ -15362,12 +15389,12 @@
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
       <c r="X79" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
       <c r="AA79" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB79" s="4"/>
       <c r="AC79" s="4"/>
@@ -15379,11 +15406,11 @@
       <c r="AI79" s="4"/>
       <c r="AJ79" s="4"/>
       <c r="AK79" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AL79" s="4"/>
       <c r="AM79" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN79" s="4"/>
       <c r="AO79" s="4"/>
@@ -15441,7 +15468,7 @@
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
       <c r="P80" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q80" s="4"/>
       <c r="R80" s="4">
@@ -15453,12 +15480,12 @@
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
       <c r="X80" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
       <c r="AA80" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
@@ -15470,11 +15497,11 @@
       <c r="AI80" s="4"/>
       <c r="AJ80" s="4"/>
       <c r="AK80" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL80" s="4"/>
       <c r="AM80" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN80" s="4"/>
       <c r="AO80" s="4"/>
@@ -15532,7 +15559,7 @@
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
       <c r="P81" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q81" s="4"/>
       <c r="R81" s="4">
@@ -15544,12 +15571,12 @@
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
       <c r="X81" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
       <c r="AA81" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
@@ -15561,11 +15588,11 @@
       <c r="AI81" s="4"/>
       <c r="AJ81" s="4"/>
       <c r="AK81" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL81" s="4"/>
       <c r="AM81" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN81" s="4"/>
       <c r="AO81" s="4"/>
@@ -15623,7 +15650,7 @@
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
       <c r="P82" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q82" s="4"/>
       <c r="R82" s="4">
@@ -15635,12 +15662,12 @@
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
       <c r="X82" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y82" s="4"/>
       <c r="Z82" s="4"/>
       <c r="AA82" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB82" s="4"/>
       <c r="AC82" s="4"/>
@@ -15652,11 +15679,11 @@
       <c r="AI82" s="4"/>
       <c r="AJ82" s="4"/>
       <c r="AK82" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AL82" s="4"/>
       <c r="AM82" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN82" s="4"/>
       <c r="AO82" s="4"/>
@@ -15714,7 +15741,7 @@
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
       <c r="P83" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q83" s="4"/>
       <c r="R83" s="4">
@@ -15726,12 +15753,12 @@
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
       <c r="X83" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y83" s="4"/>
       <c r="Z83" s="4"/>
       <c r="AA83" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB83" s="4"/>
       <c r="AC83" s="4"/>
@@ -15743,11 +15770,11 @@
       <c r="AI83" s="4"/>
       <c r="AJ83" s="4"/>
       <c r="AK83" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AL83" s="4"/>
       <c r="AM83" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN83" s="4"/>
       <c r="AO83" s="4"/>
@@ -15805,7 +15832,7 @@
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
       <c r="P84" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q84" s="4"/>
       <c r="R84" s="4">
@@ -15817,12 +15844,12 @@
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
       <c r="X84" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y84" s="4"/>
       <c r="Z84" s="4"/>
       <c r="AA84" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB84" s="4"/>
       <c r="AC84" s="4"/>
@@ -15834,11 +15861,11 @@
       <c r="AI84" s="4"/>
       <c r="AJ84" s="4"/>
       <c r="AK84" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL84" s="4"/>
       <c r="AM84" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN84" s="4"/>
       <c r="AO84" s="4"/>
@@ -15896,7 +15923,7 @@
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
       <c r="P85" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q85" s="4"/>
       <c r="R85" s="4">
@@ -15908,12 +15935,12 @@
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
       <c r="X85" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y85" s="4"/>
       <c r="Z85" s="4"/>
       <c r="AA85" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB85" s="4"/>
       <c r="AC85" s="4"/>
@@ -15925,11 +15952,11 @@
       <c r="AI85" s="4"/>
       <c r="AJ85" s="4"/>
       <c r="AK85" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL85" s="4"/>
       <c r="AM85" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN85" s="4"/>
       <c r="AO85" s="4"/>
@@ -15987,7 +16014,7 @@
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
       <c r="P86" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q86" s="4"/>
       <c r="R86" s="4">
@@ -15999,12 +16026,12 @@
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
       <c r="X86" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
       <c r="AA86" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB86" s="4"/>
       <c r="AC86" s="4"/>
@@ -16016,11 +16043,11 @@
       <c r="AI86" s="4"/>
       <c r="AJ86" s="4"/>
       <c r="AK86" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL86" s="4"/>
       <c r="AM86" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN86" s="4"/>
       <c r="AO86" s="4"/>
@@ -16078,7 +16105,7 @@
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
       <c r="P87" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q87" s="4"/>
       <c r="R87" s="4">
@@ -16090,12 +16117,12 @@
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
       <c r="X87" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y87" s="4"/>
       <c r="Z87" s="4"/>
       <c r="AA87" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB87" s="4"/>
       <c r="AC87" s="4"/>
@@ -16107,11 +16134,11 @@
       <c r="AI87" s="4"/>
       <c r="AJ87" s="4"/>
       <c r="AK87" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL87" s="4"/>
       <c r="AM87" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN87" s="4"/>
       <c r="AO87" s="4"/>
@@ -16169,7 +16196,7 @@
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
       <c r="P88" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q88" s="4"/>
       <c r="R88" s="4">
@@ -16181,12 +16208,12 @@
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
       <c r="X88" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y88" s="4"/>
       <c r="Z88" s="4"/>
       <c r="AA88" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB88" s="4"/>
       <c r="AC88" s="4"/>
@@ -16198,11 +16225,11 @@
       <c r="AI88" s="4"/>
       <c r="AJ88" s="4"/>
       <c r="AK88" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AL88" s="4"/>
       <c r="AM88" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN88" s="4"/>
       <c r="AO88" s="4"/>
@@ -16260,7 +16287,7 @@
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
       <c r="P89" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q89" s="4"/>
       <c r="R89" s="4">
@@ -16272,12 +16299,12 @@
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
       <c r="X89" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y89" s="4"/>
       <c r="Z89" s="4"/>
       <c r="AA89" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB89" s="4"/>
       <c r="AC89" s="4"/>
@@ -16289,11 +16316,11 @@
       <c r="AI89" s="4"/>
       <c r="AJ89" s="4"/>
       <c r="AK89" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL89" s="4"/>
       <c r="AM89" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN89" s="4"/>
       <c r="AO89" s="4"/>
@@ -16351,7 +16378,7 @@
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
       <c r="P90" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q90" s="4"/>
       <c r="R90" s="4">
@@ -16363,12 +16390,12 @@
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
       <c r="X90" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y90" s="4"/>
       <c r="Z90" s="4"/>
       <c r="AA90" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB90" s="4"/>
       <c r="AC90" s="4"/>
@@ -16380,11 +16407,11 @@
       <c r="AI90" s="4"/>
       <c r="AJ90" s="4"/>
       <c r="AK90" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL90" s="4"/>
       <c r="AM90" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN90" s="4"/>
       <c r="AO90" s="4"/>
@@ -16442,7 +16469,7 @@
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
       <c r="P91" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q91" s="4"/>
       <c r="R91" s="4">
@@ -16454,12 +16481,12 @@
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
       <c r="X91" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y91" s="4"/>
       <c r="Z91" s="4"/>
       <c r="AA91" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB91" s="4"/>
       <c r="AC91" s="4"/>
@@ -16471,11 +16498,11 @@
       <c r="AI91" s="4"/>
       <c r="AJ91" s="4"/>
       <c r="AK91" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL91" s="4"/>
       <c r="AM91" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN91" s="4"/>
       <c r="AO91" s="4"/>
@@ -16533,7 +16560,7 @@
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
       <c r="P92" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q92" s="4"/>
       <c r="R92" s="4">
@@ -16545,12 +16572,12 @@
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
       <c r="X92" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y92" s="4"/>
       <c r="Z92" s="4"/>
       <c r="AA92" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB92" s="4"/>
       <c r="AC92" s="4"/>
@@ -16562,11 +16589,11 @@
       <c r="AI92" s="4"/>
       <c r="AJ92" s="4"/>
       <c r="AK92" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL92" s="4"/>
       <c r="AM92" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN92" s="4"/>
       <c r="AO92" s="4"/>
@@ -16624,7 +16651,7 @@
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
       <c r="P93" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q93" s="4"/>
       <c r="R93" s="4">
@@ -16636,12 +16663,12 @@
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
       <c r="X93" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y93" s="4"/>
       <c r="Z93" s="4"/>
       <c r="AA93" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB93" s="4"/>
       <c r="AC93" s="4"/>
@@ -16653,11 +16680,11 @@
       <c r="AI93" s="4"/>
       <c r="AJ93" s="4"/>
       <c r="AK93" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AL93" s="4"/>
       <c r="AM93" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN93" s="4"/>
       <c r="AO93" s="4"/>
@@ -16715,7 +16742,7 @@
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
       <c r="P94" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q94" s="4"/>
       <c r="R94" s="4">
@@ -16727,12 +16754,12 @@
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
       <c r="X94" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y94" s="4"/>
       <c r="Z94" s="4"/>
       <c r="AA94" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB94" s="4"/>
       <c r="AC94" s="4"/>
@@ -16744,11 +16771,11 @@
       <c r="AI94" s="4"/>
       <c r="AJ94" s="4"/>
       <c r="AK94" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL94" s="4"/>
       <c r="AM94" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN94" s="4"/>
       <c r="AO94" s="4"/>
@@ -16806,7 +16833,7 @@
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
       <c r="P95" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q95" s="4"/>
       <c r="R95" s="4">
@@ -16818,12 +16845,12 @@
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
       <c r="X95" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y95" s="4"/>
       <c r="Z95" s="4"/>
       <c r="AA95" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB95" s="4"/>
       <c r="AC95" s="4"/>
@@ -16835,11 +16862,11 @@
       <c r="AI95" s="4"/>
       <c r="AJ95" s="4"/>
       <c r="AK95" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AL95" s="4"/>
       <c r="AM95" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN95" s="4"/>
       <c r="AO95" s="4"/>
@@ -16897,7 +16924,7 @@
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
       <c r="P96" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q96" s="4"/>
       <c r="R96" s="4">
@@ -16909,12 +16936,12 @@
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
       <c r="X96" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y96" s="4"/>
       <c r="Z96" s="4"/>
       <c r="AA96" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB96" s="4"/>
       <c r="AC96" s="4"/>
@@ -16926,11 +16953,11 @@
       <c r="AI96" s="4"/>
       <c r="AJ96" s="4"/>
       <c r="AK96" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL96" s="4"/>
       <c r="AM96" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN96" s="4"/>
       <c r="AO96" s="4"/>
@@ -16988,7 +17015,7 @@
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
       <c r="P97" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q97" s="4"/>
       <c r="R97" s="4">
@@ -17000,12 +17027,12 @@
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
       <c r="X97" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y97" s="4"/>
       <c r="Z97" s="4"/>
       <c r="AA97" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB97" s="4"/>
       <c r="AC97" s="4"/>
@@ -17017,11 +17044,11 @@
       <c r="AI97" s="4"/>
       <c r="AJ97" s="4"/>
       <c r="AK97" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL97" s="4"/>
       <c r="AM97" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN97" s="4"/>
       <c r="AO97" s="4"/>
@@ -17079,7 +17106,7 @@
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
       <c r="P98" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q98" s="4"/>
       <c r="R98" s="4">
@@ -17091,12 +17118,12 @@
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
       <c r="X98" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y98" s="4"/>
       <c r="Z98" s="4"/>
       <c r="AA98" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB98" s="4"/>
       <c r="AC98" s="4"/>
@@ -17108,11 +17135,11 @@
       <c r="AI98" s="4"/>
       <c r="AJ98" s="4"/>
       <c r="AK98" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL98" s="4"/>
       <c r="AM98" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN98" s="4"/>
       <c r="AO98" s="4"/>
@@ -17170,7 +17197,7 @@
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
       <c r="P99" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q99" s="4"/>
       <c r="R99" s="4">
@@ -17182,12 +17209,12 @@
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
       <c r="X99" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y99" s="4"/>
       <c r="Z99" s="4"/>
       <c r="AA99" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB99" s="4"/>
       <c r="AC99" s="4"/>
@@ -17199,11 +17226,11 @@
       <c r="AI99" s="4"/>
       <c r="AJ99" s="4"/>
       <c r="AK99" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AL99" s="4"/>
       <c r="AM99" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN99" s="4"/>
       <c r="AO99" s="4"/>
@@ -17261,7 +17288,7 @@
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
       <c r="P100" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q100" s="4"/>
       <c r="R100" s="4">
@@ -17273,12 +17300,12 @@
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
       <c r="X100" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y100" s="4"/>
       <c r="Z100" s="4"/>
       <c r="AA100" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB100" s="4"/>
       <c r="AC100" s="4"/>
@@ -17290,11 +17317,11 @@
       <c r="AI100" s="4"/>
       <c r="AJ100" s="4"/>
       <c r="AK100" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AL100" s="4"/>
       <c r="AM100" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN100" s="4"/>
       <c r="AO100" s="4"/>
@@ -17352,7 +17379,7 @@
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
       <c r="P101" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q101" s="4"/>
       <c r="R101" s="4">
@@ -17364,12 +17391,12 @@
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
       <c r="X101" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y101" s="4"/>
       <c r="Z101" s="4"/>
       <c r="AA101" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB101" s="4"/>
       <c r="AC101" s="4"/>
@@ -17381,11 +17408,11 @@
       <c r="AI101" s="4"/>
       <c r="AJ101" s="4"/>
       <c r="AK101" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AL101" s="4"/>
       <c r="AM101" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN101" s="4"/>
       <c r="AO101" s="4"/>
@@ -17443,7 +17470,7 @@
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
       <c r="P102" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q102" s="4"/>
       <c r="R102" s="4">
@@ -17455,12 +17482,12 @@
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
       <c r="X102" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y102" s="4"/>
       <c r="Z102" s="4"/>
       <c r="AA102" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB102" s="4"/>
       <c r="AC102" s="4"/>
@@ -17472,11 +17499,11 @@
       <c r="AI102" s="4"/>
       <c r="AJ102" s="4"/>
       <c r="AK102" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL102" s="4"/>
       <c r="AM102" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN102" s="4"/>
       <c r="AO102" s="4"/>
@@ -17534,7 +17561,7 @@
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
       <c r="P103" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q103" s="4"/>
       <c r="R103" s="4">
@@ -17546,12 +17573,12 @@
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
       <c r="X103" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y103" s="4"/>
       <c r="Z103" s="4"/>
       <c r="AA103" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AB103" s="4"/>
       <c r="AC103" s="4"/>
@@ -17563,11 +17590,11 @@
       <c r="AI103" s="4"/>
       <c r="AJ103" s="4"/>
       <c r="AK103" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AL103" s="4"/>
       <c r="AM103" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN103" s="4"/>
       <c r="AO103" s="4"/>
@@ -17625,7 +17652,7 @@
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
       <c r="P104" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q104" s="4"/>
       <c r="R104" s="4">
@@ -17639,12 +17666,12 @@
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
       <c r="X104" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y104" s="4"/>
       <c r="Z104" s="4"/>
       <c r="AA104" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB104" s="4"/>
       <c r="AC104" s="4"/>
@@ -17658,7 +17685,7 @@
       <c r="AK104" s="4"/>
       <c r="AL104" s="4"/>
       <c r="AM104" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AN104" s="4"/>
       <c r="AO104" s="4"/>
@@ -17716,7 +17743,7 @@
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
       <c r="P105" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q105" s="4"/>
       <c r="R105" s="4">
@@ -17730,12 +17757,12 @@
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
       <c r="X105" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y105" s="4"/>
       <c r="Z105" s="4"/>
       <c r="AA105" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB105" s="4"/>
       <c r="AC105" s="4"/>
@@ -17749,7 +17776,7 @@
       <c r="AK105" s="4"/>
       <c r="AL105" s="4"/>
       <c r="AM105" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AN105" s="4"/>
       <c r="AO105" s="4"/>
@@ -17807,7 +17834,7 @@
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
       <c r="P106" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q106" s="4"/>
       <c r="R106" s="4">
@@ -17821,12 +17848,12 @@
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
       <c r="X106" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y106" s="4"/>
       <c r="Z106" s="4"/>
       <c r="AA106" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB106" s="4"/>
       <c r="AC106" s="4"/>
@@ -17840,7 +17867,7 @@
       <c r="AK106" s="4"/>
       <c r="AL106" s="4"/>
       <c r="AM106" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AN106" s="4"/>
       <c r="AO106" s="4"/>
@@ -17898,7 +17925,7 @@
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
       <c r="P107" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q107" s="4"/>
       <c r="R107" s="4">
@@ -17912,12 +17939,12 @@
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
       <c r="X107" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y107" s="4"/>
       <c r="Z107" s="4"/>
       <c r="AA107" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB107" s="4"/>
       <c r="AC107" s="4"/>
@@ -17931,7 +17958,7 @@
       <c r="AK107" s="4"/>
       <c r="AL107" s="4"/>
       <c r="AM107" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN107" s="4"/>
       <c r="AO107" s="4"/>
@@ -17989,7 +18016,7 @@
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
       <c r="P108" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q108" s="4"/>
       <c r="R108" s="4">
@@ -18003,12 +18030,12 @@
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
       <c r="X108" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y108" s="4"/>
       <c r="Z108" s="4"/>
       <c r="AA108" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB108" s="4"/>
       <c r="AC108" s="4"/>
@@ -18022,7 +18049,7 @@
       <c r="AK108" s="4"/>
       <c r="AL108" s="4"/>
       <c r="AM108" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AN108" s="4"/>
       <c r="AO108" s="4"/>
@@ -18080,7 +18107,7 @@
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
       <c r="P109" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q109" s="4"/>
       <c r="R109" s="4">
@@ -18094,12 +18121,12 @@
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
       <c r="X109" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y109" s="4"/>
       <c r="Z109" s="4"/>
       <c r="AA109" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB109" s="4"/>
       <c r="AC109" s="4"/>
@@ -18113,7 +18140,7 @@
       <c r="AK109" s="4"/>
       <c r="AL109" s="4"/>
       <c r="AM109" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AN109" s="4"/>
       <c r="AO109" s="4"/>
@@ -18171,7 +18198,7 @@
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
       <c r="P110" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q110" s="4"/>
       <c r="R110" s="4">
@@ -18185,12 +18212,12 @@
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
       <c r="X110" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y110" s="4"/>
       <c r="Z110" s="4"/>
       <c r="AA110" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB110" s="4"/>
       <c r="AC110" s="4"/>
@@ -18204,7 +18231,7 @@
       <c r="AK110" s="4"/>
       <c r="AL110" s="4"/>
       <c r="AM110" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN110" s="4"/>
       <c r="AO110" s="4"/>
@@ -18262,7 +18289,7 @@
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
       <c r="P111" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q111" s="4"/>
       <c r="R111" s="4">
@@ -18276,12 +18303,12 @@
       <c r="V111" s="4"/>
       <c r="W111" s="4"/>
       <c r="X111" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y111" s="4"/>
       <c r="Z111" s="4"/>
       <c r="AA111" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB111" s="4"/>
       <c r="AC111" s="4"/>
@@ -18295,7 +18322,7 @@
       <c r="AK111" s="4"/>
       <c r="AL111" s="4"/>
       <c r="AM111" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN111" s="4"/>
       <c r="AO111" s="4"/>
@@ -18353,7 +18380,7 @@
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
       <c r="P112" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q112" s="4"/>
       <c r="R112" s="4">
@@ -18367,12 +18394,12 @@
       <c r="V112" s="4"/>
       <c r="W112" s="4"/>
       <c r="X112" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y112" s="4"/>
       <c r="Z112" s="4"/>
       <c r="AA112" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB112" s="4"/>
       <c r="AC112" s="4"/>
@@ -18386,7 +18413,7 @@
       <c r="AK112" s="4"/>
       <c r="AL112" s="4"/>
       <c r="AM112" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN112" s="4"/>
       <c r="AO112" s="4"/>
@@ -18444,7 +18471,7 @@
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
       <c r="P113" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q113" s="4"/>
       <c r="R113" s="4">
@@ -18458,12 +18485,12 @@
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
       <c r="X113" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y113" s="4"/>
       <c r="Z113" s="4"/>
       <c r="AA113" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB113" s="4"/>
       <c r="AC113" s="4"/>
@@ -18477,7 +18504,7 @@
       <c r="AK113" s="4"/>
       <c r="AL113" s="4"/>
       <c r="AM113" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AN113" s="4"/>
       <c r="AO113" s="4"/>
@@ -18535,7 +18562,7 @@
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
       <c r="P114" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q114" s="4"/>
       <c r="R114" s="4">
@@ -18549,12 +18576,12 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
       <c r="X114" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y114" s="4"/>
       <c r="Z114" s="4"/>
       <c r="AA114" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB114" s="4"/>
       <c r="AC114" s="4"/>
@@ -18568,7 +18595,7 @@
       <c r="AK114" s="4"/>
       <c r="AL114" s="4"/>
       <c r="AM114" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AN114" s="4"/>
       <c r="AO114" s="4"/>
@@ -18626,7 +18653,7 @@
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
       <c r="P115" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q115" s="4"/>
       <c r="R115" s="4">
@@ -18640,12 +18667,12 @@
       <c r="V115" s="4"/>
       <c r="W115" s="4"/>
       <c r="X115" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y115" s="4"/>
       <c r="Z115" s="4"/>
       <c r="AA115" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB115" s="4"/>
       <c r="AC115" s="4"/>
@@ -18659,7 +18686,7 @@
       <c r="AK115" s="4"/>
       <c r="AL115" s="4"/>
       <c r="AM115" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN115" s="4"/>
       <c r="AO115" s="4"/>
@@ -18717,7 +18744,7 @@
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
       <c r="P116" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q116" s="4"/>
       <c r="R116" s="4">
@@ -18731,12 +18758,12 @@
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
       <c r="X116" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y116" s="4"/>
       <c r="Z116" s="4"/>
       <c r="AA116" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB116" s="4"/>
       <c r="AC116" s="4"/>
@@ -18750,7 +18777,7 @@
       <c r="AK116" s="4"/>
       <c r="AL116" s="4"/>
       <c r="AM116" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN116" s="4"/>
       <c r="AO116" s="4"/>
@@ -18808,7 +18835,7 @@
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
       <c r="P117" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q117" s="4"/>
       <c r="R117" s="4">
@@ -18822,12 +18849,12 @@
       <c r="V117" s="4"/>
       <c r="W117" s="4"/>
       <c r="X117" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y117" s="4"/>
       <c r="Z117" s="4"/>
       <c r="AA117" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB117" s="4"/>
       <c r="AC117" s="4"/>
@@ -18841,7 +18868,7 @@
       <c r="AK117" s="4"/>
       <c r="AL117" s="4"/>
       <c r="AM117" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN117" s="4"/>
       <c r="AO117" s="4"/>
@@ -18899,7 +18926,7 @@
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
       <c r="P118" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q118" s="4"/>
       <c r="R118" s="4">
@@ -18911,12 +18938,12 @@
       <c r="V118" s="4"/>
       <c r="W118" s="4"/>
       <c r="X118" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y118" s="4"/>
       <c r="Z118" s="4"/>
       <c r="AA118" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB118" s="4"/>
       <c r="AC118" s="4"/>
@@ -18930,7 +18957,7 @@
       <c r="AK118" s="4"/>
       <c r="AL118" s="4"/>
       <c r="AM118" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN118" s="4"/>
       <c r="AO118" s="4"/>
@@ -18988,7 +19015,7 @@
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
       <c r="P119" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q119" s="4"/>
       <c r="R119" s="4">
@@ -19000,12 +19027,12 @@
       <c r="V119" s="4"/>
       <c r="W119" s="4"/>
       <c r="X119" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y119" s="4"/>
       <c r="Z119" s="4"/>
       <c r="AA119" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB119" s="4"/>
       <c r="AC119" s="4"/>
@@ -19019,7 +19046,7 @@
       <c r="AK119" s="4"/>
       <c r="AL119" s="4"/>
       <c r="AM119" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN119" s="4"/>
       <c r="AO119" s="4"/>
@@ -19077,7 +19104,7 @@
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
       <c r="P120" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q120" s="4"/>
       <c r="R120" s="4">
@@ -19089,12 +19116,12 @@
       <c r="V120" s="4"/>
       <c r="W120" s="4"/>
       <c r="X120" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y120" s="4"/>
       <c r="Z120" s="4"/>
       <c r="AA120" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB120" s="4"/>
       <c r="AC120" s="4"/>
@@ -19108,7 +19135,7 @@
       <c r="AK120" s="4"/>
       <c r="AL120" s="4"/>
       <c r="AM120" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AN120" s="4"/>
       <c r="AO120" s="4"/>
@@ -19166,7 +19193,7 @@
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
       <c r="P121" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q121" s="4"/>
       <c r="R121" s="4">
@@ -19178,12 +19205,12 @@
       <c r="V121" s="4"/>
       <c r="W121" s="4"/>
       <c r="X121" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y121" s="4"/>
       <c r="Z121" s="4"/>
       <c r="AA121" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB121" s="4"/>
       <c r="AC121" s="4"/>
@@ -19197,7 +19224,7 @@
       <c r="AK121" s="4"/>
       <c r="AL121" s="4"/>
       <c r="AM121" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN121" s="4"/>
       <c r="AO121" s="4"/>
@@ -19255,7 +19282,7 @@
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
       <c r="P122" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q122" s="4"/>
       <c r="R122" s="4">
@@ -19267,12 +19294,12 @@
       <c r="V122" s="4"/>
       <c r="W122" s="4"/>
       <c r="X122" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y122" s="4"/>
       <c r="Z122" s="4"/>
       <c r="AA122" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB122" s="4"/>
       <c r="AC122" s="4"/>
@@ -19286,7 +19313,7 @@
       <c r="AK122" s="4"/>
       <c r="AL122" s="4"/>
       <c r="AM122" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN122" s="4"/>
       <c r="AO122" s="4"/>
@@ -19344,7 +19371,7 @@
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
       <c r="P123" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q123" s="4"/>
       <c r="R123" s="4">
@@ -19356,12 +19383,12 @@
       <c r="V123" s="4"/>
       <c r="W123" s="4"/>
       <c r="X123" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y123" s="4"/>
       <c r="Z123" s="4"/>
       <c r="AA123" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB123" s="4"/>
       <c r="AC123" s="4"/>
@@ -19375,7 +19402,7 @@
       <c r="AK123" s="4"/>
       <c r="AL123" s="4"/>
       <c r="AM123" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN123" s="4"/>
       <c r="AO123" s="4"/>
@@ -19433,7 +19460,7 @@
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
       <c r="P124" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q124" s="4"/>
       <c r="R124" s="4">
@@ -19445,12 +19472,12 @@
       <c r="V124" s="4"/>
       <c r="W124" s="4"/>
       <c r="X124" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y124" s="4"/>
       <c r="Z124" s="4"/>
       <c r="AA124" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB124" s="4"/>
       <c r="AC124" s="4"/>
@@ -19464,7 +19491,7 @@
       <c r="AK124" s="4"/>
       <c r="AL124" s="4"/>
       <c r="AM124" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN124" s="4"/>
       <c r="AO124" s="4"/>
@@ -19522,7 +19549,7 @@
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
       <c r="P125" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q125" s="4"/>
       <c r="R125" s="4">
@@ -19534,12 +19561,12 @@
       <c r="V125" s="4"/>
       <c r="W125" s="4"/>
       <c r="X125" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y125" s="4"/>
       <c r="Z125" s="4"/>
       <c r="AA125" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB125" s="4"/>
       <c r="AC125" s="4"/>
@@ -19553,7 +19580,7 @@
       <c r="AK125" s="4"/>
       <c r="AL125" s="4"/>
       <c r="AM125" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN125" s="4"/>
       <c r="AO125" s="4"/>
@@ -19611,7 +19638,7 @@
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
       <c r="P126" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q126" s="4"/>
       <c r="R126" s="4">
@@ -19623,12 +19650,12 @@
       <c r="V126" s="4"/>
       <c r="W126" s="4"/>
       <c r="X126" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y126" s="4"/>
       <c r="Z126" s="4"/>
       <c r="AA126" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB126" s="4"/>
       <c r="AC126" s="4"/>
@@ -19642,7 +19669,7 @@
       <c r="AK126" s="4"/>
       <c r="AL126" s="4"/>
       <c r="AM126" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN126" s="4"/>
       <c r="AO126" s="4"/>
@@ -19700,7 +19727,7 @@
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
       <c r="P127" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q127" s="4"/>
       <c r="R127" s="4">
@@ -19712,12 +19739,12 @@
       <c r="V127" s="4"/>
       <c r="W127" s="4"/>
       <c r="X127" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y127" s="4"/>
       <c r="Z127" s="4"/>
       <c r="AA127" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB127" s="4"/>
       <c r="AC127" s="4"/>
@@ -19731,7 +19758,7 @@
       <c r="AK127" s="4"/>
       <c r="AL127" s="4"/>
       <c r="AM127" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN127" s="4"/>
       <c r="AO127" s="4"/>
@@ -19789,7 +19816,7 @@
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
       <c r="P128" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q128" s="4"/>
       <c r="R128" s="4">
@@ -19801,12 +19828,12 @@
       <c r="V128" s="4"/>
       <c r="W128" s="4"/>
       <c r="X128" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y128" s="4"/>
       <c r="Z128" s="4"/>
       <c r="AA128" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB128" s="4"/>
       <c r="AC128" s="4"/>
@@ -19820,7 +19847,7 @@
       <c r="AK128" s="4"/>
       <c r="AL128" s="4"/>
       <c r="AM128" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN128" s="4"/>
       <c r="AO128" s="4"/>
@@ -19878,7 +19905,7 @@
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
       <c r="P129" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q129" s="4"/>
       <c r="R129" s="4">
@@ -19890,12 +19917,12 @@
       <c r="V129" s="4"/>
       <c r="W129" s="4"/>
       <c r="X129" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y129" s="4"/>
       <c r="Z129" s="4"/>
       <c r="AA129" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB129" s="4"/>
       <c r="AC129" s="4"/>
@@ -19909,7 +19936,7 @@
       <c r="AK129" s="4"/>
       <c r="AL129" s="4"/>
       <c r="AM129" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN129" s="4"/>
       <c r="AO129" s="4"/>
@@ -19967,7 +19994,7 @@
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
       <c r="P130" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q130" s="4"/>
       <c r="R130" s="4">
@@ -19979,12 +20006,12 @@
       <c r="V130" s="4"/>
       <c r="W130" s="4"/>
       <c r="X130" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y130" s="4"/>
       <c r="Z130" s="4"/>
       <c r="AA130" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB130" s="4"/>
       <c r="AC130" s="4"/>
@@ -19998,7 +20025,7 @@
       <c r="AK130" s="4"/>
       <c r="AL130" s="4"/>
       <c r="AM130" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN130" s="4"/>
       <c r="AO130" s="4"/>
@@ -20056,7 +20083,7 @@
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
       <c r="P131" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q131" s="4"/>
       <c r="R131" s="4">
@@ -20068,12 +20095,12 @@
       <c r="V131" s="4"/>
       <c r="W131" s="4"/>
       <c r="X131" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y131" s="4"/>
       <c r="Z131" s="4"/>
       <c r="AA131" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB131" s="4"/>
       <c r="AC131" s="4"/>
@@ -20087,7 +20114,7 @@
       <c r="AK131" s="4"/>
       <c r="AL131" s="4"/>
       <c r="AM131" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN131" s="4"/>
       <c r="AO131" s="4"/>
@@ -20145,7 +20172,7 @@
       <c r="N132" s="4"/>
       <c r="O132" s="4"/>
       <c r="P132" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q132" s="4"/>
       <c r="R132" s="4">
@@ -20157,12 +20184,12 @@
       <c r="V132" s="4"/>
       <c r="W132" s="4"/>
       <c r="X132" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y132" s="4"/>
       <c r="Z132" s="4"/>
       <c r="AA132" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB132" s="4"/>
       <c r="AC132" s="4"/>
@@ -20176,7 +20203,7 @@
       <c r="AK132" s="4"/>
       <c r="AL132" s="4"/>
       <c r="AM132" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN132" s="4"/>
       <c r="AO132" s="4"/>
@@ -20234,7 +20261,7 @@
       <c r="N133" s="4"/>
       <c r="O133" s="4"/>
       <c r="P133" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q133" s="4"/>
       <c r="R133" s="4">
@@ -20248,12 +20275,12 @@
       <c r="V133" s="4"/>
       <c r="W133" s="4"/>
       <c r="X133" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y133" s="4"/>
       <c r="Z133" s="4"/>
       <c r="AA133" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB133" s="4"/>
       <c r="AC133" s="4"/>
@@ -20267,7 +20294,7 @@
       <c r="AK133" s="4"/>
       <c r="AL133" s="4"/>
       <c r="AM133" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN133" s="4"/>
       <c r="AO133" s="4"/>
@@ -20325,7 +20352,7 @@
       <c r="N134" s="4"/>
       <c r="O134" s="4"/>
       <c r="P134" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q134" s="4"/>
       <c r="R134" s="4">
@@ -20339,12 +20366,12 @@
       <c r="V134" s="4"/>
       <c r="W134" s="4"/>
       <c r="X134" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y134" s="4"/>
       <c r="Z134" s="4"/>
       <c r="AA134" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB134" s="4"/>
       <c r="AC134" s="4"/>
@@ -20358,7 +20385,7 @@
       <c r="AK134" s="4"/>
       <c r="AL134" s="4"/>
       <c r="AM134" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN134" s="4"/>
       <c r="AO134" s="4"/>
@@ -20416,7 +20443,7 @@
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
       <c r="P135" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q135" s="4"/>
       <c r="R135" s="4">
@@ -20428,12 +20455,12 @@
       <c r="V135" s="4"/>
       <c r="W135" s="4"/>
       <c r="X135" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y135" s="4"/>
       <c r="Z135" s="4"/>
       <c r="AA135" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB135" s="4"/>
       <c r="AC135" s="4"/>
@@ -20447,7 +20474,7 @@
       <c r="AK135" s="4"/>
       <c r="AL135" s="4"/>
       <c r="AM135" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AN135" s="4"/>
       <c r="AO135" s="4"/>
@@ -20505,7 +20532,7 @@
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
       <c r="P136" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q136" s="4"/>
       <c r="R136" s="4">
@@ -20517,12 +20544,12 @@
       <c r="V136" s="4"/>
       <c r="W136" s="4"/>
       <c r="X136" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y136" s="4"/>
       <c r="Z136" s="4"/>
       <c r="AA136" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB136" s="4"/>
       <c r="AC136" s="4"/>
@@ -20536,7 +20563,7 @@
       <c r="AK136" s="4"/>
       <c r="AL136" s="4"/>
       <c r="AM136" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN136" s="4"/>
       <c r="AO136" s="4"/>
@@ -20594,7 +20621,7 @@
       <c r="N137" s="4"/>
       <c r="O137" s="4"/>
       <c r="P137" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q137" s="4"/>
       <c r="R137" s="4">
@@ -20606,12 +20633,12 @@
       <c r="V137" s="4"/>
       <c r="W137" s="4"/>
       <c r="X137" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y137" s="4"/>
       <c r="Z137" s="4"/>
       <c r="AA137" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB137" s="4"/>
       <c r="AC137" s="4"/>
@@ -20625,7 +20652,7 @@
       <c r="AK137" s="4"/>
       <c r="AL137" s="4"/>
       <c r="AM137" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AN137" s="4"/>
       <c r="AO137" s="4"/>
@@ -20683,7 +20710,7 @@
       <c r="N138" s="4"/>
       <c r="O138" s="4"/>
       <c r="P138" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q138" s="4"/>
       <c r="R138" s="4">
@@ -20695,12 +20722,12 @@
       <c r="V138" s="4"/>
       <c r="W138" s="4"/>
       <c r="X138" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y138" s="4"/>
       <c r="Z138" s="4"/>
       <c r="AA138" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB138" s="4"/>
       <c r="AC138" s="4"/>
@@ -20714,7 +20741,7 @@
       <c r="AK138" s="4"/>
       <c r="AL138" s="4"/>
       <c r="AM138" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN138" s="4"/>
       <c r="AO138" s="4"/>
@@ -20772,7 +20799,7 @@
       <c r="N139" s="4"/>
       <c r="O139" s="4"/>
       <c r="P139" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q139" s="4"/>
       <c r="R139" s="4">
@@ -20784,12 +20811,12 @@
       <c r="V139" s="4"/>
       <c r="W139" s="4"/>
       <c r="X139" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y139" s="4"/>
       <c r="Z139" s="4"/>
       <c r="AA139" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB139" s="4"/>
       <c r="AC139" s="4"/>
@@ -20803,7 +20830,7 @@
       <c r="AK139" s="4"/>
       <c r="AL139" s="4"/>
       <c r="AM139" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN139" s="4"/>
       <c r="AO139" s="4"/>
@@ -20861,7 +20888,7 @@
       <c r="N140" s="4"/>
       <c r="O140" s="4"/>
       <c r="P140" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q140" s="4"/>
       <c r="R140" s="4">
@@ -20873,12 +20900,12 @@
       <c r="V140" s="4"/>
       <c r="W140" s="4"/>
       <c r="X140" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y140" s="4"/>
       <c r="Z140" s="4"/>
       <c r="AA140" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AB140" s="4"/>
       <c r="AC140" s="4"/>
@@ -20892,7 +20919,7 @@
       <c r="AK140" s="4"/>
       <c r="AL140" s="4"/>
       <c r="AM140" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN140" s="4"/>
       <c r="AO140" s="4"/>
@@ -20950,7 +20977,7 @@
       <c r="N141" s="4"/>
       <c r="O141" s="4"/>
       <c r="P141" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q141" s="4"/>
       <c r="R141" s="4">
@@ -20962,12 +20989,12 @@
       <c r="V141" s="4"/>
       <c r="W141" s="4"/>
       <c r="X141" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y141" s="4"/>
       <c r="Z141" s="4"/>
       <c r="AA141" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AB141" s="4"/>
       <c r="AC141" s="4"/>
@@ -20981,7 +21008,7 @@
       <c r="AK141" s="4"/>
       <c r="AL141" s="4"/>
       <c r="AM141" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AN141" s="4"/>
       <c r="AO141" s="4"/>
@@ -21039,7 +21066,7 @@
       <c r="N142" s="4"/>
       <c r="O142" s="4"/>
       <c r="P142" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q142" s="4"/>
       <c r="R142" s="4">
@@ -21051,12 +21078,12 @@
       <c r="V142" s="4"/>
       <c r="W142" s="4"/>
       <c r="X142" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y142" s="4"/>
       <c r="Z142" s="4"/>
       <c r="AA142" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AB142" s="4"/>
       <c r="AC142" s="4"/>
@@ -21070,7 +21097,7 @@
       <c r="AK142" s="4"/>
       <c r="AL142" s="4"/>
       <c r="AM142" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AN142" s="4"/>
       <c r="AO142" s="4"/>
@@ -21128,7 +21155,7 @@
       <c r="N143" s="4"/>
       <c r="O143" s="4"/>
       <c r="P143" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q143" s="4"/>
       <c r="R143" s="4">
@@ -21140,12 +21167,12 @@
       <c r="V143" s="4"/>
       <c r="W143" s="4"/>
       <c r="X143" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y143" s="4"/>
       <c r="Z143" s="4"/>
       <c r="AA143" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AB143" s="4"/>
       <c r="AC143" s="4"/>
@@ -21159,7 +21186,7 @@
       <c r="AK143" s="4"/>
       <c r="AL143" s="4"/>
       <c r="AM143" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AN143" s="4"/>
       <c r="AO143" s="4"/>
@@ -21217,7 +21244,7 @@
       <c r="N144" s="4"/>
       <c r="O144" s="4"/>
       <c r="P144" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q144" s="4"/>
       <c r="R144" s="4">
@@ -21229,12 +21256,12 @@
       <c r="V144" s="4"/>
       <c r="W144" s="4"/>
       <c r="X144" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y144" s="4"/>
       <c r="Z144" s="4"/>
       <c r="AA144" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AB144" s="4"/>
       <c r="AC144" s="4"/>
@@ -21248,7 +21275,7 @@
       <c r="AK144" s="4"/>
       <c r="AL144" s="4"/>
       <c r="AM144" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN144" s="4"/>
       <c r="AO144" s="4"/>
@@ -21306,7 +21333,7 @@
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
       <c r="P145" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q145" s="4"/>
       <c r="R145" s="4">
@@ -21318,12 +21345,12 @@
       <c r="V145" s="4"/>
       <c r="W145" s="4"/>
       <c r="X145" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y145" s="4"/>
       <c r="Z145" s="4"/>
       <c r="AA145" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AB145" s="4"/>
       <c r="AC145" s="4"/>
@@ -21337,7 +21364,7 @@
       <c r="AK145" s="4"/>
       <c r="AL145" s="4"/>
       <c r="AM145" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN145" s="4"/>
       <c r="AO145" s="4"/>
@@ -21395,7 +21422,7 @@
       <c r="N146" s="4"/>
       <c r="O146" s="4"/>
       <c r="P146" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q146" s="4"/>
       <c r="R146" s="4">
@@ -21407,12 +21434,12 @@
       <c r="V146" s="4"/>
       <c r="W146" s="4"/>
       <c r="X146" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y146" s="4"/>
       <c r="Z146" s="4"/>
       <c r="AA146" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AB146" s="4"/>
       <c r="AC146" s="4"/>
@@ -21426,7 +21453,7 @@
       <c r="AK146" s="4"/>
       <c r="AL146" s="4"/>
       <c r="AM146" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AN146" s="4"/>
       <c r="AO146" s="4"/>
@@ -21484,7 +21511,7 @@
       <c r="N147" s="4"/>
       <c r="O147" s="4"/>
       <c r="P147" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q147" s="4"/>
       <c r="R147" s="4">
@@ -21496,12 +21523,12 @@
       <c r="V147" s="4"/>
       <c r="W147" s="4"/>
       <c r="X147" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y147" s="4"/>
       <c r="Z147" s="4"/>
       <c r="AA147" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AB147" s="4"/>
       <c r="AC147" s="4"/>
@@ -21515,7 +21542,7 @@
       <c r="AK147" s="4"/>
       <c r="AL147" s="4"/>
       <c r="AM147" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN147" s="4"/>
       <c r="AO147" s="4"/>
@@ -21573,7 +21600,7 @@
       <c r="N148" s="4"/>
       <c r="O148" s="4"/>
       <c r="P148" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q148" s="4"/>
       <c r="R148" s="4">
@@ -21585,12 +21612,12 @@
       <c r="V148" s="4"/>
       <c r="W148" s="4"/>
       <c r="X148" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y148" s="4"/>
       <c r="Z148" s="4"/>
       <c r="AA148" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AB148" s="4"/>
       <c r="AC148" s="4"/>
@@ -21604,7 +21631,7 @@
       <c r="AK148" s="4"/>
       <c r="AL148" s="4"/>
       <c r="AM148" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN148" s="4"/>
       <c r="AO148" s="4"/>
@@ -21662,7 +21689,7 @@
       <c r="N149" s="4"/>
       <c r="O149" s="4"/>
       <c r="P149" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q149" s="4"/>
       <c r="R149" s="4">
@@ -21674,12 +21701,12 @@
       <c r="V149" s="4"/>
       <c r="W149" s="4"/>
       <c r="X149" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y149" s="4"/>
       <c r="Z149" s="4"/>
       <c r="AA149" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AB149" s="4"/>
       <c r="AC149" s="4"/>
@@ -21693,7 +21720,7 @@
       <c r="AK149" s="4"/>
       <c r="AL149" s="4"/>
       <c r="AM149" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AN149" s="4"/>
       <c r="AO149" s="4"/>
@@ -21751,7 +21778,7 @@
       <c r="N150" s="4"/>
       <c r="O150" s="4"/>
       <c r="P150" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q150" s="4"/>
       <c r="R150" s="4">
@@ -21763,12 +21790,12 @@
       <c r="V150" s="4"/>
       <c r="W150" s="4"/>
       <c r="X150" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y150" s="4"/>
       <c r="Z150" s="4"/>
       <c r="AA150" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AB150" s="4"/>
       <c r="AC150" s="4"/>
@@ -21782,7 +21809,7 @@
       <c r="AK150" s="4"/>
       <c r="AL150" s="4"/>
       <c r="AM150" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN150" s="4"/>
       <c r="AO150" s="4"/>
@@ -21840,7 +21867,7 @@
       <c r="N151" s="4"/>
       <c r="O151" s="4"/>
       <c r="P151" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q151" s="4"/>
       <c r="R151" s="4">
@@ -21852,12 +21879,12 @@
       <c r="V151" s="4"/>
       <c r="W151" s="4"/>
       <c r="X151" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y151" s="4"/>
       <c r="Z151" s="4"/>
       <c r="AA151" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AB151" s="4"/>
       <c r="AC151" s="4"/>
@@ -21871,7 +21898,7 @@
       <c r="AK151" s="4"/>
       <c r="AL151" s="4"/>
       <c r="AM151" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AN151" s="4"/>
       <c r="AO151" s="4"/>
@@ -21929,7 +21956,7 @@
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
       <c r="P152" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q152" s="4"/>
       <c r="R152" s="4">
@@ -21941,12 +21968,12 @@
       <c r="V152" s="4"/>
       <c r="W152" s="4"/>
       <c r="X152" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y152" s="4"/>
       <c r="Z152" s="4"/>
       <c r="AA152" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AB152" s="4"/>
       <c r="AC152" s="4"/>
@@ -21960,7 +21987,7 @@
       <c r="AK152" s="4"/>
       <c r="AL152" s="4"/>
       <c r="AM152" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN152" s="4"/>
       <c r="AO152" s="4"/>
@@ -22018,7 +22045,7 @@
       <c r="N153" s="4"/>
       <c r="O153" s="4"/>
       <c r="P153" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q153" s="4"/>
       <c r="R153" s="4">
@@ -22030,12 +22057,12 @@
       <c r="V153" s="4"/>
       <c r="W153" s="4"/>
       <c r="X153" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y153" s="4"/>
       <c r="Z153" s="4"/>
       <c r="AA153" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AB153" s="4"/>
       <c r="AC153" s="4"/>
@@ -22049,7 +22076,7 @@
       <c r="AK153" s="4"/>
       <c r="AL153" s="4"/>
       <c r="AM153" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN153" s="4"/>
       <c r="AO153" s="4"/>
@@ -22107,7 +22134,7 @@
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
       <c r="P154" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q154" s="4"/>
       <c r="R154" s="4">
@@ -22119,12 +22146,12 @@
       <c r="V154" s="4"/>
       <c r="W154" s="4"/>
       <c r="X154" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y154" s="4"/>
       <c r="Z154" s="4"/>
       <c r="AA154" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AB154" s="4"/>
       <c r="AC154" s="4"/>
@@ -22138,7 +22165,7 @@
       <c r="AK154" s="4"/>
       <c r="AL154" s="4"/>
       <c r="AM154" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AN154" s="4"/>
       <c r="AO154" s="4"/>
@@ -22196,7 +22223,7 @@
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
       <c r="P155" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q155" s="4"/>
       <c r="R155" s="4">
@@ -22208,12 +22235,12 @@
       <c r="V155" s="4"/>
       <c r="W155" s="4"/>
       <c r="X155" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y155" s="4"/>
       <c r="Z155" s="4"/>
       <c r="AA155" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AB155" s="4"/>
       <c r="AC155" s="4"/>
@@ -22227,7 +22254,7 @@
       <c r="AK155" s="4"/>
       <c r="AL155" s="4"/>
       <c r="AM155" s="4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN155" s="4"/>
       <c r="AO155" s="4"/>
@@ -22285,7 +22312,7 @@
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
       <c r="P156" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q156" s="4"/>
       <c r="R156" s="4">
@@ -22297,12 +22324,12 @@
       <c r="V156" s="4"/>
       <c r="W156" s="4"/>
       <c r="X156" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y156" s="4"/>
       <c r="Z156" s="4"/>
       <c r="AA156" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AB156" s="4"/>
       <c r="AC156" s="4"/>
@@ -22316,7 +22343,7 @@
       <c r="AK156" s="4"/>
       <c r="AL156" s="4"/>
       <c r="AM156" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN156" s="4"/>
       <c r="AO156" s="4"/>
@@ -22374,7 +22401,7 @@
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
       <c r="P157" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q157" s="4"/>
       <c r="R157" s="4">
@@ -22386,12 +22413,12 @@
       <c r="V157" s="4"/>
       <c r="W157" s="4"/>
       <c r="X157" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y157" s="4"/>
       <c r="Z157" s="4"/>
       <c r="AA157" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AB157" s="4"/>
       <c r="AC157" s="4"/>
@@ -22405,7 +22432,7 @@
       <c r="AK157" s="4"/>
       <c r="AL157" s="4"/>
       <c r="AM157" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN157" s="4"/>
       <c r="AO157" s="4"/>
@@ -22463,7 +22490,7 @@
       <c r="N158" s="4"/>
       <c r="O158" s="4"/>
       <c r="P158" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q158" s="4"/>
       <c r="R158" s="4">
@@ -22475,12 +22502,12 @@
       <c r="V158" s="4"/>
       <c r="W158" s="4"/>
       <c r="X158" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y158" s="4"/>
       <c r="Z158" s="4"/>
       <c r="AA158" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AB158" s="4"/>
       <c r="AC158" s="4"/>
@@ -22494,7 +22521,7 @@
       <c r="AK158" s="4"/>
       <c r="AL158" s="4"/>
       <c r="AM158" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AN158" s="4"/>
       <c r="AO158" s="4"/>
@@ -22552,7 +22579,7 @@
       <c r="N159" s="4"/>
       <c r="O159" s="4"/>
       <c r="P159" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q159" s="4"/>
       <c r="R159" s="4">
@@ -22564,12 +22591,12 @@
       <c r="V159" s="4"/>
       <c r="W159" s="4"/>
       <c r="X159" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y159" s="4"/>
       <c r="Z159" s="4"/>
       <c r="AA159" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AB159" s="4"/>
       <c r="AC159" s="4"/>
@@ -22583,7 +22610,7 @@
       <c r="AK159" s="4"/>
       <c r="AL159" s="4"/>
       <c r="AM159" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN159" s="4"/>
       <c r="AO159" s="4"/>
@@ -22641,7 +22668,7 @@
       <c r="N160" s="4"/>
       <c r="O160" s="4"/>
       <c r="P160" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q160" s="4"/>
       <c r="R160" s="4">
@@ -22653,12 +22680,12 @@
       <c r="V160" s="4"/>
       <c r="W160" s="4"/>
       <c r="X160" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y160" s="4"/>
       <c r="Z160" s="4"/>
       <c r="AA160" s="4" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AB160" s="4"/>
       <c r="AC160" s="4"/>
@@ -22672,7 +22699,7 @@
       <c r="AK160" s="4"/>
       <c r="AL160" s="4"/>
       <c r="AM160" s="4" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN160" s="4"/>
       <c r="AO160" s="4"/>
@@ -22989,7 +23016,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -23012,61 +23039,61 @@
     </row>
     <row r="2" spans="1:19" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -23159,7 +23186,7 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -23212,151 +23239,151 @@
     </row>
     <row r="2" spans="1:49" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="AE2" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -23551,7 +23578,7 @@
   <sheetData>
     <row r="1" spans="1:47" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -23602,145 +23629,145 @@
     </row>
     <row r="2" spans="1:47" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="AD2" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -23914,7 +23941,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -23924,22 +23951,22 @@
     </row>
     <row r="2" spans="1:6" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -23987,7 +24014,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -24008,55 +24035,55 @@
     </row>
     <row r="2" spans="1:17" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -24139,7 +24166,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -24153,34 +24180,34 @@
     </row>
     <row r="2" spans="1:10" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -24241,7 +24268,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -24252,25 +24279,25 @@
     </row>
     <row r="2" spans="1:7" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -24322,7 +24349,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -24361,109 +24388,109 @@
     </row>
     <row r="2" spans="1:35" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -24605,20 +24632,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -24658,16 +24685,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -24703,20 +24730,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -24758,16 +24785,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -24803,7 +24830,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -24812,19 +24839,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -24869,7 +24896,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -24881,28 +24908,28 @@
     </row>
     <row r="2" spans="1:8" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -24957,7 +24984,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -24973,40 +25000,40 @@
     </row>
     <row r="2" spans="1:12" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -25073,7 +25100,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -25082,19 +25109,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -25139,7 +25166,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -25162,61 +25189,61 @@
     </row>
     <row r="2" spans="1:19" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -25305,7 +25332,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -25315,22 +25342,22 @@
     </row>
     <row r="2" spans="1:6" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -25378,7 +25405,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -25404,70 +25431,70 @@
     </row>
     <row r="2" spans="1:22" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -25565,7 +25592,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -25582,43 +25609,43 @@
     </row>
     <row r="2" spans="1:13" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -25691,7 +25718,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -25700,19 +25727,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -25757,16 +25784,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/examples/sbtab-sbml/ecoli_wortel_2018_data.xlsx
+++ b/examples/sbtab-sbml/ecoli_wortel_2018_data.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="318">
   <si>
-    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2019-10-10 23:11:25'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2019-10-10 23:11:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2020-03-05 18:11:51'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2020-03-05 18:11:51' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6408,7 +6408,7 @@
     <t>!Identifiers:sbo.go</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2019-10-10 23:11:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2020-03-05 18:11:51' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6471,7 +6471,7 @@
     <t>!NameForPlots</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2019-10-10 23:11:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2020-03-05 18:11:51' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6486,7 +6486,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2019-10-10 23:11:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2020-03-05 18:11:51' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6507,7 +6507,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2019-10-10 23:11:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2020-03-05 18:11:51' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6522,7 +6522,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2019-10-10 23:11:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2020-03-05 18:11:51' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6552,7 +6552,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2019-10-10 23:11:25' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2020-03-05 18:11:51' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6588,7 +6588,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2019-10-10 23:11:26' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2020-03-05 18:11:51' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6600,7 +6600,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2019-10-10 23:11:26' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2020-03-05 18:11:51' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6609,16 +6609,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2019-10-10 23:11:26' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2020-03-05 18:11:51' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2019-10-10 23:11:26' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2019-10-10 23:11:26' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2020-03-05 18:11:51' ObjTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2020-03-05 18:11:51' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7038,7 +7038,7 @@
     <t>R11r</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2019-10-10 23:11:26' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7056,7 +7056,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2019-10-10 23:11:26' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7095,7 +7095,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2019-10-10 23:11:27' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7167,7 +7167,7 @@
     <t>!Regulator</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2019-10-10 23:11:27' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7179,7 +7179,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2019-10-10 23:11:27' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7191,7 +7191,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2019-10-10 23:11:27' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7206,13 +7206,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2019-10-10 23:11:27' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2019-10-10 23:11:27' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7221,13 +7221,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2019-10-10 23:11:27' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2019-10-10 23:11:27' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7236,19 +7236,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2019-10-10 23:11:27' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2019-10-10 23:11:27' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2019-10-10 23:11:28' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7269,7 +7269,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2019-10-10 23:11:28' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
@@ -7791,7 +7791,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A3:T3"/>
   <dataValidations count="20">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A4">
@@ -7897,7 +7897,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:C2"/>
   <dataValidations count="3">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Element" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Element" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -7999,7 +7999,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:O2"/>
   <dataValidations count="15">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -22741,7 +22741,7 @@
       <c r="BW160" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:BW160"/>
   <dataValidations count="75">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A160">
@@ -23097,7 +23097,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:S2"/>
   <dataValidations count="19">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="QuantityType" error="QuantityType (e.g. from SBO)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="QuantityType" prompt="QuantityType (e.g. from SBO)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -23387,7 +23387,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:AW2"/>
   <dataValidations count="49">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -23771,7 +23771,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:AU2"/>
   <dataValidations count="47">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -23970,7 +23970,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:F2"/>
   <dataValidations count="6">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Identifier shortname of the reaction&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Identifier shortname of the reaction&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -24087,7 +24087,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:Q2"/>
   <dataValidations count="17">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -24211,7 +24211,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:J2"/>
   <dataValidations count="10">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -24301,7 +24301,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:G2"/>
   <dataValidations count="7">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -24494,7 +24494,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:AI2"/>
   <dataValidations count="35">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -24649,7 +24649,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:C2"/>
   <dataValidations count="3">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -24698,7 +24698,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:B2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ColumnID" error="Column identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ColumnID" prompt="Column identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -24747,7 +24747,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:C2"/>
   <dataValidations count="3">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowNumber" error="Number of row&#10;&#10;Value must be an integer." promptTitle="RowNumber" prompt="Number of row&#10;&#10;Enter an integer." sqref="A2:A3">
@@ -24798,7 +24798,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:B2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -24855,7 +24855,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:E2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReactionID" error="Reaction shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReactionID" prompt="Reaction shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -24933,7 +24933,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:H2"/>
   <dataValidations count="8">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UID:Contingency" error="ID for contingency&#10;&#10;Value must be an integer." promptTitle="UID:Contingency" prompt="ID for contingency&#10;&#10;Enter an integer." sqref="A2:A3">
@@ -25037,7 +25037,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:L2"/>
   <dataValidations count="12">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="ID for reaction&#10;&#10;Value must be an integer." promptTitle="ID" prompt="ID for reaction&#10;&#10;Enter an integer." sqref="A2:A3">
@@ -25125,7 +25125,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:E2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentName" error="Name of component (table, column, attribute to be defined)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentName" prompt="Name of component (table, column, attribute to be defined)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -25247,7 +25247,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:S2"/>
   <dataValidations count="19">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -25361,7 +25361,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:F2"/>
   <dataValidations count="6">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Unique identifier of objective in FBC package&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Unique identifier of objective in FBC package&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -25498,7 +25498,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:V2"/>
   <dataValidations count="22">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -25649,7 +25649,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:M2"/>
   <dataValidations count="13">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Unique identifier of layout package&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Unique identifier of layout package&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -25743,7 +25743,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:E2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sample" error="Measurement value shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Sample" prompt="Measurement value shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -25797,7 +25797,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:B2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Option" error="Which option is addressed&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Option" prompt="Which option is addressed&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">

--- a/examples/sbtab-sbml/ecoli_wortel_2018_data.xlsx
+++ b/examples/sbtab-sbml/ecoli_wortel_2018_data.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="318">
   <si>
-    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2020-03-05 18:11:51'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2020-03-05 18:11:51' ObjTablesVersion='0.0.8'</t>
+    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 13:02:17'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6408,7 +6408,7 @@
     <t>!Identifiers:sbo.go</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2020-03-05 18:11:51' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6471,7 +6471,7 @@
     <t>!NameForPlots</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2020-03-05 18:11:51' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6486,7 +6486,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2020-03-05 18:11:51' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6507,7 +6507,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2020-03-05 18:11:51' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6522,7 +6522,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2020-03-05 18:11:51' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6552,7 +6552,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2020-03-05 18:11:51' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6588,7 +6588,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2020-03-05 18:11:51' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6600,7 +6600,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2020-03-05 18:11:51' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6609,16 +6609,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2020-03-05 18:11:51' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2020-03-05 18:11:51' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2020-03-05 18:11:51' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7038,7 +7038,7 @@
     <t>R11r</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7056,7 +7056,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7095,7 +7095,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7167,7 +7167,7 @@
     <t>!Regulator</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7179,7 +7179,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7191,7 +7191,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 13:02:18' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7206,13 +7206,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 13:02:18' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 13:02:18' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7221,13 +7221,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 13:02:18' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 13:02:18' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7236,19 +7236,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 13:02:18' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 13:02:18' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 13:02:18' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7269,7 +7269,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2020-03-05 18:11:52' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 13:02:18' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
@@ -22316,7 +22316,7 @@
       </c>
       <c r="Q156" s="4"/>
       <c r="R156" s="4">
-        <v>6.07602e-06</v>
+        <v>6.08e-06</v>
       </c>
       <c r="S156" s="4"/>
       <c r="T156" s="4"/>

--- a/examples/sbtab-sbml/ecoli_wortel_2018_data.xlsx
+++ b/examples/sbtab-sbml/ecoli_wortel_2018_data.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="318">
   <si>
-    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 13:02:17'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
+    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 15:32:40'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 15:32:40' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6408,7 +6408,7 @@
     <t>!Identifiers:sbo.go</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 15:32:40' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6471,7 +6471,7 @@
     <t>!NameForPlots</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 15:32:40' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6486,7 +6486,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 15:32:40' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6507,7 +6507,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 15:32:40' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6522,7 +6522,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 15:32:40' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6552,7 +6552,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 15:32:40' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6588,7 +6588,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 15:32:40' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6600,7 +6600,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 15:32:40' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6609,16 +6609,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 15:32:40' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 15:32:40' objTablesVersion='0.0.8' tableFormat='row'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 15:32:40' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7038,7 +7038,7 @@
     <t>R11r</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 15:32:40' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7056,7 +7056,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 15:32:40' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7095,7 +7095,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 15:32:40' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7167,7 +7167,7 @@
     <t>!Regulator</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 15:32:40' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7179,7 +7179,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 13:02:17' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 15:32:40' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7191,7 +7191,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 13:02:18' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 15:32:40' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7206,13 +7206,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 13:02:18' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 15:32:40' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 13:02:18' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 15:32:41' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7221,13 +7221,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 13:02:18' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 15:32:41' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 13:02:18' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 15:32:41' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7236,19 +7236,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 13:02:18' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 15:32:41' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 13:02:18' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 15:32:41' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 13:02:18' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 15:32:41' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7269,7 +7269,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 13:02:18' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 15:32:41' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
